--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10964D01-0DDC-0245-A2FF-45C3EE9570FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD87EFF-9E83-A542-B7BB-8EC1197E430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="425">
   <si>
     <t>Division</t>
   </si>
@@ -1898,7 +1898,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="691">
+  <dxfs count="693">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7055,11 +7069,11 @@
   <dimension ref="A1:AD164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8208,20 +8222,17 @@
       <c r="M23" t="s">
         <v>408</v>
       </c>
-      <c r="Z23" t="s">
-        <v>408</v>
-      </c>
       <c r="AB23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD23">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="20" x14ac:dyDescent="0.2">
@@ -13335,1243 +13346,1233 @@
   </sheetData>
   <autoFilter ref="A1:AA131" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="Z121:Z123">
-    <cfRule type="containsText" dxfId="690" priority="984" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="692" priority="986" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z123 Y123:Y131">
-    <cfRule type="containsText" dxfId="689" priority="597" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="691" priority="599" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="688" priority="569" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="690" priority="571" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="687" priority="568" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="689" priority="570" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="686" priority="565" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="688" priority="567" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="685" priority="564" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="687" priority="566" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="684" priority="561" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="686" priority="563" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="683" priority="560" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="685" priority="562" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y123:Y124">
-    <cfRule type="containsText" dxfId="682" priority="557" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="684" priority="559" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="681" priority="550" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="683" priority="552" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="680" priority="549" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="682" priority="551" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="679" priority="546" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="681" priority="548" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="678" priority="545" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="680" priority="547" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="677" priority="542" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="679" priority="544" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="676" priority="541" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="678" priority="543" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y125:Y131">
-    <cfRule type="containsText" dxfId="675" priority="534" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="677" priority="536" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="674" priority="531" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="676" priority="533" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="673" priority="530" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="675" priority="532" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="672" priority="527" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="674" priority="529" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="671" priority="526" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="673" priority="528" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="670" priority="507" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="672" priority="509" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="669" priority="506" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="671" priority="508" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="668" priority="503" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="670" priority="505" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="667" priority="502" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="669" priority="504" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="666" priority="495" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="668" priority="497" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="665" priority="494" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="667" priority="496" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="664" priority="491" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="666" priority="493" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="663" priority="490" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="665" priority="492" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="662" priority="487" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="664" priority="489" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="661" priority="486" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="663" priority="488" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="660" priority="483" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="662" priority="485" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="659" priority="482" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="661" priority="484" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="658" priority="479" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="660" priority="481" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="657" priority="478" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="659" priority="480" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="656" priority="475" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="658" priority="477" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="655" priority="474" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="657" priority="476" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="654" priority="471" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="656" priority="473" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="653" priority="470" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="655" priority="472" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="652" priority="467" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="654" priority="469" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="651" priority="466" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="653" priority="468" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="650" priority="463" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="652" priority="465" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="649" priority="462" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="651" priority="464" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="648" priority="459" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="650" priority="461" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="647" priority="458" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="649" priority="460" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="646" priority="455" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="648" priority="457" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="645" priority="454" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="647" priority="456" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="644" priority="451" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="646" priority="453" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="643" priority="450" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="645" priority="452" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="642" priority="447" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="644" priority="449" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="641" priority="446" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="643" priority="448" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="640" priority="443" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="642" priority="445" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="639" priority="442" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="641" priority="444" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="638" priority="439" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="640" priority="441" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="637" priority="438" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="639" priority="440" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="636" priority="435" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="638" priority="437" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="635" priority="434" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="637" priority="436" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="634" priority="431" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="636" priority="433" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="633" priority="430" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="635" priority="432" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="632" priority="427" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="634" priority="429" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="631" priority="426" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="633" priority="428" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="630" priority="423" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="632" priority="425" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="629" priority="422" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="631" priority="424" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="628" priority="419" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="630" priority="421" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="627" priority="418" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="629" priority="420" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="626" priority="415" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="628" priority="417" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="625" priority="414" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="627" priority="416" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="624" priority="411" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="626" priority="413" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="623" priority="410" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="625" priority="412" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="622" priority="407" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="624" priority="409" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="621" priority="406" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="623" priority="408" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="620" priority="403" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="622" priority="405" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="619" priority="402" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="621" priority="404" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="618" priority="399" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="620" priority="401" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="617" priority="398" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="619" priority="400" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="616" priority="395" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="618" priority="397" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="615" priority="394" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="617" priority="396" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="614" priority="391" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="616" priority="393" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="613" priority="390" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="615" priority="392" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="612" priority="387" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="614" priority="389" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="611" priority="386" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="613" priority="388" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="610" priority="383" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="612" priority="385" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="609" priority="382" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="611" priority="384" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="608" priority="379" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="610" priority="381" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="607" priority="378" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="609" priority="380" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="606" priority="375" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="608" priority="377" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="605" priority="374" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="607" priority="376" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="604" priority="371" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="606" priority="373" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="603" priority="370" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="605" priority="372" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="602" priority="367" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="604" priority="369" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="601" priority="366" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="603" priority="368" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="600" priority="363" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="602" priority="365" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="599" priority="362" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="601" priority="364" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="598" priority="359" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="600" priority="361" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="597" priority="358" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="599" priority="360" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="596" priority="355" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="598" priority="357" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="595" priority="354" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="597" priority="356" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="594" priority="351" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="596" priority="353" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="593" priority="350" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="595" priority="352" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="592" priority="347" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="594" priority="349" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="591" priority="346" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="593" priority="348" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="590" priority="343" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="592" priority="345" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="589" priority="342" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="591" priority="344" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="588" priority="339" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="590" priority="341" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="587" priority="338" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="589" priority="340" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="586" priority="335" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="588" priority="337" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="585" priority="334" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="587" priority="336" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="584" priority="331" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="586" priority="333" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="583" priority="330" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="585" priority="332" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="582" priority="327" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="584" priority="329" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="581" priority="326" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="583" priority="328" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="580" priority="323" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="582" priority="325" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="579" priority="322" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="581" priority="324" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="578" priority="319" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="580" priority="321" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="577" priority="318" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="579" priority="320" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="576" priority="315" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="578" priority="317" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="575" priority="314" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="577" priority="316" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="574" priority="311" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="576" priority="313" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="573" priority="310" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="575" priority="312" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="572" priority="307" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="574" priority="309" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="571" priority="306" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="573" priority="308" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="570" priority="303" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="572" priority="305" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="569" priority="302" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="571" priority="304" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="568" priority="299" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="570" priority="301" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="567" priority="298" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="569" priority="300" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="566" priority="295" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="568" priority="297" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="565" priority="294" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="567" priority="296" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="564" priority="291" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="566" priority="293" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="563" priority="290" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="565" priority="292" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="562" priority="287" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="564" priority="289" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="561" priority="286" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="563" priority="288" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="560" priority="283" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="562" priority="285" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="559" priority="282" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="561" priority="284" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="558" priority="279" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="560" priority="281" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="557" priority="278" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="559" priority="280" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="556" priority="275" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="558" priority="277" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="555" priority="274" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="557" priority="276" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="554" priority="271" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="556" priority="273" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="553" priority="270" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="555" priority="272" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="552" priority="267" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="554" priority="269" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="551" priority="266" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="553" priority="268" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="550" priority="263" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="552" priority="265" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="549" priority="262" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="551" priority="264" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="548" priority="259" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="550" priority="261" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="547" priority="258" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="549" priority="260" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="546" priority="255" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="548" priority="257" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="545" priority="254" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="547" priority="256" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="544" priority="251" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="546" priority="253" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="543" priority="250" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="545" priority="252" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="542" priority="247" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="544" priority="249" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="541" priority="246" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="543" priority="248" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="540" priority="243" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="542" priority="245" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="539" priority="242" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="541" priority="244" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="538" priority="239" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="540" priority="241" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="537" priority="238" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="539" priority="240" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="536" priority="235" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="538" priority="237" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="535" priority="234" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="537" priority="236" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="534" priority="231" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="536" priority="233" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="533" priority="230" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="535" priority="232" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="532" priority="227" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="534" priority="229" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="531" priority="226" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="533" priority="228" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="530" priority="223" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="532" priority="225" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="529" priority="222" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="531" priority="224" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="528" priority="219" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="530" priority="221" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="527" priority="218" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="529" priority="220" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="526" priority="215" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="528" priority="217" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="525" priority="214" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="527" priority="216" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="524" priority="211" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="526" priority="213" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="523" priority="210" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="525" priority="212" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="522" priority="207" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="524" priority="209" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="521" priority="206" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="523" priority="208" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="520" priority="203" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="522" priority="205" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="519" priority="202" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="521" priority="204" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="518" priority="199" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="520" priority="201" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="517" priority="198" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="519" priority="200" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="516" priority="191" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="518" priority="193" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="515" priority="190" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="517" priority="192" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="514" priority="187" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="516" priority="189" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="513" priority="186" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="515" priority="188" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="512" priority="183" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="514" priority="185" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="511" priority="182" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="513" priority="184" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="510" priority="179" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="512" priority="181" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="509" priority="178" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="511" priority="180" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="508" priority="175" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="510" priority="177" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="507" priority="174" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="509" priority="176" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="506" priority="171" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="508" priority="173" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="505" priority="170" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="507" priority="172" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="504" priority="167" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="506" priority="169" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="503" priority="166" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="505" priority="168" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="502" priority="163" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="504" priority="165" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="501" priority="162" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="503" priority="164" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="500" priority="159" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="502" priority="161" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="499" priority="158" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="501" priority="160" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="498" priority="155" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="500" priority="157" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="497" priority="154" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="499" priority="156" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="496" priority="151" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="498" priority="153" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="495" priority="150" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="497" priority="152" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="494" priority="147" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="496" priority="149" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="493" priority="146" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="495" priority="148" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="492" priority="143" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="494" priority="145" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="491" priority="142" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="493" priority="144" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="490" priority="139" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="492" priority="141" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="489" priority="138" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="491" priority="140" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="488" priority="131" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="490" priority="133" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="487" priority="130" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="489" priority="132" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="486" priority="127" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="488" priority="129" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="485" priority="126" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="487" priority="128" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="484" priority="115" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="486" priority="117" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="483" priority="114" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="485" priority="116" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="482" priority="111" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="484" priority="113" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="481" priority="110" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="483" priority="112" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="480" priority="107" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="482" priority="109" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="479" priority="106" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="481" priority="108" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="478" priority="103" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="480" priority="105" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="477" priority="102" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="479" priority="104" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="476" priority="99" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="478" priority="101" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="475" priority="98" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="477" priority="100" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z86">
-    <cfRule type="containsText" dxfId="474" priority="95" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="476" priority="97" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z86">
-    <cfRule type="containsText" dxfId="473" priority="94" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="475" priority="96" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="472" priority="71" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="474" priority="73" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="471" priority="70" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="473" priority="72" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="470" priority="67" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="472" priority="69" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="469" priority="66" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="471" priority="68" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="468" priority="63" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="470" priority="65" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="467" priority="62" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="469" priority="64" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="466" priority="55" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="468" priority="57" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="465" priority="54" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="467" priority="56" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="464" priority="51" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="466" priority="53" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="463" priority="50" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="465" priority="52" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="462" priority="47" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="464" priority="49" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="461" priority="46" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="463" priority="48" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="460" priority="43" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="462" priority="45" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="459" priority="42" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="461" priority="44" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="458" priority="39" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="460" priority="41" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="457" priority="38" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="459" priority="40" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="456" priority="35" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="458" priority="37" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="455" priority="34" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="457" priority="36" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="454" priority="31" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="456" priority="33" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="453" priority="30" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="455" priority="32" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="452" priority="27" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="454" priority="29" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="451" priority="26" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="453" priority="28" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="450" priority="23" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="452" priority="25" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="449" priority="22" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="451" priority="24" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="448" priority="19" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="450" priority="21" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="447" priority="18" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="449" priority="20" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="444" priority="7" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="446" priority="9" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="443" priority="6" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="445" priority="8" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Off Request">
-      <formula>NOT(ISERROR(SEARCH("Off Request",M23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Home">
-      <formula>NOT(ISERROR(SEARCH("Home",M23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14579,17 +14580,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1042" stopIfTrue="1" operator="equal" id="{B8F21C49-FECB-2747-BD76-17F1F07CE896}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1043" operator="equal" id="{43E45996-2389-7648-8C3F-1AF918726F4B}">
+          <x14:cfRule type="cellIs" priority="1044" stopIfTrue="1" operator="equal" id="{B8F21C49-FECB-2747-BD76-17F1F07CE896}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1045" operator="equal" id="{43E45996-2389-7648-8C3F-1AF918726F4B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14602,17 +14603,17 @@
           <xm:sqref>Q60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1040" stopIfTrue="1" operator="equal" id="{B46758B0-3BA8-AA40-B39D-C372A753D4B2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1041" operator="equal" id="{E7360A3B-6FE0-C140-A2E5-FF66C79E1A10}">
+          <x14:cfRule type="cellIs" priority="1042" stopIfTrue="1" operator="equal" id="{B46758B0-3BA8-AA40-B39D-C372A753D4B2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1043" operator="equal" id="{E7360A3B-6FE0-C140-A2E5-FF66C79E1A10}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14625,17 +14626,17 @@
           <xm:sqref>U164</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1036" stopIfTrue="1" operator="equal" id="{16DE8540-DF28-D648-A00C-141869EA1F99}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1037" operator="equal" id="{7F563A28-F177-D14C-B245-BAA1843144B9}">
+          <x14:cfRule type="cellIs" priority="1038" stopIfTrue="1" operator="equal" id="{16DE8540-DF28-D648-A00C-141869EA1F99}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1039" operator="equal" id="{7F563A28-F177-D14C-B245-BAA1843144B9}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14648,17 +14649,17 @@
           <xm:sqref>S110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1032" stopIfTrue="1" operator="equal" id="{1E3B7A9C-CCDB-4849-A2FC-548F8350AC2E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1033" operator="equal" id="{916BE90E-312C-554E-876F-4F531B0E91F1}">
+          <x14:cfRule type="cellIs" priority="1034" stopIfTrue="1" operator="equal" id="{1E3B7A9C-CCDB-4849-A2FC-548F8350AC2E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1035" operator="equal" id="{916BE90E-312C-554E-876F-4F531B0E91F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14671,17 +14672,17 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1028" stopIfTrue="1" operator="equal" id="{C4F0806F-CB42-BA47-995D-ACDFE57CECA8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1029" operator="equal" id="{7695F84A-29B6-B64E-A47E-85747B6873E3}">
+          <x14:cfRule type="cellIs" priority="1030" stopIfTrue="1" operator="equal" id="{C4F0806F-CB42-BA47-995D-ACDFE57CECA8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1031" operator="equal" id="{7695F84A-29B6-B64E-A47E-85747B6873E3}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14694,17 +14695,17 @@
           <xm:sqref>M118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1026" stopIfTrue="1" operator="equal" id="{6C3D3A5E-946E-1944-9EA1-4964BC352CCD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1027" operator="equal" id="{636AFD87-ADC7-D944-8B2A-CF180A29CF34}">
+          <x14:cfRule type="cellIs" priority="1028" stopIfTrue="1" operator="equal" id="{6C3D3A5E-946E-1944-9EA1-4964BC352CCD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1029" operator="equal" id="{636AFD87-ADC7-D944-8B2A-CF180A29CF34}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14717,17 +14718,17 @@
           <xm:sqref>Z50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1018" stopIfTrue="1" operator="equal" id="{DF33F242-E9B8-EF49-BB65-4A3705FD57E0}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1019" operator="equal" id="{46E8D10D-B9BD-F441-B124-59A399E47EB6}">
+          <x14:cfRule type="cellIs" priority="1020" stopIfTrue="1" operator="equal" id="{DF33F242-E9B8-EF49-BB65-4A3705FD57E0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1021" operator="equal" id="{46E8D10D-B9BD-F441-B124-59A399E47EB6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14740,17 +14741,17 @@
           <xm:sqref>R86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1016" stopIfTrue="1" operator="equal" id="{08C9F9B7-AA1B-0748-AA41-091984CEA4E4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1017" operator="equal" id="{D6348B08-61C4-3347-8491-60A74A98F26C}">
+          <x14:cfRule type="cellIs" priority="1018" stopIfTrue="1" operator="equal" id="{08C9F9B7-AA1B-0748-AA41-091984CEA4E4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1019" operator="equal" id="{D6348B08-61C4-3347-8491-60A74A98F26C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14763,17 +14764,17 @@
           <xm:sqref>R127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1014" stopIfTrue="1" operator="equal" id="{A5DD4F50-85D2-E54A-AB69-6BE5F524114E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1015" operator="equal" id="{AE7AF954-5717-C94D-AD8B-74D51CFC9FE4}">
+          <x14:cfRule type="cellIs" priority="1016" stopIfTrue="1" operator="equal" id="{A5DD4F50-85D2-E54A-AB69-6BE5F524114E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1017" operator="equal" id="{AE7AF954-5717-C94D-AD8B-74D51CFC9FE4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14786,17 +14787,17 @@
           <xm:sqref>Z32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1002" stopIfTrue="1" operator="equal" id="{5387F593-BB90-A84D-B2E5-11E6A788FC5F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1003" operator="equal" id="{5D0B0D7A-2EA2-E24D-8DF3-DF5D88B09728}">
+          <x14:cfRule type="cellIs" priority="1004" stopIfTrue="1" operator="equal" id="{5387F593-BB90-A84D-B2E5-11E6A788FC5F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1005" operator="equal" id="{5D0B0D7A-2EA2-E24D-8DF3-DF5D88B09728}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14809,17 +14810,17 @@
           <xm:sqref>R69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1000" stopIfTrue="1" operator="equal" id="{11490116-2FE1-1A4B-BE92-F615B4124EEC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1001" operator="equal" id="{D9AF94E4-DFC3-5A44-B712-6DB258EECC93}">
+          <x14:cfRule type="cellIs" priority="1002" stopIfTrue="1" operator="equal" id="{11490116-2FE1-1A4B-BE92-F615B4124EEC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1003" operator="equal" id="{D9AF94E4-DFC3-5A44-B712-6DB258EECC93}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14832,17 +14833,17 @@
           <xm:sqref>K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="998" stopIfTrue="1" operator="equal" id="{DDE200A8-049C-E448-A55E-8479759DD008}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="999" operator="equal" id="{C728B3C0-FF45-FB4F-B0AF-D1AD3D258F40}">
+          <x14:cfRule type="cellIs" priority="1000" stopIfTrue="1" operator="equal" id="{DDE200A8-049C-E448-A55E-8479759DD008}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1001" operator="equal" id="{C728B3C0-FF45-FB4F-B0AF-D1AD3D258F40}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14855,17 +14856,17 @@
           <xm:sqref>K119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="996" stopIfTrue="1" operator="equal" id="{7096E9D6-B401-D845-9C04-A949D1D78862}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="997" operator="equal" id="{73FEE7DB-FD05-A44C-B642-9A042DADCD8B}">
+          <x14:cfRule type="cellIs" priority="998" stopIfTrue="1" operator="equal" id="{7096E9D6-B401-D845-9C04-A949D1D78862}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="999" operator="equal" id="{73FEE7DB-FD05-A44C-B642-9A042DADCD8B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14878,17 +14879,17 @@
           <xm:sqref>Z25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="994" stopIfTrue="1" operator="equal" id="{31EDCF1A-E223-1B4E-AEF6-5253E1FA747C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="995" operator="equal" id="{0B86EB7E-06B8-1544-95F8-899BE916F22A}">
+          <x14:cfRule type="cellIs" priority="996" stopIfTrue="1" operator="equal" id="{31EDCF1A-E223-1B4E-AEF6-5253E1FA747C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="997" operator="equal" id="{0B86EB7E-06B8-1544-95F8-899BE916F22A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14901,17 +14902,17 @@
           <xm:sqref>Z87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="578" operator="equal" id="{881727F1-F454-3E40-B9E5-2832E32A3597}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="985" stopIfTrue="1" operator="equal" id="{8ED96105-43C4-EC4A-9258-5335AE5695EE}">
+          <x14:cfRule type="cellIs" priority="580" operator="equal" id="{881727F1-F454-3E40-B9E5-2832E32A3597}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="987" stopIfTrue="1" operator="equal" id="{8ED96105-43C4-EC4A-9258-5335AE5695EE}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -14924,17 +14925,17 @@
           <xm:sqref>Z121:Z123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="982" stopIfTrue="1" operator="equal" id="{33DA27C2-3E27-2248-9621-FA9DBBE902F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="983" operator="equal" id="{AC0B924A-6B9D-E944-8D54-F6CD1C0F41BD}">
+          <x14:cfRule type="cellIs" priority="984" stopIfTrue="1" operator="equal" id="{33DA27C2-3E27-2248-9621-FA9DBBE902F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="985" operator="equal" id="{AC0B924A-6B9D-E944-8D54-F6CD1C0F41BD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14947,17 +14948,17 @@
           <xm:sqref>R64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="980" stopIfTrue="1" operator="equal" id="{D7762E6B-0212-5A47-AEE7-4A3F1379904D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="981" operator="equal" id="{59823944-DD40-5C45-828D-7DBD0AB7391C}">
+          <x14:cfRule type="cellIs" priority="982" stopIfTrue="1" operator="equal" id="{D7762E6B-0212-5A47-AEE7-4A3F1379904D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="983" operator="equal" id="{59823944-DD40-5C45-828D-7DBD0AB7391C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14970,17 +14971,17 @@
           <xm:sqref>S64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="978" stopIfTrue="1" operator="equal" id="{97FA85E0-29BA-784A-B10F-2B34C26D5552}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="979" operator="equal" id="{29DF4259-F305-294E-9486-2C0A8E6480C8}">
+          <x14:cfRule type="cellIs" priority="980" stopIfTrue="1" operator="equal" id="{97FA85E0-29BA-784A-B10F-2B34C26D5552}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="981" operator="equal" id="{29DF4259-F305-294E-9486-2C0A8E6480C8}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14993,17 +14994,17 @@
           <xm:sqref>AA64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="974" stopIfTrue="1" operator="equal" id="{8EF1A0F2-C5FA-DD40-A98E-8EBD47ABB3E6}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="975" operator="equal" id="{05A4387F-4C05-D744-B209-1622B1BE3D6D}">
+          <x14:cfRule type="cellIs" priority="976" stopIfTrue="1" operator="equal" id="{8EF1A0F2-C5FA-DD40-A98E-8EBD47ABB3E6}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="977" operator="equal" id="{05A4387F-4C05-D744-B209-1622B1BE3D6D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15016,17 +15017,17 @@
           <xm:sqref>J70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="964" stopIfTrue="1" operator="equal" id="{3050AC31-1DA1-4042-BCD9-BBF85A37353E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="965" operator="equal" id="{59842BCD-F224-D146-9B5F-A31FE63EFCB7}">
+          <x14:cfRule type="cellIs" priority="966" stopIfTrue="1" operator="equal" id="{3050AC31-1DA1-4042-BCD9-BBF85A37353E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="967" operator="equal" id="{59842BCD-F224-D146-9B5F-A31FE63EFCB7}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15039,17 +15040,17 @@
           <xm:sqref>R46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="962" stopIfTrue="1" operator="equal" id="{9ABDBC09-81EE-EB4B-A699-7F00BE160088}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="963" operator="equal" id="{8DBE70D9-1DF3-484E-BDC1-400CC0015794}">
+          <x14:cfRule type="cellIs" priority="964" stopIfTrue="1" operator="equal" id="{9ABDBC09-81EE-EB4B-A699-7F00BE160088}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="965" operator="equal" id="{8DBE70D9-1DF3-484E-BDC1-400CC0015794}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15062,17 +15063,17 @@
           <xm:sqref>R106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="948" stopIfTrue="1" operator="equal" id="{160A2ADE-ABA0-9C47-8EFA-842500EB0449}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="949" operator="equal" id="{15BB4C4E-E140-FF46-8021-61DEB5BFEF68}">
+          <x14:cfRule type="cellIs" priority="950" stopIfTrue="1" operator="equal" id="{160A2ADE-ABA0-9C47-8EFA-842500EB0449}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="951" operator="equal" id="{15BB4C4E-E140-FF46-8021-61DEB5BFEF68}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15085,17 +15086,17 @@
           <xm:sqref>Q36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="944" stopIfTrue="1" operator="equal" id="{E3CEE448-98E5-1B4C-BF0A-9B5F3F4E02F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="945" operator="equal" id="{818D8602-580E-1841-ADC9-EFE47BD40388}">
+          <x14:cfRule type="cellIs" priority="946" stopIfTrue="1" operator="equal" id="{E3CEE448-98E5-1B4C-BF0A-9B5F3F4E02F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="947" operator="equal" id="{818D8602-580E-1841-ADC9-EFE47BD40388}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15108,17 +15109,17 @@
           <xm:sqref>S18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="940" stopIfTrue="1" operator="equal" id="{B339A9C6-666D-3D4F-AC7C-711DC813D36F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="941" operator="equal" id="{959B0C4E-EC58-2849-BADA-B628E3737758}">
+          <x14:cfRule type="cellIs" priority="942" stopIfTrue="1" operator="equal" id="{B339A9C6-666D-3D4F-AC7C-711DC813D36F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="943" operator="equal" id="{959B0C4E-EC58-2849-BADA-B628E3737758}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15131,17 +15132,17 @@
           <xm:sqref>R84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="938" stopIfTrue="1" operator="equal" id="{9F98199F-DCF1-464A-8219-1DC656411C9E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="939" operator="equal" id="{B3B5E7AC-08F4-D448-8F14-C9A9E4E36E64}">
+          <x14:cfRule type="cellIs" priority="940" stopIfTrue="1" operator="equal" id="{9F98199F-DCF1-464A-8219-1DC656411C9E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="941" operator="equal" id="{B3B5E7AC-08F4-D448-8F14-C9A9E4E36E64}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15154,17 +15155,17 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="936" stopIfTrue="1" operator="equal" id="{AA0A5D38-C1AC-C74B-BE09-21691DF27B93}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="937" operator="equal" id="{22D35834-5606-6F48-9398-AC865858DD4E}">
+          <x14:cfRule type="cellIs" priority="938" stopIfTrue="1" operator="equal" id="{AA0A5D38-C1AC-C74B-BE09-21691DF27B93}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="939" operator="equal" id="{22D35834-5606-6F48-9398-AC865858DD4E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15177,17 +15178,17 @@
           <xm:sqref>M130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="926" stopIfTrue="1" operator="equal" id="{15FF22AE-C9A5-0346-9D81-93EB1A4B4FD9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="927" operator="equal" id="{4D61668A-9DFC-064B-8DD3-F56FDECACDAB}">
+          <x14:cfRule type="cellIs" priority="928" stopIfTrue="1" operator="equal" id="{15FF22AE-C9A5-0346-9D81-93EB1A4B4FD9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="929" operator="equal" id="{4D61668A-9DFC-064B-8DD3-F56FDECACDAB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15200,17 +15201,17 @@
           <xm:sqref>L65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="924" stopIfTrue="1" operator="equal" id="{2E5C1682-0FFD-8849-A51E-04025B84E57A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="925" operator="equal" id="{1EB151A6-F577-2741-ABD2-326BAFAF6326}">
+          <x14:cfRule type="cellIs" priority="926" stopIfTrue="1" operator="equal" id="{2E5C1682-0FFD-8849-A51E-04025B84E57A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="927" operator="equal" id="{1EB151A6-F577-2741-ABD2-326BAFAF6326}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15223,17 +15224,17 @@
           <xm:sqref>L109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="922" stopIfTrue="1" operator="equal" id="{1CE3FB13-74FD-8C4A-8145-EA88C5AB3F12}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="923" operator="equal" id="{65704A62-1753-5349-8D07-8D18068BE414}">
+          <x14:cfRule type="cellIs" priority="924" stopIfTrue="1" operator="equal" id="{1CE3FB13-74FD-8C4A-8145-EA88C5AB3F12}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="925" operator="equal" id="{65704A62-1753-5349-8D07-8D18068BE414}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15246,17 +15247,17 @@
           <xm:sqref>Z66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="918" stopIfTrue="1" operator="equal" id="{F3830CB7-8A98-9E41-98F5-A9B22291A7B5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="919" operator="equal" id="{50462366-D9FB-0945-A594-E9E74C027A9A}">
+          <x14:cfRule type="cellIs" priority="920" stopIfTrue="1" operator="equal" id="{F3830CB7-8A98-9E41-98F5-A9B22291A7B5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="921" operator="equal" id="{50462366-D9FB-0945-A594-E9E74C027A9A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15269,17 +15270,17 @@
           <xm:sqref>Q21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="784" stopIfTrue="1" operator="equal" id="{FB7DAF59-CDF1-0F46-97C5-2BF84FC5C668}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="785" operator="equal" id="{B61B11C5-C62B-7345-985F-472D40595EED}">
+          <x14:cfRule type="cellIs" priority="786" stopIfTrue="1" operator="equal" id="{FB7DAF59-CDF1-0F46-97C5-2BF84FC5C668}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="787" operator="equal" id="{B61B11C5-C62B-7345-985F-472D40595EED}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15292,17 +15293,17 @@
           <xm:sqref>R67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="782" stopIfTrue="1" operator="equal" id="{B59DD66C-AB3C-CB42-9F09-74576444AA77}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="783" operator="equal" id="{E5DD8DB4-0033-DC4A-A62D-8C069E843BBC}">
+          <x14:cfRule type="cellIs" priority="784" stopIfTrue="1" operator="equal" id="{B59DD66C-AB3C-CB42-9F09-74576444AA77}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="785" operator="equal" id="{E5DD8DB4-0033-DC4A-A62D-8C069E843BBC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15315,17 +15316,17 @@
           <xm:sqref>T67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="780" stopIfTrue="1" operator="equal" id="{D5FBD6E4-D607-8644-8709-EE5540241951}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="781" operator="equal" id="{30B5E45B-2913-FB49-ADCB-04FF3D6F99B1}">
+          <x14:cfRule type="cellIs" priority="782" stopIfTrue="1" operator="equal" id="{D5FBD6E4-D607-8644-8709-EE5540241951}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="783" operator="equal" id="{30B5E45B-2913-FB49-ADCB-04FF3D6F99B1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15338,17 +15339,17 @@
           <xm:sqref>V67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="778" stopIfTrue="1" operator="equal" id="{23B14C99-E044-0546-A05B-8DDFD1A6445B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="779" operator="equal" id="{21D69A42-1B53-0B44-A98E-2EB19DBB0E21}">
+          <x14:cfRule type="cellIs" priority="780" stopIfTrue="1" operator="equal" id="{23B14C99-E044-0546-A05B-8DDFD1A6445B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="781" operator="equal" id="{21D69A42-1B53-0B44-A98E-2EB19DBB0E21}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15361,17 +15362,17 @@
           <xm:sqref>W67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="776" stopIfTrue="1" operator="equal" id="{870D1A61-6366-4F4B-BBD9-6503CAE67D09}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="777" operator="equal" id="{D853CA65-4061-5C4A-8FC1-491E7AC4E240}">
+          <x14:cfRule type="cellIs" priority="778" stopIfTrue="1" operator="equal" id="{870D1A61-6366-4F4B-BBD9-6503CAE67D09}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="779" operator="equal" id="{D853CA65-4061-5C4A-8FC1-491E7AC4E240}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15384,17 +15385,17 @@
           <xm:sqref>Z67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="774" stopIfTrue="1" operator="equal" id="{68AFC342-05D6-2B4B-B37D-E904A940ADE3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="775" operator="equal" id="{CED18387-5A71-7F45-9E23-7DED98966C6C}">
+          <x14:cfRule type="cellIs" priority="776" stopIfTrue="1" operator="equal" id="{68AFC342-05D6-2B4B-B37D-E904A940ADE3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="777" operator="equal" id="{CED18387-5A71-7F45-9E23-7DED98966C6C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15407,17 +15408,17 @@
           <xm:sqref>AA67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="714" stopIfTrue="1" operator="equal" id="{33C9F4DD-8EAA-0542-84B2-B68A39E58A12}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="715" operator="equal" id="{8596C912-48E7-1147-ACCF-4F095B2AEFE5}">
+          <x14:cfRule type="cellIs" priority="716" stopIfTrue="1" operator="equal" id="{33C9F4DD-8EAA-0542-84B2-B68A39E58A12}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="717" operator="equal" id="{8596C912-48E7-1147-ACCF-4F095B2AEFE5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15430,17 +15431,17 @@
           <xm:sqref>R19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="712" stopIfTrue="1" operator="equal" id="{7673B1CB-A612-094E-B631-46A283D9FBCA}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="713" operator="equal" id="{DE7BACFD-A744-1444-8943-BDAA147C32F1}">
+          <x14:cfRule type="cellIs" priority="714" stopIfTrue="1" operator="equal" id="{7673B1CB-A612-094E-B631-46A283D9FBCA}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="715" operator="equal" id="{DE7BACFD-A744-1444-8943-BDAA147C32F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15453,17 +15454,17 @@
           <xm:sqref>R13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="710" stopIfTrue="1" operator="equal" id="{A459854E-EBFE-A34E-8EED-0EA9CBD3490C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="711" operator="equal" id="{E4C2B1A9-9B51-644E-82E9-69F74841FFC4}">
+          <x14:cfRule type="cellIs" priority="712" stopIfTrue="1" operator="equal" id="{A459854E-EBFE-A34E-8EED-0EA9CBD3490C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="713" operator="equal" id="{E4C2B1A9-9B51-644E-82E9-69F74841FFC4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15476,17 +15477,17 @@
           <xm:sqref>I13:I14 I18:I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="706" stopIfTrue="1" operator="equal" id="{2EC8E46B-8D69-E946-AF5F-9500AB9D4F76}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="707" operator="equal" id="{B6EF0668-CE4E-1C45-9EF1-140E7EEA29CC}">
+          <x14:cfRule type="cellIs" priority="708" stopIfTrue="1" operator="equal" id="{2EC8E46B-8D69-E946-AF5F-9500AB9D4F76}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="709" operator="equal" id="{B6EF0668-CE4E-1C45-9EF1-140E7EEA29CC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15499,17 +15500,17 @@
           <xm:sqref>P147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="704" stopIfTrue="1" operator="equal" id="{8E3A209F-7C04-D742-82D2-829167695300}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="705" operator="equal" id="{E56AF8BE-0342-C24E-B236-0EC227AF318F}">
+          <x14:cfRule type="cellIs" priority="706" stopIfTrue="1" operator="equal" id="{8E3A209F-7C04-D742-82D2-829167695300}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="707" operator="equal" id="{E56AF8BE-0342-C24E-B236-0EC227AF318F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15522,17 +15523,17 @@
           <xm:sqref>N141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="702" stopIfTrue="1" operator="equal" id="{B3566CFB-496D-4746-BD8B-3ADFA7764AC4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="703" operator="equal" id="{DC643038-E83A-EC48-8B76-89BC00ACF75D}">
+          <x14:cfRule type="cellIs" priority="704" stopIfTrue="1" operator="equal" id="{B3566CFB-496D-4746-BD8B-3ADFA7764AC4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="705" operator="equal" id="{DC643038-E83A-EC48-8B76-89BC00ACF75D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15545,17 +15546,17 @@
           <xm:sqref>M141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="700" stopIfTrue="1" operator="equal" id="{8EB3C511-504C-5F4A-B549-84431F8567A3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="701" operator="equal" id="{01B3819D-9CD7-CC4F-9F9A-E05C7D3549AB}">
+          <x14:cfRule type="cellIs" priority="702" stopIfTrue="1" operator="equal" id="{8EB3C511-504C-5F4A-B549-84431F8567A3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="703" operator="equal" id="{01B3819D-9CD7-CC4F-9F9A-E05C7D3549AB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15568,17 +15569,17 @@
           <xm:sqref>L141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="698" stopIfTrue="1" operator="equal" id="{80D41A3A-98BA-3349-B532-79F408E4B21A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="699" operator="equal" id="{F768298C-CC19-284A-B8BF-0C256F08772C}">
+          <x14:cfRule type="cellIs" priority="700" stopIfTrue="1" operator="equal" id="{80D41A3A-98BA-3349-B532-79F408E4B21A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="701" operator="equal" id="{F768298C-CC19-284A-B8BF-0C256F08772C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15591,17 +15592,17 @@
           <xm:sqref>K141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="696" stopIfTrue="1" operator="equal" id="{371C8D65-FAA9-6742-ADBE-CAD711B62879}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="697" operator="equal" id="{D45A7BB4-C3E3-DC42-8F6B-05F9D2300876}">
+          <x14:cfRule type="cellIs" priority="698" stopIfTrue="1" operator="equal" id="{371C8D65-FAA9-6742-ADBE-CAD711B62879}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="699" operator="equal" id="{D45A7BB4-C3E3-DC42-8F6B-05F9D2300876}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15614,17 +15615,17 @@
           <xm:sqref>J141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="694" stopIfTrue="1" operator="equal" id="{6EAF2E20-8B39-0B43-B26C-C49191EF9142}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="695" operator="equal" id="{33DD5BE4-9AF2-0B43-A07E-F2BCC03AB1B0}">
+          <x14:cfRule type="cellIs" priority="696" stopIfTrue="1" operator="equal" id="{6EAF2E20-8B39-0B43-B26C-C49191EF9142}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="697" operator="equal" id="{33DD5BE4-9AF2-0B43-A07E-F2BCC03AB1B0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15637,17 +15638,17 @@
           <xm:sqref>I141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="692" stopIfTrue="1" operator="equal" id="{721B23E0-080D-3742-ABAE-2CC88C87AA0A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="693" operator="equal" id="{F3D2BC7A-715D-A549-8DD6-0DFA1898B876}">
+          <x14:cfRule type="cellIs" priority="694" stopIfTrue="1" operator="equal" id="{721B23E0-080D-3742-ABAE-2CC88C87AA0A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="695" operator="equal" id="{F3D2BC7A-715D-A549-8DD6-0DFA1898B876}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15660,17 +15661,17 @@
           <xm:sqref>X141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="690" stopIfTrue="1" operator="equal" id="{9E02E47A-9D0B-074F-BB62-64DC3C53F30D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="691" operator="equal" id="{63AAD570-AE0E-2043-94A6-B73EBA7BFC17}">
+          <x14:cfRule type="cellIs" priority="692" stopIfTrue="1" operator="equal" id="{9E02E47A-9D0B-074F-BB62-64DC3C53F30D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="693" operator="equal" id="{63AAD570-AE0E-2043-94A6-B73EBA7BFC17}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15683,17 +15684,17 @@
           <xm:sqref>Y141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="688" stopIfTrue="1" operator="equal" id="{C573C457-6152-0743-B78A-1F1A09D52AC5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="689" operator="equal" id="{F5B9DE07-A7E5-6B48-AAF5-81312DF936B5}">
+          <x14:cfRule type="cellIs" priority="690" stopIfTrue="1" operator="equal" id="{C573C457-6152-0743-B78A-1F1A09D52AC5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="691" operator="equal" id="{F5B9DE07-A7E5-6B48-AAF5-81312DF936B5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15706,17 +15707,17 @@
           <xm:sqref>Z141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="686" stopIfTrue="1" operator="equal" id="{27228EE8-43E2-B24B-A706-E2A9F17C9EA5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="687" operator="equal" id="{588EF9CF-E4F4-744A-9952-38EAF1B50742}">
+          <x14:cfRule type="cellIs" priority="688" stopIfTrue="1" operator="equal" id="{27228EE8-43E2-B24B-A706-E2A9F17C9EA5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="689" operator="equal" id="{588EF9CF-E4F4-744A-9952-38EAF1B50742}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15729,17 +15730,17 @@
           <xm:sqref>I142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="684" stopIfTrue="1" operator="equal" id="{CE43376E-65BC-4B4A-BCFE-D70BF1E45729}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="685" operator="equal" id="{CBC8CE1B-30E2-1341-91F1-51D739F568C1}">
+          <x14:cfRule type="cellIs" priority="686" stopIfTrue="1" operator="equal" id="{CE43376E-65BC-4B4A-BCFE-D70BF1E45729}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="687" operator="equal" id="{CBC8CE1B-30E2-1341-91F1-51D739F568C1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15752,17 +15753,17 @@
           <xm:sqref>K142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="682" stopIfTrue="1" operator="equal" id="{C4B33A45-42F3-894B-BF1A-9244BDD19535}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="683" operator="equal" id="{15DFFF79-D40D-7D4B-B047-35A446E3C113}">
+          <x14:cfRule type="cellIs" priority="684" stopIfTrue="1" operator="equal" id="{C4B33A45-42F3-894B-BF1A-9244BDD19535}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="685" operator="equal" id="{15DFFF79-D40D-7D4B-B047-35A446E3C113}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15775,17 +15776,17 @@
           <xm:sqref>M142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="680" stopIfTrue="1" operator="equal" id="{FC175B4A-AB1C-A142-95CF-E50D45720BD3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="681" operator="equal" id="{DA85519F-79E0-8C42-A0A5-179212923529}">
+          <x14:cfRule type="cellIs" priority="682" stopIfTrue="1" operator="equal" id="{FC175B4A-AB1C-A142-95CF-E50D45720BD3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="683" operator="equal" id="{DA85519F-79E0-8C42-A0A5-179212923529}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15798,17 +15799,17 @@
           <xm:sqref>O142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="678" stopIfTrue="1" operator="equal" id="{9AC5E474-FB65-4545-979D-0DB2AF157F71}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="679" operator="equal" id="{E6816027-6430-0842-9348-CA10FAA93547}">
+          <x14:cfRule type="cellIs" priority="680" stopIfTrue="1" operator="equal" id="{9AC5E474-FB65-4545-979D-0DB2AF157F71}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="681" operator="equal" id="{E6816027-6430-0842-9348-CA10FAA93547}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15821,17 +15822,17 @@
           <xm:sqref>Q142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="676" stopIfTrue="1" operator="equal" id="{AC1F680F-4ABA-0144-94B0-7A3B27B65893}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="677" operator="equal" id="{0244B78B-CB90-B64F-B40A-E80BF4C8A4EC}">
+          <x14:cfRule type="cellIs" priority="678" stopIfTrue="1" operator="equal" id="{AC1F680F-4ABA-0144-94B0-7A3B27B65893}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="679" operator="equal" id="{0244B78B-CB90-B64F-B40A-E80BF4C8A4EC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15844,17 +15845,17 @@
           <xm:sqref>S142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="674" stopIfTrue="1" operator="equal" id="{D07747CD-1D8A-C448-AB5D-39DA7D8E9FE8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="675" operator="equal" id="{93BEBEEF-C823-3F49-9D29-1F3775DAE09C}">
+          <x14:cfRule type="cellIs" priority="676" stopIfTrue="1" operator="equal" id="{D07747CD-1D8A-C448-AB5D-39DA7D8E9FE8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="677" operator="equal" id="{93BEBEEF-C823-3F49-9D29-1F3775DAE09C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15867,17 +15868,17 @@
           <xm:sqref>U142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="672" stopIfTrue="1" operator="equal" id="{1DB1A343-7F8F-DF48-84D5-C21D85E312E9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="673" operator="equal" id="{A6B31165-38E5-6E46-B5DA-5BD66689707E}">
+          <x14:cfRule type="cellIs" priority="674" stopIfTrue="1" operator="equal" id="{1DB1A343-7F8F-DF48-84D5-C21D85E312E9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="675" operator="equal" id="{A6B31165-38E5-6E46-B5DA-5BD66689707E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15890,17 +15891,17 @@
           <xm:sqref>W142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="670" stopIfTrue="1" operator="equal" id="{7E1DE444-9C4B-1944-913E-E380D2F31ED4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="671" operator="equal" id="{C1A8FDB2-0994-DF43-8939-E793B71EBDBB}">
+          <x14:cfRule type="cellIs" priority="672" stopIfTrue="1" operator="equal" id="{7E1DE444-9C4B-1944-913E-E380D2F31ED4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="673" operator="equal" id="{C1A8FDB2-0994-DF43-8939-E793B71EBDBB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15913,17 +15914,17 @@
           <xm:sqref>Y142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="668" stopIfTrue="1" operator="equal" id="{E365216E-D285-7145-B15B-81497FAA9F0D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="669" operator="equal" id="{E69C23FE-E205-5E42-BBA1-F06C9EFEF28D}">
+          <x14:cfRule type="cellIs" priority="670" stopIfTrue="1" operator="equal" id="{E365216E-D285-7145-B15B-81497FAA9F0D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="671" operator="equal" id="{E69C23FE-E205-5E42-BBA1-F06C9EFEF28D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15936,17 +15937,17 @@
           <xm:sqref>J140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="666" stopIfTrue="1" operator="equal" id="{26C7A783-3EFA-764B-AD5E-800D712CF746}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="667" operator="equal" id="{A11E5773-EC41-7542-B4A7-3010C4F4B75F}">
+          <x14:cfRule type="cellIs" priority="668" stopIfTrue="1" operator="equal" id="{26C7A783-3EFA-764B-AD5E-800D712CF746}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="669" operator="equal" id="{A11E5773-EC41-7542-B4A7-3010C4F4B75F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15959,17 +15960,17 @@
           <xm:sqref>K140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="664" stopIfTrue="1" operator="equal" id="{1F6C9277-673A-7044-9238-5889C669B9A1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="665" operator="equal" id="{21043E87-7DC7-AF41-B433-18CDAA0C7EE1}">
+          <x14:cfRule type="cellIs" priority="666" stopIfTrue="1" operator="equal" id="{1F6C9277-673A-7044-9238-5889C669B9A1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="667" operator="equal" id="{21043E87-7DC7-AF41-B433-18CDAA0C7EE1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15982,17 +15983,17 @@
           <xm:sqref>N140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="662" stopIfTrue="1" operator="equal" id="{AAEF8A0D-655A-EB42-B4C7-FFA818760CF2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="663" operator="equal" id="{972365D3-2B2F-6C4E-9D5D-21161CC929BE}">
+          <x14:cfRule type="cellIs" priority="664" stopIfTrue="1" operator="equal" id="{AAEF8A0D-655A-EB42-B4C7-FFA818760CF2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="665" operator="equal" id="{972365D3-2B2F-6C4E-9D5D-21161CC929BE}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16005,17 +16006,17 @@
           <xm:sqref>P140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="660" stopIfTrue="1" operator="equal" id="{43AFC509-0331-994C-B9DD-29C0EDC66723}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="661" operator="equal" id="{A8BBF19B-0344-4346-8CC7-DD8F251F08EA}">
+          <x14:cfRule type="cellIs" priority="662" stopIfTrue="1" operator="equal" id="{43AFC509-0331-994C-B9DD-29C0EDC66723}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="663" operator="equal" id="{A8BBF19B-0344-4346-8CC7-DD8F251F08EA}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16028,17 +16029,17 @@
           <xm:sqref>R140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="658" stopIfTrue="1" operator="equal" id="{14767652-7EE4-4442-9879-ED3F4BBEAC63}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="659" operator="equal" id="{C9959D16-FF88-0D41-84E2-9DD9B15A6D28}">
+          <x14:cfRule type="cellIs" priority="660" stopIfTrue="1" operator="equal" id="{14767652-7EE4-4442-9879-ED3F4BBEAC63}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="661" operator="equal" id="{C9959D16-FF88-0D41-84E2-9DD9B15A6D28}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16051,17 +16052,17 @@
           <xm:sqref>U140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="656" stopIfTrue="1" operator="equal" id="{4D8D83CE-F574-A443-89A9-5FF0DCF29530}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="657" operator="equal" id="{56A786E2-8BEA-3544-80FC-766AF2EECA07}">
+          <x14:cfRule type="cellIs" priority="658" stopIfTrue="1" operator="equal" id="{4D8D83CE-F574-A443-89A9-5FF0DCF29530}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="659" operator="equal" id="{56A786E2-8BEA-3544-80FC-766AF2EECA07}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16074,17 +16075,17 @@
           <xm:sqref>X140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="654" stopIfTrue="1" operator="equal" id="{221975DC-D343-994A-803B-1953118EEA5D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="655" operator="equal" id="{18C5B217-4FBA-8B4C-BCD5-8FA31141B1B1}">
+          <x14:cfRule type="cellIs" priority="656" stopIfTrue="1" operator="equal" id="{221975DC-D343-994A-803B-1953118EEA5D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="657" operator="equal" id="{18C5B217-4FBA-8B4C-BCD5-8FA31141B1B1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16097,17 +16098,17 @@
           <xm:sqref>Y140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="652" stopIfTrue="1" operator="equal" id="{FBB9E2C2-2E7C-8C4B-90EA-F9FDC4279244}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="653" operator="equal" id="{0DF1ABF0-6874-B445-B23D-BC8DC9BF43E8}">
+          <x14:cfRule type="cellIs" priority="654" stopIfTrue="1" operator="equal" id="{FBB9E2C2-2E7C-8C4B-90EA-F9FDC4279244}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="655" operator="equal" id="{0DF1ABF0-6874-B445-B23D-BC8DC9BF43E8}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16120,17 +16121,17 @@
           <xm:sqref>Z140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="650" stopIfTrue="1" operator="equal" id="{8E7F0203-3EF4-8149-B7AB-6CE6FA426FCF}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="651" operator="equal" id="{05202053-C6F3-804A-9818-669EC5A4DA44}">
+          <x14:cfRule type="cellIs" priority="652" stopIfTrue="1" operator="equal" id="{8E7F0203-3EF4-8149-B7AB-6CE6FA426FCF}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="653" operator="equal" id="{05202053-C6F3-804A-9818-669EC5A4DA44}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16143,17 +16144,17 @@
           <xm:sqref>I139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="648" stopIfTrue="1" operator="equal" id="{984AAFE3-28FD-7A48-AC20-C9EFA95B26CC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="649" operator="equal" id="{498A7BBC-D17C-A24D-8939-D51CE129285D}">
+          <x14:cfRule type="cellIs" priority="650" stopIfTrue="1" operator="equal" id="{984AAFE3-28FD-7A48-AC20-C9EFA95B26CC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="651" operator="equal" id="{498A7BBC-D17C-A24D-8939-D51CE129285D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16166,17 +16167,17 @@
           <xm:sqref>K139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="646" stopIfTrue="1" operator="equal" id="{5C15A365-FA03-EB47-9251-3F7281571041}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="647" operator="equal" id="{1155C27E-5376-2243-9327-6A6512701A49}">
+          <x14:cfRule type="cellIs" priority="648" stopIfTrue="1" operator="equal" id="{5C15A365-FA03-EB47-9251-3F7281571041}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="649" operator="equal" id="{1155C27E-5376-2243-9327-6A6512701A49}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16189,17 +16190,17 @@
           <xm:sqref>L139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="644" stopIfTrue="1" operator="equal" id="{E45A6F3B-6868-6241-9329-AB2B5723A4EB}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="645" operator="equal" id="{FCD7FD27-3261-7B4C-A993-7D3E519CD4FD}">
+          <x14:cfRule type="cellIs" priority="646" stopIfTrue="1" operator="equal" id="{E45A6F3B-6868-6241-9329-AB2B5723A4EB}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="647" operator="equal" id="{FCD7FD27-3261-7B4C-A993-7D3E519CD4FD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16212,17 +16213,17 @@
           <xm:sqref>O139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="642" stopIfTrue="1" operator="equal" id="{8E7DA33B-BEAF-D44F-A390-1FBD0FB9F2D1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="643" operator="equal" id="{241FE201-5E0A-3244-A0F2-8FFB3974CD64}">
+          <x14:cfRule type="cellIs" priority="644" stopIfTrue="1" operator="equal" id="{8E7DA33B-BEAF-D44F-A390-1FBD0FB9F2D1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="645" operator="equal" id="{241FE201-5E0A-3244-A0F2-8FFB3974CD64}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16235,17 +16236,17 @@
           <xm:sqref>S139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="640" stopIfTrue="1" operator="equal" id="{2E1981AF-FDF5-AC4F-996B-4737F8FA941C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="641" operator="equal" id="{987E0448-75B0-9B45-BF04-EC773F5AD82B}">
+          <x14:cfRule type="cellIs" priority="642" stopIfTrue="1" operator="equal" id="{2E1981AF-FDF5-AC4F-996B-4737F8FA941C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="643" operator="equal" id="{987E0448-75B0-9B45-BF04-EC773F5AD82B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16258,17 +16259,17 @@
           <xm:sqref>U139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="638" stopIfTrue="1" operator="equal" id="{7626FB23-BB3A-594A-A2B5-D4D4B803BDE0}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="639" operator="equal" id="{3D413AAF-A1F8-FC4C-9ED1-105B1EA137F5}">
+          <x14:cfRule type="cellIs" priority="640" stopIfTrue="1" operator="equal" id="{7626FB23-BB3A-594A-A2B5-D4D4B803BDE0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="641" operator="equal" id="{3D413AAF-A1F8-FC4C-9ED1-105B1EA137F5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16281,17 +16282,17 @@
           <xm:sqref>X139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="636" stopIfTrue="1" operator="equal" id="{15D70CCE-D912-9341-9223-68A53228B780}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="637" operator="equal" id="{4A140F29-852D-F945-8D23-052C65C615D0}">
+          <x14:cfRule type="cellIs" priority="638" stopIfTrue="1" operator="equal" id="{15D70CCE-D912-9341-9223-68A53228B780}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="639" operator="equal" id="{4A140F29-852D-F945-8D23-052C65C615D0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16304,17 +16305,17 @@
           <xm:sqref>Z139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="634" stopIfTrue="1" operator="equal" id="{3A95B9A3-D21B-C94C-B3D8-A7EFDE9195F2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="635" operator="equal" id="{073B0958-6AF2-7C41-9E63-30F5E1ECA1F1}">
+          <x14:cfRule type="cellIs" priority="636" stopIfTrue="1" operator="equal" id="{3A95B9A3-D21B-C94C-B3D8-A7EFDE9195F2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="637" operator="equal" id="{073B0958-6AF2-7C41-9E63-30F5E1ECA1F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16327,17 +16328,17 @@
           <xm:sqref>I144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="632" stopIfTrue="1" operator="equal" id="{01A66FC7-DC1F-A141-A306-CBDDC42AF642}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="633" operator="equal" id="{A348EA3B-1D22-7048-9F6A-D3E0ACCF24AF}">
+          <x14:cfRule type="cellIs" priority="634" stopIfTrue="1" operator="equal" id="{01A66FC7-DC1F-A141-A306-CBDDC42AF642}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="635" operator="equal" id="{A348EA3B-1D22-7048-9F6A-D3E0ACCF24AF}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16350,17 +16351,17 @@
           <xm:sqref>K144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="630" stopIfTrue="1" operator="equal" id="{40FAEC30-B30A-8D43-8009-DDD3DEDFD739}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="631" operator="equal" id="{364744C5-6BA1-D04A-BB8D-5686134FEC8D}">
+          <x14:cfRule type="cellIs" priority="632" stopIfTrue="1" operator="equal" id="{40FAEC30-B30A-8D43-8009-DDD3DEDFD739}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="633" operator="equal" id="{364744C5-6BA1-D04A-BB8D-5686134FEC8D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16373,17 +16374,17 @@
           <xm:sqref>O144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="628" stopIfTrue="1" operator="equal" id="{D2A7337A-0BD8-0343-860C-CCBCD6E5FE84}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="629" operator="equal" id="{FB00D27E-8628-3A43-9464-62BF35AE9E60}">
+          <x14:cfRule type="cellIs" priority="630" stopIfTrue="1" operator="equal" id="{D2A7337A-0BD8-0343-860C-CCBCD6E5FE84}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="631" operator="equal" id="{FB00D27E-8628-3A43-9464-62BF35AE9E60}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16396,17 +16397,17 @@
           <xm:sqref>P144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="626" stopIfTrue="1" operator="equal" id="{3BEC1028-F6E8-E340-B8EC-E23A5FDC6705}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="627" operator="equal" id="{05A9C8F7-DD7A-CE4C-BF64-F04194B8403B}">
+          <x14:cfRule type="cellIs" priority="628" stopIfTrue="1" operator="equal" id="{3BEC1028-F6E8-E340-B8EC-E23A5FDC6705}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="629" operator="equal" id="{05A9C8F7-DD7A-CE4C-BF64-F04194B8403B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16419,17 +16420,17 @@
           <xm:sqref>S144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="624" stopIfTrue="1" operator="equal" id="{90508BC8-DFDF-7F4A-A444-0CAB8231E0AE}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="625" operator="equal" id="{212D98B2-ED32-2A41-941B-87AF812A52C7}">
+          <x14:cfRule type="cellIs" priority="626" stopIfTrue="1" operator="equal" id="{90508BC8-DFDF-7F4A-A444-0CAB8231E0AE}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="627" operator="equal" id="{212D98B2-ED32-2A41-941B-87AF812A52C7}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16442,17 +16443,17 @@
           <xm:sqref>U144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="622" stopIfTrue="1" operator="equal" id="{F0834520-483F-D440-BE14-2226E8978103}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="623" operator="equal" id="{B0B21511-817A-2340-A169-FAFE1FEF483E}">
+          <x14:cfRule type="cellIs" priority="624" stopIfTrue="1" operator="equal" id="{F0834520-483F-D440-BE14-2226E8978103}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="625" operator="equal" id="{B0B21511-817A-2340-A169-FAFE1FEF483E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16465,17 +16466,17 @@
           <xm:sqref>V144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="620" stopIfTrue="1" operator="equal" id="{BD95B31E-072D-7649-AD30-015B1CA55566}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="621" operator="equal" id="{E61AB912-4DBE-8549-93C3-42010B3CAD34}">
+          <x14:cfRule type="cellIs" priority="622" stopIfTrue="1" operator="equal" id="{BD95B31E-072D-7649-AD30-015B1CA55566}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="623" operator="equal" id="{E61AB912-4DBE-8549-93C3-42010B3CAD34}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16488,17 +16489,17 @@
           <xm:sqref>Y144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="618" stopIfTrue="1" operator="equal" id="{9AD1FC55-3ECB-284D-9487-71C4971E00C1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="619" operator="equal" id="{422AC68A-C6E2-354E-869A-8F07AEF4FF22}">
+          <x14:cfRule type="cellIs" priority="620" stopIfTrue="1" operator="equal" id="{9AD1FC55-3ECB-284D-9487-71C4971E00C1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="621" operator="equal" id="{422AC68A-C6E2-354E-869A-8F07AEF4FF22}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16511,17 +16512,17 @@
           <xm:sqref>Z144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="612" stopIfTrue="1" operator="equal" id="{4C917A97-EB4B-ED4A-82D6-3970DDC31602}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="613" operator="equal" id="{23E8EA7D-6D49-4646-816D-E2F732E88B06}">
+          <x14:cfRule type="cellIs" priority="614" stopIfTrue="1" operator="equal" id="{4C917A97-EB4B-ED4A-82D6-3970DDC31602}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="615" operator="equal" id="{23E8EA7D-6D49-4646-816D-E2F732E88B06}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16534,17 +16535,17 @@
           <xm:sqref>G138:H147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="610" stopIfTrue="1" operator="equal" id="{0483F300-E256-FC47-AD97-ECEC8E056228}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="611" operator="equal" id="{B76DAE6E-0463-6641-AD48-77F57568D58B}">
+          <x14:cfRule type="cellIs" priority="612" stopIfTrue="1" operator="equal" id="{0483F300-E256-FC47-AD97-ECEC8E056228}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="613" operator="equal" id="{B76DAE6E-0463-6641-AD48-77F57568D58B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16557,17 +16558,17 @@
           <xm:sqref>Q139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="608" stopIfTrue="1" operator="equal" id="{FD184665-CCCF-6043-B4E9-56262AA1C64F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="609" operator="equal" id="{99608DFA-2631-2F45-92C2-9AD9F5983AE0}">
+          <x14:cfRule type="cellIs" priority="610" stopIfTrue="1" operator="equal" id="{FD184665-CCCF-6043-B4E9-56262AA1C64F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="611" operator="equal" id="{99608DFA-2631-2F45-92C2-9AD9F5983AE0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16580,17 +16581,17 @@
           <xm:sqref>Q145</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="606" stopIfTrue="1" operator="equal" id="{76C20ABA-AF5A-6D40-B65A-74CB2750F72D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="607" operator="equal" id="{226A21B2-9FBA-BF4F-B1B5-675C3F188806}">
+          <x14:cfRule type="cellIs" priority="608" stopIfTrue="1" operator="equal" id="{76C20ABA-AF5A-6D40-B65A-74CB2750F72D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="609" operator="equal" id="{226A21B2-9FBA-BF4F-B1B5-675C3F188806}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16603,17 +16604,17 @@
           <xm:sqref>R144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="604" stopIfTrue="1" operator="equal" id="{58C5315A-CD64-EB40-8B58-D22B86CF5649}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="605" operator="equal" id="{195859E4-9103-1A42-938F-7B7A4B213F3F}">
+          <x14:cfRule type="cellIs" priority="606" stopIfTrue="1" operator="equal" id="{58C5315A-CD64-EB40-8B58-D22B86CF5649}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="607" operator="equal" id="{195859E4-9103-1A42-938F-7B7A4B213F3F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16626,17 +16627,17 @@
           <xm:sqref>N154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="602" stopIfTrue="1" operator="equal" id="{9CE50279-DCAF-4F46-99F5-2E2DDD900070}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="603" operator="equal" id="{F8304A22-D1EC-6341-BF87-CC9EF22BFA35}">
+          <x14:cfRule type="cellIs" priority="604" stopIfTrue="1" operator="equal" id="{9CE50279-DCAF-4F46-99F5-2E2DDD900070}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="605" operator="equal" id="{F8304A22-D1EC-6341-BF87-CC9EF22BFA35}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16649,17 +16650,17 @@
           <xm:sqref>N115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="600" stopIfTrue="1" operator="equal" id="{F87C7F3B-FF11-4842-8638-7D1335687DFF}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="601" operator="equal" id="{0D76F3F2-C77D-2846-AAA9-8DA17EC80608}">
+          <x14:cfRule type="cellIs" priority="602" stopIfTrue="1" operator="equal" id="{F87C7F3B-FF11-4842-8638-7D1335687DFF}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="603" operator="equal" id="{0D76F3F2-C77D-2846-AAA9-8DA17EC80608}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16672,17 +16673,17 @@
           <xm:sqref>M85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="567" operator="equal" id="{B5F100CA-740E-3248-AFA7-6108CD1B5618}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="570" stopIfTrue="1" operator="equal" id="{D39B1A2E-2570-6347-BBAA-3BD0ABB29D51}">
+          <x14:cfRule type="cellIs" priority="569" operator="equal" id="{B5F100CA-740E-3248-AFA7-6108CD1B5618}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="572" stopIfTrue="1" operator="equal" id="{D39B1A2E-2570-6347-BBAA-3BD0ABB29D51}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16695,17 +16696,17 @@
           <xm:sqref>AA121:AA124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="563" operator="equal" id="{A0ECDCDD-A4A3-5846-A539-EEE3B2BE3435}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="566" stopIfTrue="1" operator="equal" id="{112A46A0-A22D-5D49-9A71-9048643B2AF2}">
+          <x14:cfRule type="cellIs" priority="565" operator="equal" id="{A0ECDCDD-A4A3-5846-A539-EEE3B2BE3435}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="568" stopIfTrue="1" operator="equal" id="{112A46A0-A22D-5D49-9A71-9048643B2AF2}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16718,17 +16719,17 @@
           <xm:sqref>AA118:AA120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="559" operator="equal" id="{95DC4265-D048-FB45-8F46-2E24CEF8004B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="562" stopIfTrue="1" operator="equal" id="{01E5168D-3BF2-8B4D-921E-5EF93200DE11}">
+          <x14:cfRule type="cellIs" priority="561" operator="equal" id="{95DC4265-D048-FB45-8F46-2E24CEF8004B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="564" stopIfTrue="1" operator="equal" id="{01E5168D-3BF2-8B4D-921E-5EF93200DE11}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16741,17 +16742,17 @@
           <xm:sqref>Y118:Y122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="556" operator="equal" id="{BF08D5D0-11D3-1341-B6D2-CD2260124D75}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="558" stopIfTrue="1" operator="equal" id="{DAE19FFA-BF60-6F48-A9C2-C63554BF9C66}">
+          <x14:cfRule type="cellIs" priority="558" operator="equal" id="{BF08D5D0-11D3-1341-B6D2-CD2260124D75}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="560" stopIfTrue="1" operator="equal" id="{DAE19FFA-BF60-6F48-A9C2-C63554BF9C66}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16764,17 +16765,17 @@
           <xm:sqref>Y123:Y124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="548" operator="equal" id="{3E32FC67-9A6C-4949-9A91-EEB553023F05}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="551" stopIfTrue="1" operator="equal" id="{5CBCD9F3-BAB6-7C45-9B0E-AA7C25AB3666}">
+          <x14:cfRule type="cellIs" priority="550" operator="equal" id="{3E32FC67-9A6C-4949-9A91-EEB553023F05}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="553" stopIfTrue="1" operator="equal" id="{5CBCD9F3-BAB6-7C45-9B0E-AA7C25AB3666}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16787,17 +16788,17 @@
           <xm:sqref>Z88:Z93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="544" operator="equal" id="{C0765E8C-E466-494A-B266-CAD865755609}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="547" stopIfTrue="1" operator="equal" id="{510C2C29-BDD9-F540-B3BD-539E80D8075B}">
+          <x14:cfRule type="cellIs" priority="546" operator="equal" id="{C0765E8C-E466-494A-B266-CAD865755609}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="549" stopIfTrue="1" operator="equal" id="{510C2C29-BDD9-F540-B3BD-539E80D8075B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16810,17 +16811,17 @@
           <xm:sqref>AA94:AA99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="540" operator="equal" id="{1C0FF3F8-099E-A74B-B44B-61013D70F15B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="543" stopIfTrue="1" operator="equal" id="{8C4B8EFB-8D13-4F46-A88D-259CC24EAEFD}">
+          <x14:cfRule type="cellIs" priority="542" operator="equal" id="{1C0FF3F8-099E-A74B-B44B-61013D70F15B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="545" stopIfTrue="1" operator="equal" id="{8C4B8EFB-8D13-4F46-A88D-259CC24EAEFD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16833,17 +16834,17 @@
           <xm:sqref>AA101:AA117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="533" operator="equal" id="{661DC988-0BF7-3749-A58F-F8DEBFABB898}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="535" stopIfTrue="1" operator="equal" id="{FEA4BCFD-360C-DE44-BE50-37F86B86F407}">
+          <x14:cfRule type="cellIs" priority="535" operator="equal" id="{661DC988-0BF7-3749-A58F-F8DEBFABB898}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="537" stopIfTrue="1" operator="equal" id="{FEA4BCFD-360C-DE44-BE50-37F86B86F407}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16856,17 +16857,17 @@
           <xm:sqref>Y125:Y131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="529" operator="equal" id="{A68BA7A1-328C-5A40-A6C9-B04CBF594E93}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="532" stopIfTrue="1" operator="equal" id="{D156D8C1-33B8-2C45-ACAA-69FAB8DDA844}">
+          <x14:cfRule type="cellIs" priority="531" operator="equal" id="{A68BA7A1-328C-5A40-A6C9-B04CBF594E93}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="534" stopIfTrue="1" operator="equal" id="{D156D8C1-33B8-2C45-ACAA-69FAB8DDA844}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16879,17 +16880,17 @@
           <xm:sqref>Z125:Z130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="525" operator="equal" id="{D6DA8CC0-C541-5B44-BD5B-9B21A341AACB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="528" stopIfTrue="1" operator="equal" id="{B4A6D78C-5420-F244-8262-472AE09F6368}">
+          <x14:cfRule type="cellIs" priority="527" operator="equal" id="{D6DA8CC0-C541-5B44-BD5B-9B21A341AACB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="530" stopIfTrue="1" operator="equal" id="{B4A6D78C-5420-F244-8262-472AE09F6368}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16902,17 +16903,17 @@
           <xm:sqref>AA125:AA131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="505" operator="equal" id="{C47E6087-7A91-2A4F-80F1-E5FDCAC8D3D6}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="508" stopIfTrue="1" operator="equal" id="{7E76B8EB-189D-684B-AE06-79E6C4A751E0}">
+          <x14:cfRule type="cellIs" priority="507" operator="equal" id="{C47E6087-7A91-2A4F-80F1-E5FDCAC8D3D6}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="510" stopIfTrue="1" operator="equal" id="{7E76B8EB-189D-684B-AE06-79E6C4A751E0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16925,17 +16926,17 @@
           <xm:sqref>P3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="501" operator="equal" id="{9DBFC7D7-413A-464A-92F2-B01B0B628265}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="504" stopIfTrue="1" operator="equal" id="{98DB3B71-055B-1C41-BD5E-346B244B262E}">
+          <x14:cfRule type="cellIs" priority="503" operator="equal" id="{9DBFC7D7-413A-464A-92F2-B01B0B628265}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="506" stopIfTrue="1" operator="equal" id="{98DB3B71-055B-1C41-BD5E-346B244B262E}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16948,17 +16949,17 @@
           <xm:sqref>J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="493" operator="equal" id="{3F4B9CE9-1DD2-504D-A9D4-1958950B7187}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="496" stopIfTrue="1" operator="equal" id="{773771BA-4268-014B-8499-28D2E847DD80}">
+          <x14:cfRule type="cellIs" priority="495" operator="equal" id="{3F4B9CE9-1DD2-504D-A9D4-1958950B7187}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="498" stopIfTrue="1" operator="equal" id="{773771BA-4268-014B-8499-28D2E847DD80}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16971,17 +16972,17 @@
           <xm:sqref>J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="489" operator="equal" id="{705988D1-8C8F-4E4E-96B5-9541B43136C9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="492" stopIfTrue="1" operator="equal" id="{ECA827C8-8AAE-174E-88A0-78263C9EA8A0}">
+          <x14:cfRule type="cellIs" priority="491" operator="equal" id="{705988D1-8C8F-4E4E-96B5-9541B43136C9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="494" stopIfTrue="1" operator="equal" id="{ECA827C8-8AAE-174E-88A0-78263C9EA8A0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16994,17 +16995,17 @@
           <xm:sqref>K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="485" operator="equal" id="{12C5853B-542D-7D4D-BA27-73C65620A15D}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="488" stopIfTrue="1" operator="equal" id="{689B6242-D50C-6F46-88AD-272C8D26F219}">
+          <x14:cfRule type="cellIs" priority="487" operator="equal" id="{12C5853B-542D-7D4D-BA27-73C65620A15D}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="490" stopIfTrue="1" operator="equal" id="{689B6242-D50C-6F46-88AD-272C8D26F219}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17017,17 +17018,17 @@
           <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="481" operator="equal" id="{8D2974D0-9BD9-C144-817F-4801BFBF11A9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="484" stopIfTrue="1" operator="equal" id="{8702AF39-13F8-4049-83A0-F16B9658AEAB}">
+          <x14:cfRule type="cellIs" priority="483" operator="equal" id="{8D2974D0-9BD9-C144-817F-4801BFBF11A9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="486" stopIfTrue="1" operator="equal" id="{8702AF39-13F8-4049-83A0-F16B9658AEAB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17040,17 +17041,17 @@
           <xm:sqref>J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="477" operator="equal" id="{7DC10360-A12C-B849-BB7E-5AA35E8109B5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="480" stopIfTrue="1" operator="equal" id="{E9A001FD-5304-2D47-9973-DD44C2782B50}">
+          <x14:cfRule type="cellIs" priority="479" operator="equal" id="{7DC10360-A12C-B849-BB7E-5AA35E8109B5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="482" stopIfTrue="1" operator="equal" id="{E9A001FD-5304-2D47-9973-DD44C2782B50}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17063,17 +17064,17 @@
           <xm:sqref>J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="473" operator="equal" id="{0593EB66-A78D-244C-B279-814E22620901}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="476" stopIfTrue="1" operator="equal" id="{9D73447F-4607-0B46-B482-4EFF29FE1D03}">
+          <x14:cfRule type="cellIs" priority="475" operator="equal" id="{0593EB66-A78D-244C-B279-814E22620901}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="478" stopIfTrue="1" operator="equal" id="{9D73447F-4607-0B46-B482-4EFF29FE1D03}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17086,17 +17087,17 @@
           <xm:sqref>J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="469" operator="equal" id="{1B8D078B-F754-124A-A000-08EDDB430166}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="472" stopIfTrue="1" operator="equal" id="{07623138-F9FE-644A-986E-055F128E680C}">
+          <x14:cfRule type="cellIs" priority="471" operator="equal" id="{1B8D078B-F754-124A-A000-08EDDB430166}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="474" stopIfTrue="1" operator="equal" id="{07623138-F9FE-644A-986E-055F128E680C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17109,17 +17110,17 @@
           <xm:sqref>L13:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="465" operator="equal" id="{5C547ED2-B735-034E-8A1E-B936383F2CFB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="468" stopIfTrue="1" operator="equal" id="{ADAE6A4E-5101-E144-8BB9-8A6450680595}">
+          <x14:cfRule type="cellIs" priority="467" operator="equal" id="{5C547ED2-B735-034E-8A1E-B936383F2CFB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="470" stopIfTrue="1" operator="equal" id="{ADAE6A4E-5101-E144-8BB9-8A6450680595}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17132,17 +17133,17 @@
           <xm:sqref>L11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="461" operator="equal" id="{29B104E6-4957-B34A-9E91-E7B2FBE2F166}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="464" stopIfTrue="1" operator="equal" id="{7D633A52-9556-9E45-AA6B-B88017318CD4}">
+          <x14:cfRule type="cellIs" priority="463" operator="equal" id="{29B104E6-4957-B34A-9E91-E7B2FBE2F166}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="466" stopIfTrue="1" operator="equal" id="{7D633A52-9556-9E45-AA6B-B88017318CD4}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17155,17 +17156,17 @@
           <xm:sqref>L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="457" operator="equal" id="{53ADFA02-AD97-5946-B79B-C55091009B8A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="460" stopIfTrue="1" operator="equal" id="{E23A1EF4-2D0D-EE43-A87F-B4DE5D85AADC}">
+          <x14:cfRule type="cellIs" priority="459" operator="equal" id="{53ADFA02-AD97-5946-B79B-C55091009B8A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="462" stopIfTrue="1" operator="equal" id="{E23A1EF4-2D0D-EE43-A87F-B4DE5D85AADC}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17178,17 +17179,17 @@
           <xm:sqref>M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="453" operator="equal" id="{83A08424-DD25-6844-9479-935B9AE301CE}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="456" stopIfTrue="1" operator="equal" id="{AA9110FF-4109-B945-BCF2-E5D99A95CA00}">
+          <x14:cfRule type="cellIs" priority="455" operator="equal" id="{83A08424-DD25-6844-9479-935B9AE301CE}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="458" stopIfTrue="1" operator="equal" id="{AA9110FF-4109-B945-BCF2-E5D99A95CA00}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17201,17 +17202,17 @@
           <xm:sqref>M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="449" operator="equal" id="{035F5013-2C7F-034C-99E6-8E62D85BE962}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="452" stopIfTrue="1" operator="equal" id="{A64F7CBB-396A-AA4E-9FB6-D8F98AA0ADDD}">
+          <x14:cfRule type="cellIs" priority="451" operator="equal" id="{035F5013-2C7F-034C-99E6-8E62D85BE962}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="454" stopIfTrue="1" operator="equal" id="{A64F7CBB-396A-AA4E-9FB6-D8F98AA0ADDD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17224,17 +17225,17 @@
           <xm:sqref>N11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="445" operator="equal" id="{BB1762A0-3C08-C24F-BE4D-F6C15301B28A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="448" stopIfTrue="1" operator="equal" id="{20BB3EFA-2A2E-0B4B-BFE4-566A4B8DEEAB}">
+          <x14:cfRule type="cellIs" priority="447" operator="equal" id="{BB1762A0-3C08-C24F-BE4D-F6C15301B28A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="450" stopIfTrue="1" operator="equal" id="{20BB3EFA-2A2E-0B4B-BFE4-566A4B8DEEAB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17247,17 +17248,17 @@
           <xm:sqref>N15:N16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="441" operator="equal" id="{5B9D3828-F849-C148-82F9-39BA7C309429}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="444" stopIfTrue="1" operator="equal" id="{A0E3F067-0F5A-8C46-9399-32021AC2465C}">
+          <x14:cfRule type="cellIs" priority="443" operator="equal" id="{5B9D3828-F849-C148-82F9-39BA7C309429}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="446" stopIfTrue="1" operator="equal" id="{A0E3F067-0F5A-8C46-9399-32021AC2465C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17270,17 +17271,17 @@
           <xm:sqref>O14:O15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="437" operator="equal" id="{4FB07AC9-EF1D-8148-86F8-098F660F7504}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="440" stopIfTrue="1" operator="equal" id="{76593C95-CE48-5949-9934-55C9ACFDF415}">
+          <x14:cfRule type="cellIs" priority="439" operator="equal" id="{4FB07AC9-EF1D-8148-86F8-098F660F7504}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="442" stopIfTrue="1" operator="equal" id="{76593C95-CE48-5949-9934-55C9ACFDF415}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17293,17 +17294,17 @@
           <xm:sqref>P11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="433" operator="equal" id="{6191D368-ABA8-644C-9351-1A8531DDC49D}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="436" stopIfTrue="1" operator="equal" id="{5605BE01-0957-3548-B91A-D1A1B4862E82}">
+          <x14:cfRule type="cellIs" priority="435" operator="equal" id="{6191D368-ABA8-644C-9351-1A8531DDC49D}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="438" stopIfTrue="1" operator="equal" id="{5605BE01-0957-3548-B91A-D1A1B4862E82}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17316,17 +17317,17 @@
           <xm:sqref>P13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="429" operator="equal" id="{021092B1-E2B2-554C-B40C-7D4372886127}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="432" stopIfTrue="1" operator="equal" id="{38FD1228-7133-4A4B-BF9F-F4B1A470B2CA}">
+          <x14:cfRule type="cellIs" priority="431" operator="equal" id="{021092B1-E2B2-554C-B40C-7D4372886127}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="434" stopIfTrue="1" operator="equal" id="{38FD1228-7133-4A4B-BF9F-F4B1A470B2CA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17339,17 +17340,17 @@
           <xm:sqref>P16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="425" operator="equal" id="{94C0F6EF-9113-3541-8EAF-CB4FFFA00036}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="428" stopIfTrue="1" operator="equal" id="{DA658331-AF2E-DA42-8586-4816CDFA7E8C}">
+          <x14:cfRule type="cellIs" priority="427" operator="equal" id="{94C0F6EF-9113-3541-8EAF-CB4FFFA00036}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="430" stopIfTrue="1" operator="equal" id="{DA658331-AF2E-DA42-8586-4816CDFA7E8C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17362,17 +17363,17 @@
           <xm:sqref>P18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="421" operator="equal" id="{4C8222C7-2CE9-9241-ABCC-0AC30DCF0957}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="424" stopIfTrue="1" operator="equal" id="{23263C80-8972-0D45-86E8-77B8C69E7060}">
+          <x14:cfRule type="cellIs" priority="423" operator="equal" id="{4C8222C7-2CE9-9241-ABCC-0AC30DCF0957}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="426" stopIfTrue="1" operator="equal" id="{23263C80-8972-0D45-86E8-77B8C69E7060}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17385,17 +17386,17 @@
           <xm:sqref>Q14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="417" operator="equal" id="{11982E32-A2E4-A245-BAD6-79AF1418C194}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="420" stopIfTrue="1" operator="equal" id="{1E22BA0F-0864-B74D-B841-F01680AF32CA}">
+          <x14:cfRule type="cellIs" priority="419" operator="equal" id="{11982E32-A2E4-A245-BAD6-79AF1418C194}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="422" stopIfTrue="1" operator="equal" id="{1E22BA0F-0864-B74D-B841-F01680AF32CA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17408,17 +17409,17 @@
           <xm:sqref>Q18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="413" operator="equal" id="{4376CD1A-E3D0-574C-9532-8745F7EFC7D1}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="416" stopIfTrue="1" operator="equal" id="{5743A979-3360-224A-86E2-E0AC8B74B015}">
+          <x14:cfRule type="cellIs" priority="415" operator="equal" id="{4376CD1A-E3D0-574C-9532-8745F7EFC7D1}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="418" stopIfTrue="1" operator="equal" id="{5743A979-3360-224A-86E2-E0AC8B74B015}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17431,17 +17432,17 @@
           <xm:sqref>R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="409" operator="equal" id="{36B92971-831A-9545-9C5E-8D883814E649}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="412" stopIfTrue="1" operator="equal" id="{B2935112-C898-354C-8DAE-59413C69CC12}">
+          <x14:cfRule type="cellIs" priority="411" operator="equal" id="{36B92971-831A-9545-9C5E-8D883814E649}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="414" stopIfTrue="1" operator="equal" id="{B2935112-C898-354C-8DAE-59413C69CC12}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17454,17 +17455,17 @@
           <xm:sqref>S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="405" operator="equal" id="{87E20782-3F41-3A4C-90CF-BC34007EDD3C}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="408" stopIfTrue="1" operator="equal" id="{D4F1F75E-7692-7140-9E94-A736240C5E8D}">
+          <x14:cfRule type="cellIs" priority="407" operator="equal" id="{87E20782-3F41-3A4C-90CF-BC34007EDD3C}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="410" stopIfTrue="1" operator="equal" id="{D4F1F75E-7692-7140-9E94-A736240C5E8D}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17477,17 +17478,17 @@
           <xm:sqref>T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="401" operator="equal" id="{4F782191-59F0-E047-BEBD-80DEA6D01578}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="404" stopIfTrue="1" operator="equal" id="{EA457E94-89C1-A540-BA58-3B72838F3C9A}">
+          <x14:cfRule type="cellIs" priority="403" operator="equal" id="{4F782191-59F0-E047-BEBD-80DEA6D01578}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="406" stopIfTrue="1" operator="equal" id="{EA457E94-89C1-A540-BA58-3B72838F3C9A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17500,17 +17501,17 @@
           <xm:sqref>S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="397" operator="equal" id="{11204725-7693-2C4E-AB30-66523F2B8DAB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="400" stopIfTrue="1" operator="equal" id="{2BCD0F55-9239-D84E-9788-36DD9EB00486}">
+          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{11204725-7693-2C4E-AB30-66523F2B8DAB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="402" stopIfTrue="1" operator="equal" id="{2BCD0F55-9239-D84E-9788-36DD9EB00486}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17523,17 +17524,17 @@
           <xm:sqref>T16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="393" operator="equal" id="{11DF7C5F-EA6E-4F4C-8FAD-DBBBD6FD46EF}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="396" stopIfTrue="1" operator="equal" id="{D848F5A6-83BD-7C40-A5F8-4C835DD5CE32}">
+          <x14:cfRule type="cellIs" priority="395" operator="equal" id="{11DF7C5F-EA6E-4F4C-8FAD-DBBBD6FD46EF}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="398" stopIfTrue="1" operator="equal" id="{D848F5A6-83BD-7C40-A5F8-4C835DD5CE32}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17546,17 +17547,17 @@
           <xm:sqref>T18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="389" operator="equal" id="{6F02BD75-06C1-324B-AD05-7343CBACE529}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="392" stopIfTrue="1" operator="equal" id="{4042AF4A-B011-0D47-931D-64B07625C6B2}">
+          <x14:cfRule type="cellIs" priority="391" operator="equal" id="{6F02BD75-06C1-324B-AD05-7343CBACE529}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="394" stopIfTrue="1" operator="equal" id="{4042AF4A-B011-0D47-931D-64B07625C6B2}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17569,17 +17570,17 @@
           <xm:sqref>V11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="385" operator="equal" id="{FEB81F53-0214-7742-8C12-278966DECCE9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="388" stopIfTrue="1" operator="equal" id="{C46F86B7-E14A-164A-82ED-A881AA49AB69}">
+          <x14:cfRule type="cellIs" priority="387" operator="equal" id="{FEB81F53-0214-7742-8C12-278966DECCE9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="390" stopIfTrue="1" operator="equal" id="{C46F86B7-E14A-164A-82ED-A881AA49AB69}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17592,17 +17593,17 @@
           <xm:sqref>V13:V14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="381" operator="equal" id="{462B7413-C4ED-AB40-BE13-F68C57FED46B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="384" stopIfTrue="1" operator="equal" id="{83D3FE68-80D4-E54C-9348-75BA8085E8F7}">
+          <x14:cfRule type="cellIs" priority="383" operator="equal" id="{462B7413-C4ED-AB40-BE13-F68C57FED46B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="386" stopIfTrue="1" operator="equal" id="{83D3FE68-80D4-E54C-9348-75BA8085E8F7}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17615,17 +17616,17 @@
           <xm:sqref>V16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="377" operator="equal" id="{E762752A-8FAA-E845-9839-EB0A0C7958E7}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="380" stopIfTrue="1" operator="equal" id="{DBE06208-5AC2-404B-AA88-A329F6352D82}">
+          <x14:cfRule type="cellIs" priority="379" operator="equal" id="{E762752A-8FAA-E845-9839-EB0A0C7958E7}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="382" stopIfTrue="1" operator="equal" id="{DBE06208-5AC2-404B-AA88-A329F6352D82}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17638,17 +17639,17 @@
           <xm:sqref>V18:W18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="373" operator="equal" id="{018B3730-3CFD-F54B-940E-D8BFEBD7D018}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="376" stopIfTrue="1" operator="equal" id="{29F04B9F-4E41-D747-A26B-602EF7AE43F5}">
+          <x14:cfRule type="cellIs" priority="375" operator="equal" id="{018B3730-3CFD-F54B-940E-D8BFEBD7D018}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="378" stopIfTrue="1" operator="equal" id="{29F04B9F-4E41-D747-A26B-602EF7AE43F5}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17661,17 +17662,17 @@
           <xm:sqref>Y13:Y15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="369" operator="equal" id="{AA851307-6013-1842-9879-F1A165176D50}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="372" stopIfTrue="1" operator="equal" id="{14C9216A-CB2E-1E41-8B36-56F56D4830AD}">
+          <x14:cfRule type="cellIs" priority="371" operator="equal" id="{AA851307-6013-1842-9879-F1A165176D50}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="374" stopIfTrue="1" operator="equal" id="{14C9216A-CB2E-1E41-8B36-56F56D4830AD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17684,17 +17685,17 @@
           <xm:sqref>X11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="365" operator="equal" id="{23335A75-4839-4343-924B-06C0AFA0DCCD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="368" stopIfTrue="1" operator="equal" id="{EB8A40F7-A507-5745-8B70-9EB79834D779}">
+          <x14:cfRule type="cellIs" priority="367" operator="equal" id="{23335A75-4839-4343-924B-06C0AFA0DCCD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="370" stopIfTrue="1" operator="equal" id="{EB8A40F7-A507-5745-8B70-9EB79834D779}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17707,17 +17708,17 @@
           <xm:sqref>X16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="361" operator="equal" id="{47DDF984-F8FD-BA4C-95FB-4EE5E10F2B49}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="364" stopIfTrue="1" operator="equal" id="{8885FB1D-27FB-054A-9805-8441FED5D278}">
+          <x14:cfRule type="cellIs" priority="363" operator="equal" id="{47DDF984-F8FD-BA4C-95FB-4EE5E10F2B49}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="366" stopIfTrue="1" operator="equal" id="{8885FB1D-27FB-054A-9805-8441FED5D278}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17730,17 +17731,17 @@
           <xm:sqref>Z14:Z16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="357" operator="equal" id="{AEE8DF95-2839-D24D-AD57-273CB2098A9C}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="360" stopIfTrue="1" operator="equal" id="{4A5CAB4F-771B-3C43-AC67-C5C31DA5207B}">
+          <x14:cfRule type="cellIs" priority="359" operator="equal" id="{AEE8DF95-2839-D24D-AD57-273CB2098A9C}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="362" stopIfTrue="1" operator="equal" id="{4A5CAB4F-771B-3C43-AC67-C5C31DA5207B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17753,17 +17754,17 @@
           <xm:sqref>Z11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="353" operator="equal" id="{64614D6F-9038-D944-9D97-6E4E51C01F6A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="356" stopIfTrue="1" operator="equal" id="{37DD690E-92DA-FA40-97D3-95ACEDF9AF37}">
+          <x14:cfRule type="cellIs" priority="355" operator="equal" id="{64614D6F-9038-D944-9D97-6E4E51C01F6A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="358" stopIfTrue="1" operator="equal" id="{37DD690E-92DA-FA40-97D3-95ACEDF9AF37}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17776,17 +17777,17 @@
           <xm:sqref>AA13:AA15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="349" operator="equal" id="{F4B86C33-D7CA-8147-BB76-795D1FC83E67}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="352" stopIfTrue="1" operator="equal" id="{A8F936DB-623A-5A4F-B5F1-A41755789696}">
+          <x14:cfRule type="cellIs" priority="351" operator="equal" id="{F4B86C33-D7CA-8147-BB76-795D1FC83E67}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="354" stopIfTrue="1" operator="equal" id="{A8F936DB-623A-5A4F-B5F1-A41755789696}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17799,17 +17800,17 @@
           <xm:sqref>Z18:AA18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="345" operator="equal" id="{30C06AA7-244E-F145-BE10-EA7FD19FEE13}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="348" stopIfTrue="1" operator="equal" id="{4EC6894C-E726-6D48-8ABC-973107E923C2}">
+          <x14:cfRule type="cellIs" priority="347" operator="equal" id="{30C06AA7-244E-F145-BE10-EA7FD19FEE13}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="350" stopIfTrue="1" operator="equal" id="{4EC6894C-E726-6D48-8ABC-973107E923C2}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17822,17 +17823,17 @@
           <xm:sqref>L27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="341" operator="equal" id="{4F83E2BB-36BD-AD48-8531-14722E21102A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="344" stopIfTrue="1" operator="equal" id="{B17E13CD-B5EE-C042-9D29-1424CF22DB70}">
+          <x14:cfRule type="cellIs" priority="343" operator="equal" id="{4F83E2BB-36BD-AD48-8531-14722E21102A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="346" stopIfTrue="1" operator="equal" id="{B17E13CD-B5EE-C042-9D29-1424CF22DB70}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17845,17 +17846,17 @@
           <xm:sqref>J28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="337" operator="equal" id="{3B6766C1-E14E-A042-B818-DADE9EDD6BB8}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="340" stopIfTrue="1" operator="equal" id="{DBBE7C76-7C98-5D4C-9027-DE5A1AE2EA88}">
+          <x14:cfRule type="cellIs" priority="339" operator="equal" id="{3B6766C1-E14E-A042-B818-DADE9EDD6BB8}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="342" stopIfTrue="1" operator="equal" id="{DBBE7C76-7C98-5D4C-9027-DE5A1AE2EA88}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17868,17 +17869,17 @@
           <xm:sqref>J32:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="333" operator="equal" id="{B024C09B-93AC-0544-BED7-2B40AAC5BB71}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="336" stopIfTrue="1" operator="equal" id="{6E0EF842-08EF-5F4D-9700-C06C228F6D7B}">
+          <x14:cfRule type="cellIs" priority="335" operator="equal" id="{B024C09B-93AC-0544-BED7-2B40AAC5BB71}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="338" stopIfTrue="1" operator="equal" id="{6E0EF842-08EF-5F4D-9700-C06C228F6D7B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17891,17 +17892,17 @@
           <xm:sqref>R27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="329" operator="equal" id="{9B18374D-37F6-8041-9C12-DFA80B2C3064}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="332" stopIfTrue="1" operator="equal" id="{EA75B4D6-9651-AF4E-B005-FC769A9F4EFD}">
+          <x14:cfRule type="cellIs" priority="331" operator="equal" id="{9B18374D-37F6-8041-9C12-DFA80B2C3064}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="334" stopIfTrue="1" operator="equal" id="{EA75B4D6-9651-AF4E-B005-FC769A9F4EFD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17914,17 +17915,17 @@
           <xm:sqref>S26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="325" operator="equal" id="{66D06A09-CAEF-B14D-9949-E32F936C4A07}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="328" stopIfTrue="1" operator="equal" id="{219CF2B7-CF3E-5F46-9F85-5008208BD59B}">
+          <x14:cfRule type="cellIs" priority="327" operator="equal" id="{66D06A09-CAEF-B14D-9949-E32F936C4A07}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="330" stopIfTrue="1" operator="equal" id="{219CF2B7-CF3E-5F46-9F85-5008208BD59B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17937,17 +17938,17 @@
           <xm:sqref>Y32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="321" operator="equal" id="{4D8E773A-9558-B34F-A50B-6A4B3C04422F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="324" stopIfTrue="1" operator="equal" id="{FDDF9D7B-6587-C949-88C3-A8BC5E306DFF}">
+          <x14:cfRule type="cellIs" priority="323" operator="equal" id="{4D8E773A-9558-B34F-A50B-6A4B3C04422F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="326" stopIfTrue="1" operator="equal" id="{FDDF9D7B-6587-C949-88C3-A8BC5E306DFF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17960,17 +17961,17 @@
           <xm:sqref>Z37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="317" operator="equal" id="{1A9CF858-253A-FF4C-8806-73A83DBF2A8F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="320" stopIfTrue="1" operator="equal" id="{CE43188E-E1C3-CE43-B3F0-950191FA4952}">
+          <x14:cfRule type="cellIs" priority="319" operator="equal" id="{1A9CF858-253A-FF4C-8806-73A83DBF2A8F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="322" stopIfTrue="1" operator="equal" id="{CE43188E-E1C3-CE43-B3F0-950191FA4952}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17983,17 +17984,17 @@
           <xm:sqref>X36:X37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="313" operator="equal" id="{C9A8B83D-7C20-E243-9B45-E422F82CE6D0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="316" stopIfTrue="1" operator="equal" id="{E975CCEB-F984-B64B-9B40-100B2B1C8687}">
+          <x14:cfRule type="cellIs" priority="315" operator="equal" id="{C9A8B83D-7C20-E243-9B45-E422F82CE6D0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="318" stopIfTrue="1" operator="equal" id="{E975CCEB-F984-B64B-9B40-100B2B1C8687}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18006,17 +18007,17 @@
           <xm:sqref>V36:W36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="309" operator="equal" id="{ED8AE917-3808-0D48-B1A0-AA9FAF4000FC}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="312" stopIfTrue="1" operator="equal" id="{4D2E825D-78D0-DF48-92A2-CA33C98D0A73}">
+          <x14:cfRule type="cellIs" priority="311" operator="equal" id="{ED8AE917-3808-0D48-B1A0-AA9FAF4000FC}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="314" stopIfTrue="1" operator="equal" id="{4D2E825D-78D0-DF48-92A2-CA33C98D0A73}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18029,17 +18030,17 @@
           <xm:sqref>V37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="305" operator="equal" id="{47FC51AC-A356-5C48-AE5D-C35C3761C79A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="308" stopIfTrue="1" operator="equal" id="{BB59056E-66FC-2944-9DC7-3AC4922D85B7}">
+          <x14:cfRule type="cellIs" priority="307" operator="equal" id="{47FC51AC-A356-5C48-AE5D-C35C3761C79A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="310" stopIfTrue="1" operator="equal" id="{BB59056E-66FC-2944-9DC7-3AC4922D85B7}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18052,17 +18053,17 @@
           <xm:sqref>U41:V41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="301" operator="equal" id="{77990D13-7051-6A49-906B-08C1F0D1D394}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="304" stopIfTrue="1" operator="equal" id="{E83C4054-5069-5A4F-92DD-ECB0A82B01B1}">
+          <x14:cfRule type="cellIs" priority="303" operator="equal" id="{77990D13-7051-6A49-906B-08C1F0D1D394}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="306" stopIfTrue="1" operator="equal" id="{E83C4054-5069-5A4F-92DD-ECB0A82B01B1}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18075,17 +18076,17 @@
           <xm:sqref>R36:S36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="297" operator="equal" id="{E32FA422-A2AD-AA45-8804-EC08990B744A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="300" stopIfTrue="1" operator="equal" id="{3EA97D7E-1E51-E744-A651-43F66383508E}">
+          <x14:cfRule type="cellIs" priority="299" operator="equal" id="{E32FA422-A2AD-AA45-8804-EC08990B744A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="302" stopIfTrue="1" operator="equal" id="{3EA97D7E-1E51-E744-A651-43F66383508E}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18098,17 +18099,17 @@
           <xm:sqref>R37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="293" operator="equal" id="{5C7AD42F-2AEC-2E4E-9FB2-D2A7AB123302}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="296" stopIfTrue="1" operator="equal" id="{4CA4B214-FF6B-934C-AD2C-9889F8160004}">
+          <x14:cfRule type="cellIs" priority="295" operator="equal" id="{5C7AD42F-2AEC-2E4E-9FB2-D2A7AB123302}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="298" stopIfTrue="1" operator="equal" id="{4CA4B214-FF6B-934C-AD2C-9889F8160004}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18121,17 +18122,17 @@
           <xm:sqref>S41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="289" operator="equal" id="{37003AE6-D8D3-4045-B3E1-CA73AEBD1ECD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="292" stopIfTrue="1" operator="equal" id="{ECA83904-BD7C-7E46-B68E-AAE6251313CD}">
+          <x14:cfRule type="cellIs" priority="291" operator="equal" id="{37003AE6-D8D3-4045-B3E1-CA73AEBD1ECD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="294" stopIfTrue="1" operator="equal" id="{ECA83904-BD7C-7E46-B68E-AAE6251313CD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18144,17 +18145,17 @@
           <xm:sqref>P41:Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="285" operator="equal" id="{8BCC2AF1-B66C-E045-AFCD-F2682E269F53}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="288" stopIfTrue="1" operator="equal" id="{C34389CA-4627-8143-970A-08C59C844BDF}">
+          <x14:cfRule type="cellIs" priority="287" operator="equal" id="{8BCC2AF1-B66C-E045-AFCD-F2682E269F53}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="290" stopIfTrue="1" operator="equal" id="{C34389CA-4627-8143-970A-08C59C844BDF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18167,17 +18168,17 @@
           <xm:sqref>P36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="281" operator="equal" id="{3478BC0A-CA3E-1B4C-AE0D-B0DDA41EE597}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="284" stopIfTrue="1" operator="equal" id="{15AE0C6F-1B73-A248-BFDA-81F2C27A4B9A}">
+          <x14:cfRule type="cellIs" priority="283" operator="equal" id="{3478BC0A-CA3E-1B4C-AE0D-B0DDA41EE597}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="286" stopIfTrue="1" operator="equal" id="{15AE0C6F-1B73-A248-BFDA-81F2C27A4B9A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18190,17 +18191,17 @@
           <xm:sqref>O37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="277" operator="equal" id="{CF2CD43C-EF5A-E648-BD83-C9345F138F4F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="280" stopIfTrue="1" operator="equal" id="{79FB7280-7830-C747-A150-7AC6F6B6C4DA}">
+          <x14:cfRule type="cellIs" priority="279" operator="equal" id="{CF2CD43C-EF5A-E648-BD83-C9345F138F4F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="282" stopIfTrue="1" operator="equal" id="{79FB7280-7830-C747-A150-7AC6F6B6C4DA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18213,17 +18214,17 @@
           <xm:sqref>N36:N37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="273" operator="equal" id="{3FB00328-E38F-354E-A3BA-CE6240959721}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="276" stopIfTrue="1" operator="equal" id="{2F1076FC-492D-384E-ADF5-20555403DC04}">
+          <x14:cfRule type="cellIs" priority="275" operator="equal" id="{3FB00328-E38F-354E-A3BA-CE6240959721}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="278" stopIfTrue="1" operator="equal" id="{2F1076FC-492D-384E-ADF5-20555403DC04}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18236,17 +18237,17 @@
           <xm:sqref>K36:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="269" operator="equal" id="{30A58B27-BDBC-1949-B642-6B0300CB9208}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="272" stopIfTrue="1" operator="equal" id="{676FE5CB-7D3C-694C-AABD-862451AEDF6D}">
+          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{30A58B27-BDBC-1949-B642-6B0300CB9208}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="274" stopIfTrue="1" operator="equal" id="{676FE5CB-7D3C-694C-AABD-862451AEDF6D}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18259,17 +18260,17 @@
           <xm:sqref>L37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="265" operator="equal" id="{4AAB2C5B-0794-1C43-98BB-8D13C2956AE8}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="268" stopIfTrue="1" operator="equal" id="{B22A2EC4-AC3A-F84B-8601-212F548BDEBB}">
+          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{4AAB2C5B-0794-1C43-98BB-8D13C2956AE8}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="270" stopIfTrue="1" operator="equal" id="{B22A2EC4-AC3A-F84B-8601-212F548BDEBB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18282,17 +18283,17 @@
           <xm:sqref>M41:N41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="261" operator="equal" id="{B5300FB9-C17A-2740-AC92-AB577C7C68A0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="264" stopIfTrue="1" operator="equal" id="{1207C40A-2183-A043-8785-84AA7F9AFD43}">
+          <x14:cfRule type="cellIs" priority="263" operator="equal" id="{B5300FB9-C17A-2740-AC92-AB577C7C68A0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="266" stopIfTrue="1" operator="equal" id="{1207C40A-2183-A043-8785-84AA7F9AFD43}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18305,17 +18306,17 @@
           <xm:sqref>J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="257" operator="equal" id="{EAD9E7E6-03D0-C54B-BFF7-CB5E06B22C77}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="260" stopIfTrue="1" operator="equal" id="{18B97F45-2A80-2C4D-9AF4-E5CA97B55E7A}">
+          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{EAD9E7E6-03D0-C54B-BFF7-CB5E06B22C77}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="262" stopIfTrue="1" operator="equal" id="{18B97F45-2A80-2C4D-9AF4-E5CA97B55E7A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18328,17 +18329,17 @@
           <xm:sqref>K41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="253" operator="equal" id="{1A38CFAB-3AD1-DA49-9BE6-430F7D1C1443}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="256" stopIfTrue="1" operator="equal" id="{7765EF27-CF99-554B-B9AA-B26741D11ADB}">
+          <x14:cfRule type="cellIs" priority="255" operator="equal" id="{1A38CFAB-3AD1-DA49-9BE6-430F7D1C1443}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="258" stopIfTrue="1" operator="equal" id="{7765EF27-CF99-554B-B9AA-B26741D11ADB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18351,17 +18352,17 @@
           <xm:sqref>AA55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{18E56655-E716-4C47-B7A2-A4453DFF7393}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="252" stopIfTrue="1" operator="equal" id="{4B7C0578-0F1D-3346-AF83-03AAAB18B5FF}">
+          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{18E56655-E716-4C47-B7A2-A4453DFF7393}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="254" stopIfTrue="1" operator="equal" id="{4B7C0578-0F1D-3346-AF83-03AAAB18B5FF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18374,17 +18375,17 @@
           <xm:sqref>W55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{AC5F0103-AF55-AD43-971F-E6FEC318006E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="248" stopIfTrue="1" operator="equal" id="{C538A1EE-E7E3-324D-BDE0-9DA0666B17EB}">
+          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{AC5F0103-AF55-AD43-971F-E6FEC318006E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="250" stopIfTrue="1" operator="equal" id="{C538A1EE-E7E3-324D-BDE0-9DA0666B17EB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18397,17 +18398,17 @@
           <xm:sqref>T55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="241" operator="equal" id="{018AE223-765B-BB44-ADB0-668CEE19DB9D}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="244" stopIfTrue="1" operator="equal" id="{0FD043D0-2976-CD4A-992D-D50B24BB64CA}">
+          <x14:cfRule type="cellIs" priority="243" operator="equal" id="{018AE223-765B-BB44-ADB0-668CEE19DB9D}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="246" stopIfTrue="1" operator="equal" id="{0FD043D0-2976-CD4A-992D-D50B24BB64CA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18420,17 +18421,17 @@
           <xm:sqref>Q55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{A6BB9E62-5D90-A549-BFAD-6530B8403E10}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="240" stopIfTrue="1" operator="equal" id="{10CFFC4B-55DB-2C4C-903B-E41884064DA4}">
+          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{A6BB9E62-5D90-A549-BFAD-6530B8403E10}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="242" stopIfTrue="1" operator="equal" id="{10CFFC4B-55DB-2C4C-903B-E41884064DA4}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18443,17 +18444,17 @@
           <xm:sqref>P52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{B1607F03-FB76-B746-8C55-EDFB4469D397}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="236" stopIfTrue="1" operator="equal" id="{2DF486F5-8924-C344-9EBF-81EBC362704F}">
+          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{B1607F03-FB76-B746-8C55-EDFB4469D397}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="238" stopIfTrue="1" operator="equal" id="{2DF486F5-8924-C344-9EBF-81EBC362704F}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18466,17 +18467,17 @@
           <xm:sqref>P49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{A6C1DA8E-CD32-7649-B77F-64E8FB1ABBB4}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="232" stopIfTrue="1" operator="equal" id="{6E727F77-6201-8146-83F1-99A4F945D638}">
+          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{A6C1DA8E-CD32-7649-B77F-64E8FB1ABBB4}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="234" stopIfTrue="1" operator="equal" id="{6E727F77-6201-8146-83F1-99A4F945D638}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18489,17 +18490,17 @@
           <xm:sqref>L55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{DF0F2D19-812B-2D4A-B581-1CCC258E1546}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="228" stopIfTrue="1" operator="equal" id="{A8CF374B-0F7A-5847-9BB2-915222BBF55A}">
+          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{DF0F2D19-812B-2D4A-B581-1CCC258E1546}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="230" stopIfTrue="1" operator="equal" id="{A8CF374B-0F7A-5847-9BB2-915222BBF55A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18512,17 +18513,17 @@
           <xm:sqref>J55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="221" operator="equal" id="{7EFAF514-682E-2C4C-8526-D2726D24E014}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="224" stopIfTrue="1" operator="equal" id="{A77C768A-A0DF-8A42-9DD1-841E575D1AEE}">
+          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{7EFAF514-682E-2C4C-8526-D2726D24E014}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="226" stopIfTrue="1" operator="equal" id="{A77C768A-A0DF-8A42-9DD1-841E575D1AEE}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18535,17 +18536,17 @@
           <xm:sqref>N54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{EAC4890D-18F4-044E-8FD6-E82B0E00A1A3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="220" stopIfTrue="1" operator="equal" id="{FB6CC97B-7D8A-D544-AC08-417B9C895D59}">
+          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{EAC4890D-18F4-044E-8FD6-E82B0E00A1A3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="222" stopIfTrue="1" operator="equal" id="{FB6CC97B-7D8A-D544-AC08-417B9C895D59}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18558,17 +18559,17 @@
           <xm:sqref>N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{480FA449-BE6B-444E-BD68-64D01E9DF2C5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="216" stopIfTrue="1" operator="equal" id="{D7E3C1AD-A29A-B047-AE9B-9CB1F0CBE897}">
+          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{480FA449-BE6B-444E-BD68-64D01E9DF2C5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="218" stopIfTrue="1" operator="equal" id="{D7E3C1AD-A29A-B047-AE9B-9CB1F0CBE897}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18581,17 +18582,17 @@
           <xm:sqref>O55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="209" operator="equal" id="{B7502251-0916-0547-AE77-94EE0E9F4484}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="212" stopIfTrue="1" operator="equal" id="{686D1E31-83DF-7B44-A74C-CE094A158614}">
+          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{B7502251-0916-0547-AE77-94EE0E9F4484}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="214" stopIfTrue="1" operator="equal" id="{686D1E31-83DF-7B44-A74C-CE094A158614}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18604,17 +18605,17 @@
           <xm:sqref>L66:L67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{36C6E23C-E4A2-8943-80DE-54C905E36D2E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="208" stopIfTrue="1" operator="equal" id="{A47539F2-A063-6B46-9E2C-2728FF602244}">
+          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{36C6E23C-E4A2-8943-80DE-54C905E36D2E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="210" stopIfTrue="1" operator="equal" id="{A47539F2-A063-6B46-9E2C-2728FF602244}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18627,17 +18628,17 @@
           <xm:sqref>O67:P67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{1411A342-7034-7343-9934-92458F8000D5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="204" stopIfTrue="1" operator="equal" id="{EF6FD6D6-9472-8A4A-9ACF-F02C8E7F0908}">
+          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{1411A342-7034-7343-9934-92458F8000D5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="206" stopIfTrue="1" operator="equal" id="{EF6FD6D6-9472-8A4A-9ACF-F02C8E7F0908}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18650,17 +18651,17 @@
           <xm:sqref>L80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="197" operator="equal" id="{F822B586-042D-7C49-BD70-E5BC74F5DECB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="200" stopIfTrue="1" operator="equal" id="{605CB2B8-6145-974F-9C1E-1E34C78913BC}">
+          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{F822B586-042D-7C49-BD70-E5BC74F5DECB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="202" stopIfTrue="1" operator="equal" id="{605CB2B8-6145-974F-9C1E-1E34C78913BC}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18673,17 +18674,17 @@
           <xm:sqref>J82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{F756020A-DBAE-CE47-89FA-060939C20631}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="192" stopIfTrue="1" operator="equal" id="{BF4BAC7A-30EC-4D47-BC9C-92F5D2545435}">
+          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{F756020A-DBAE-CE47-89FA-060939C20631}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="194" stopIfTrue="1" operator="equal" id="{BF4BAC7A-30EC-4D47-BC9C-92F5D2545435}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18696,17 +18697,17 @@
           <xm:sqref>P110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{14420188-5DA6-E542-9878-777AAE022BF0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="188" stopIfTrue="1" operator="equal" id="{6AF66108-571F-F145-AF55-842E5BBACE49}">
+          <x14:cfRule type="cellIs" priority="187" operator="equal" id="{14420188-5DA6-E542-9878-777AAE022BF0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="190" stopIfTrue="1" operator="equal" id="{6AF66108-571F-F145-AF55-842E5BBACE49}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18719,17 +18720,17 @@
           <xm:sqref>P117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{81BA8766-B4DC-3041-B5BD-A274AAA713E2}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="184" stopIfTrue="1" operator="equal" id="{09DD80B9-9537-D442-9603-EE188C1AA22A}">
+          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{81BA8766-B4DC-3041-B5BD-A274AAA713E2}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="186" stopIfTrue="1" operator="equal" id="{09DD80B9-9537-D442-9603-EE188C1AA22A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18742,17 +18743,17 @@
           <xm:sqref>L121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="177" operator="equal" id="{9F73FA1E-443C-CB4B-B28F-5DF85A3B965E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="180" stopIfTrue="1" operator="equal" id="{2307B30C-E6E6-5B40-BBF5-0E4BB6940790}">
+          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{9F73FA1E-443C-CB4B-B28F-5DF85A3B965E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="182" stopIfTrue="1" operator="equal" id="{2307B30C-E6E6-5B40-BBF5-0E4BB6940790}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18765,17 +18766,17 @@
           <xm:sqref>R121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{3E4CA7AA-DA6D-544D-8504-79FEBDFF5D99}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="176" stopIfTrue="1" operator="equal" id="{4A7C0803-40C7-4A47-A194-6AB7FA1684B1}">
+          <x14:cfRule type="cellIs" priority="175" operator="equal" id="{3E4CA7AA-DA6D-544D-8504-79FEBDFF5D99}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="178" stopIfTrue="1" operator="equal" id="{4A7C0803-40C7-4A47-A194-6AB7FA1684B1}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18788,17 +18789,17 @@
           <xm:sqref>S120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{8036F642-5657-3344-9523-A2AFC23DEBD8}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="172" stopIfTrue="1" operator="equal" id="{166C56D1-4471-D940-B078-E457515415A0}">
+          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{8036F642-5657-3344-9523-A2AFC23DEBD8}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="174" stopIfTrue="1" operator="equal" id="{166C56D1-4471-D940-B078-E457515415A0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18811,17 +18812,17 @@
           <xm:sqref>Z124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="165" operator="equal" id="{C7551666-052B-7744-8417-47EE360A3AAA}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="168" stopIfTrue="1" operator="equal" id="{52E8E654-92C9-BB4F-9B28-4AC86440E8D7}">
+          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{C7551666-052B-7744-8417-47EE360A3AAA}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="170" stopIfTrue="1" operator="equal" id="{52E8E654-92C9-BB4F-9B28-4AC86440E8D7}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18834,17 +18835,17 @@
           <xm:sqref>Z131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{20B28410-0C83-284F-B2F6-FD0FAE5E0D3F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="164" stopIfTrue="1" operator="equal" id="{5947969B-E243-B04F-B642-63E8556F1297}">
+          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{20B28410-0C83-284F-B2F6-FD0FAE5E0D3F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="166" stopIfTrue="1" operator="equal" id="{5947969B-E243-B04F-B642-63E8556F1297}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18857,17 +18858,17 @@
           <xm:sqref>Z120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{71BE1141-AEEF-6C41-876A-B43340BD65B9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="160" stopIfTrue="1" operator="equal" id="{44054386-93A7-0043-899D-C840BEA3D376}">
+          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{71BE1141-AEEF-6C41-876A-B43340BD65B9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="162" stopIfTrue="1" operator="equal" id="{44054386-93A7-0043-899D-C840BEA3D376}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18880,17 +18881,17 @@
           <xm:sqref>Z118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{B3FDC315-708D-EA44-A4FB-620203E04C9F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="156" stopIfTrue="1" operator="equal" id="{0D152E38-FDB7-FD40-9EEB-FFE4F31FBB04}">
+          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{B3FDC315-708D-EA44-A4FB-620203E04C9F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="158" stopIfTrue="1" operator="equal" id="{0D152E38-FDB7-FD40-9EEB-FFE4F31FBB04}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18903,17 +18904,17 @@
           <xm:sqref>Z117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{C6ACCAE0-90C7-CA4B-9D26-554B9BF66704}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="152" stopIfTrue="1" operator="equal" id="{400895A0-E339-6743-9689-7DEA24BDB451}">
+          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{C6ACCAE0-90C7-CA4B-9D26-554B9BF66704}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="154" stopIfTrue="1" operator="equal" id="{400895A0-E339-6743-9689-7DEA24BDB451}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18926,17 +18927,17 @@
           <xm:sqref>Z113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{73A77E6C-388C-3E48-A1CB-4B166E67D88E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="148" stopIfTrue="1" operator="equal" id="{336CDAFD-F542-4448-B70B-066091646724}">
+          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{73A77E6C-388C-3E48-A1CB-4B166E67D88E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="150" stopIfTrue="1" operator="equal" id="{336CDAFD-F542-4448-B70B-066091646724}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18949,17 +18950,17 @@
           <xm:sqref>AA100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{C514B965-D1BF-8847-AAD7-BF98BF75C34B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="144" stopIfTrue="1" operator="equal" id="{2E2CB82C-A77E-D04E-8717-B53B0641F3E0}">
+          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{C514B965-D1BF-8847-AAD7-BF98BF75C34B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="146" stopIfTrue="1" operator="equal" id="{2E2CB82C-A77E-D04E-8717-B53B0641F3E0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18972,17 +18973,17 @@
           <xm:sqref>Z72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{E0B043C4-C998-0741-BF87-FD8CA65D8847}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" stopIfTrue="1" operator="equal" id="{0074109D-F97C-B84C-9F88-D19EE8661A35}">
+          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{E0B043C4-C998-0741-BF87-FD8CA65D8847}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="142" stopIfTrue="1" operator="equal" id="{0074109D-F97C-B84C-9F88-D19EE8661A35}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18995,17 +18996,17 @@
           <xm:sqref>W77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{E1FC485D-3E28-2649-AE96-6535BF570C96}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="132" stopIfTrue="1" operator="equal" id="{048D750C-D68E-CE41-B123-C95091368226}">
+          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{E1FC485D-3E28-2649-AE96-6535BF570C96}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="134" stopIfTrue="1" operator="equal" id="{048D750C-D68E-CE41-B123-C95091368226}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19018,17 +19019,17 @@
           <xm:sqref>Q74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{90ED778A-1019-D243-8A1F-979964C4AC86}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="128" stopIfTrue="1" operator="equal" id="{1874274F-776E-4444-B292-ECB6BC8DCBE0}">
+          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{90ED778A-1019-D243-8A1F-979964C4AC86}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="130" stopIfTrue="1" operator="equal" id="{1874274F-776E-4444-B292-ECB6BC8DCBE0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19041,17 +19042,17 @@
           <xm:sqref>O93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{5530637B-E9F4-5E4D-B7DD-E82EB9C78437}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" stopIfTrue="1" operator="equal" id="{71A336ED-6739-3A4C-B0AD-B2CF7D2897B5}">
+          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{5530637B-E9F4-5E4D-B7DD-E82EB9C78437}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{71A336ED-6739-3A4C-B0AD-B2CF7D2897B5}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19064,17 +19065,17 @@
           <xm:sqref>I2:I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{8CE40E9E-082F-FC47-9E6B-8AD5E5B41610}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal" id="{2633E424-2DB7-2545-8FEA-620EC5EEB16A}">
+          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{8CE40E9E-082F-FC47-9E6B-8AD5E5B41610}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{2633E424-2DB7-2545-8FEA-620EC5EEB16A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19087,17 +19088,17 @@
           <xm:sqref>I15:I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{0B4A02A7-F121-424C-996F-4BCDEE5E2377}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" stopIfTrue="1" operator="equal" id="{FD0D568C-3696-2747-B1D2-44E8188F14B8}">
+          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{0B4A02A7-F121-424C-996F-4BCDEE5E2377}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="110" stopIfTrue="1" operator="equal" id="{FD0D568C-3696-2747-B1D2-44E8188F14B8}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19110,17 +19111,17 @@
           <xm:sqref>I20:I131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{D9B38C3B-96CC-B746-81ED-CEB4D34BA2D5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" stopIfTrue="1" operator="equal" id="{D61980B2-999D-E64F-8E77-6B516E9D9643}">
+          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{D9B38C3B-96CC-B746-81ED-CEB4D34BA2D5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{D61980B2-999D-E64F-8E77-6B516E9D9643}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19133,17 +19134,17 @@
           <xm:sqref>Z68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{9C084209-6BBD-8F44-A9C0-AA146963DD01}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal" id="{EB3AC6D8-66FC-4D45-977F-F9CCDA5AA863}">
+          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{9C084209-6BBD-8F44-A9C0-AA146963DD01}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{EB3AC6D8-66FC-4D45-977F-F9CCDA5AA863}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19156,17 +19157,17 @@
           <xm:sqref>Z69:Z71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{3A10919A-65CD-354D-A7C6-D32B8194CA62}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" stopIfTrue="1" operator="equal" id="{BA20EB41-AE32-4147-B296-3257B501C643}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{3A10919A-65CD-354D-A7C6-D32B8194CA62}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{BA20EB41-AE32-4147-B296-3257B501C643}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19179,17 +19180,17 @@
           <xm:sqref>Z73:Z86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{4A3C07B8-9D89-7144-9D6E-0E9D176C27D3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" stopIfTrue="1" operator="equal" id="{D177B21B-DDE6-1046-945B-AB765BD60E3A}">
+          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{4A3C07B8-9D89-7144-9D6E-0E9D176C27D3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{D177B21B-DDE6-1046-945B-AB765BD60E3A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19202,17 +19203,17 @@
           <xm:sqref>Z33:Z36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{D0A2B503-8D11-6A4C-B908-AE3736BFC795}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" stopIfTrue="1" operator="equal" id="{D8C841BD-4BDE-6F45-BCF2-39C6B3CAEB74}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{D0A2B503-8D11-6A4C-B908-AE3736BFC795}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{D8C841BD-4BDE-6F45-BCF2-39C6B3CAEB74}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19225,17 +19226,17 @@
           <xm:sqref>Z38:Z49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{3AF7E628-CC30-5E44-B561-34C682954AA6}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal" id="{F5A8953B-CC4A-A340-BF56-A0D423205399}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{3AF7E628-CC30-5E44-B561-34C682954AA6}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{F5A8953B-CC4A-A340-BF56-A0D423205399}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19248,17 +19249,17 @@
           <xm:sqref>Z51:Z65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{9B349F8C-DD46-F04A-95DA-E4E0E5697989}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" stopIfTrue="1" operator="equal" id="{9941D726-3B8A-B446-9B73-D3179E0A1109}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{9B349F8C-DD46-F04A-95DA-E4E0E5697989}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{9941D726-3B8A-B446-9B73-D3179E0A1109}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19271,17 +19272,17 @@
           <xm:sqref>Z119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{C671D90E-15E2-D349-8A0B-82D25F006B1C}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal" id="{BB7DAB51-226B-1246-9C6E-6A3F723AE0FF}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{C671D90E-15E2-D349-8A0B-82D25F006B1C}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{BB7DAB51-226B-1246-9C6E-6A3F723AE0FF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19294,17 +19295,17 @@
           <xm:sqref>Z22 Z24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{47B3E24B-0862-7942-B4B7-6E96156B236A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" stopIfTrue="1" operator="equal" id="{4AEA8B2C-A193-264B-8AD1-E6ECA33F8A68}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{47B3E24B-0862-7942-B4B7-6E96156B236A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{4AEA8B2C-A193-264B-8AD1-E6ECA33F8A68}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19317,17 +19318,17 @@
           <xm:sqref>Z26:Z31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{89A3D46B-8BD6-6E4D-876C-81EC4B8F66E9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal" id="{599718FD-3E08-2B49-A5D3-6AA094896C08}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{89A3D46B-8BD6-6E4D-876C-81EC4B8F66E9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{599718FD-3E08-2B49-A5D3-6AA094896C08}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19340,17 +19341,17 @@
           <xm:sqref>M22 M24:M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{055AFA6D-2AE2-8744-88EF-94E6C666A2FA}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal" id="{4C363513-1152-5A46-9AA5-97A0D631E162}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{055AFA6D-2AE2-8744-88EF-94E6C666A2FA}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{4C363513-1152-5A46-9AA5-97A0D631E162}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19363,17 +19364,17 @@
           <xm:sqref>Z94:Z112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{600F5777-2D38-7A4B-9EC7-0B3234B9A1BD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" stopIfTrue="1" operator="equal" id="{8029DB3D-5BEA-1A46-BEC9-C03ACAF6C006}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{600F5777-2D38-7A4B-9EC7-0B3234B9A1BD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{8029DB3D-5BEA-1A46-BEC9-C03ACAF6C006}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19386,17 +19387,17 @@
           <xm:sqref>Z114:Z116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{6E837B0B-94EA-984A-8371-3D630ACC3399}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal" id="{76DCC2E7-D884-9949-8E90-B32590BF7F35}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{6E837B0B-94EA-984A-8371-3D630ACC3399}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{76DCC2E7-D884-9949-8E90-B32590BF7F35}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19409,17 +19410,17 @@
           <xm:sqref>M94:M117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{2EDA04E2-BE95-684B-8A3E-E08C837D6CB7}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal" id="{4D604F86-3212-7142-9D14-0B229D34A01C}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{2EDA04E2-BE95-684B-8A3E-E08C837D6CB7}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{4D604F86-3212-7142-9D14-0B229D34A01C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19432,17 +19433,17 @@
           <xm:sqref>M119:M129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{77DC7A7D-54B2-8D45-B02B-5028FA3FB054}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal" id="{90883195-4EA2-2C41-A299-BCFD1720514C}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{77DC7A7D-54B2-8D45-B02B-5028FA3FB054}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{90883195-4EA2-2C41-A299-BCFD1720514C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19455,17 +19456,17 @@
           <xm:sqref>M131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{1219022D-5411-EB4A-8413-C61EA98BF9E4}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" stopIfTrue="1" operator="equal" id="{0EF3E53A-7ECF-EE45-BE97-CFC672ED25CC}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{1219022D-5411-EB4A-8413-C61EA98BF9E4}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{0EF3E53A-7ECF-EE45-BE97-CFC672ED25CC}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19478,17 +19479,17 @@
           <xm:sqref>J94:J131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{58D8061C-4112-444A-8B4C-84EF9B4F56B3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{EC1A53CA-8FD3-2E46-947C-BE2C8F6D819A}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{58D8061C-4112-444A-8B4C-84EF9B4F56B3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{EC1A53CA-8FD3-2E46-947C-BE2C8F6D819A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19501,22 +19502,22 @@
           <xm:sqref>Z23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{511AD271-7089-F248-9A8C-01A69C0A5FFD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{5B605CE5-CBBC-4846-B5A1-297E89C3818D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{3E175472-B7F6-BE42-A226-8BAB6897E60E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{30A72E1B-43FD-1540-8037-DF61930064A9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -19531,13 +19532,13 @@
           <x14:formula1>
             <xm:f>contraints!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q60 U164 W142 S110 T67 M50 J140:K140 M118 Z50 M85 R13 R144:S144 R86 R127 Q142 G139:I139 R69 K139:L139 K119 Z25 Z87 K42 R67 S142 G142:I142 I18:I19 R64:S64 AA64 AA67 K142 R46 R106 Y142 L65 U142 M142 P147 X139 R19 R84 M48 M130 G140:H140 Q139 Z32 I13:I14 L109 Z66:Z67 Q145 Q21 O142 K144 N115 G145:H147 N154 G143:H143 G144:I144 S18 P140 N140 V67:W67 G141:N141 G138:H138 U144:V144 Z139 O139 U139:U140 R140 Y144:Z144 O144:P144 S139 X140:Z141 Q36 J70</xm:sqref>
+          <xm:sqref>Q60 U164 W142 S110 T67 M50 J140:K140 M118 Z50 M85 R13 R144:S144 R86 R127 Q142 G139:I139 R69 K139:L139 K119 Z25 Z87 K42 R67 S142 G142:I142 I18:I19 R64:S64 AA64 AA67 K142 R46 R106 Y142 L65 U142 M142 P147 X139 R19 R84 M48 M130 G140:H140 Q139 Z32 I13:I14 L109 Z66:Z67 Q145 Q21 O142 K144 N115 G145:H147 N154 G143:H143 G144:I144 S18 P140 N140 V67:W67 G141:N141 G138:H138 U144:V144 Z139 O139 U139:U140 R140 Y144:Z144 O144:P144 S139 X140:Z141 Q36 J70 M23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18591628-C6DD-3B44-A969-E4F60103E118}">
           <x14:formula1>
             <xm:f>contraints!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y118:Y131 M94:M117 AA94:AA131 M122:M129 Z88:Z131 P3 I2:I12 L13:L16 J13 K14:K15 J15:J16 J18 L11 L18 M13 M15:O15 N11 N16 O14 P11 P13 P16 P18:Q18 Q14 R16 S14 T13 S11 T16 T18 V11 V13:V14 V16 V18:W18 Y13:Y15 X11 X16 Z14:Z16 Z11 AA13:AA15 Z18:AA18 L27:M27 I28:J28 I32:M32 R27 S26 Y32 X36:X37 V36:W36 V37 U41:V41 R36:S36 R37 S41 P41:Q41 P36 N37:O37 N36 K36:L36 L37 M41:N41 I37:J37 K41 Z55:AA55 W55 T55 Q55 P52 P49 L55 I55:J55 N54:N55 O55 L66:L67 O67:P67 L80 I82:J82 Q74 P110 P117 L121:M121 R121 S120 W77 O93 I15:I17 J11 I20:I27 I29:I31 I33:I36 I38:I54 I56:I81 I83:I131 M28:M30 Z68:Z86 Z56:Z65 Z33:Z49 Z51:Z54 Z26:Z31 J94:J131 M119:M120 M131 Z22:Z24 M22:M26</xm:sqref>
+          <xm:sqref>Y118:Y131 M94:M117 AA94:AA131 M122:M129 Z88:Z131 P3 I2:I12 L13:L16 J13 K14:K15 J15:J16 J18 L11 L18 M13 M15:O15 N11 N16 O14 P11 P13 P16 P18:Q18 Q14 R16 S14 T13 S11 T16 T18 V11 V13:V14 V16 V18:W18 Y13:Y15 X11 X16 Z14:Z16 Z11 AA13:AA15 Z18:AA18 L27:M27 I28:J28 I32:M32 R27 S26 Y32 X36:X37 V36:W36 V37 U41:V41 R36:S36 R37 S41 P41:Q41 P36 N37:O37 N36 K36:L36 L37 M41:N41 I37:J37 K41 Z55:AA55 W55 T55 Q55 P52 P49 L55 I55:J55 N54:N55 O55 L66:L67 O67:P67 L80 I82:J82 Q74 P110 P117 L121:M121 R121 S120 W77 O93 I15:I17 J11 I20:I27 I29:I31 I33:I36 I38:I54 I56:I81 I83:I131 M28:M30 Z68:Z86 Z56:Z65 Z33:Z49 Z51:Z54 Z26:Z31 J94:J131 M119:M120 M131 Z22:Z24 M22 M24:M26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19595,13 +19596,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -19616,13 +19617,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -19637,15 +19638,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD87EFF-9E83-A542-B7BB-8EC1197E430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4C5DB-467F-E54E-B99C-779E04B822C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="425">
   <si>
     <t>Division</t>
   </si>
@@ -1898,7 +1898,119 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="693">
+  <dxfs count="709">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7066,14 +7178,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H118" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="J118" sqref="J118:J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7183,7 +7296,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7224,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7268,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7309,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7350,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7391,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7429,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7470,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7511,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7552,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7617,7 +7730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -7655,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -7720,7 +7833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -7785,7 +7898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -7853,7 +7966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -7921,7 +8034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -7962,7 +8075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -8030,7 +8143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8068,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -8109,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -8153,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -8191,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -8235,7 +8348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8276,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -8317,7 +8430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -8361,7 +8474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -8408,7 +8521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -8452,7 +8565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -8490,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -8531,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -8572,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -8631,7 +8744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -8672,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -8713,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -8754,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -8825,7 +8938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -8890,7 +9003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -8931,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -8972,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -9013,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -9078,7 +9191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -9122,7 +9235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -9163,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -9201,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -9242,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -9286,7 +9399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -9327,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -9371,7 +9484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -9415,7 +9528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -9462,7 +9575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -9503,7 +9616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>171</v>
       </c>
@@ -9547,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -9588,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -9632,7 +9745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -9697,7 +9810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -9735,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -9776,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>195</v>
       </c>
@@ -9817,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -9858,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -9902,7 +10015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -9943,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -9984,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -10022,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>195</v>
       </c>
@@ -10072,7 +10185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -10113,7 +10226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -10160,7 +10273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>226</v>
       </c>
@@ -10228,7 +10341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -10269,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>226</v>
       </c>
@@ -10313,7 +10426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>226</v>
       </c>
@@ -10357,7 +10470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>226</v>
       </c>
@@ -10398,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -10442,7 +10555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>226</v>
       </c>
@@ -10483,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -10527,7 +10640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -10568,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>248</v>
       </c>
@@ -10609,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>248</v>
       </c>
@@ -10650,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -10691,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>248</v>
       </c>
@@ -10732,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>248</v>
       </c>
@@ -10776,7 +10889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>248</v>
       </c>
@@ -10814,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -10858,7 +10971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -10899,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -10943,7 +11056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>267</v>
       </c>
@@ -10984,7 +11097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>267</v>
       </c>
@@ -11028,7 +11141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -11069,7 +11182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -11110,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -11151,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>267</v>
       </c>
@@ -11192,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -11233,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>267</v>
       </c>
@@ -11274,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>267</v>
       </c>
@@ -11315,7 +11428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>290</v>
       </c>
@@ -11368,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>290</v>
       </c>
@@ -11421,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -11474,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>290</v>
       </c>
@@ -11527,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -11580,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>290</v>
       </c>
@@ -11633,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -11686,7 +11799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -11739,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -11763,9 +11876,6 @@
       </c>
       <c r="I102" t="s">
         <v>408</v>
-      </c>
-      <c r="J102" t="s">
-        <v>423</v>
       </c>
       <c r="M102" t="s">
         <v>423</v>
@@ -11789,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>306</v>
       </c>
@@ -11813,9 +11923,6 @@
       </c>
       <c r="I103" t="s">
         <v>408</v>
-      </c>
-      <c r="J103" t="s">
-        <v>423</v>
       </c>
       <c r="M103" t="s">
         <v>423</v>
@@ -11839,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>306</v>
       </c>
@@ -11863,9 +11970,6 @@
       </c>
       <c r="I104" t="s">
         <v>408</v>
-      </c>
-      <c r="J104" t="s">
-        <v>423</v>
       </c>
       <c r="M104" t="s">
         <v>423</v>
@@ -11889,7 +11993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>306</v>
       </c>
@@ -11916,9 +12020,6 @@
       </c>
       <c r="I105" t="s">
         <v>408</v>
-      </c>
-      <c r="J105" t="s">
-        <v>423</v>
       </c>
       <c r="M105" t="s">
         <v>423</v>
@@ -11942,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>306</v>
       </c>
@@ -11995,7 +12096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>306</v>
       </c>
@@ -12022,9 +12123,6 @@
       </c>
       <c r="I107" t="s">
         <v>408</v>
-      </c>
-      <c r="J107" t="s">
-        <v>423</v>
       </c>
       <c r="M107" t="s">
         <v>423</v>
@@ -12048,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -12075,9 +12173,6 @@
       </c>
       <c r="I108" t="s">
         <v>408</v>
-      </c>
-      <c r="J108" t="s">
-        <v>423</v>
       </c>
       <c r="M108" t="s">
         <v>423</v>
@@ -12101,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -12151,7 +12246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>318</v>
       </c>
@@ -12178,9 +12273,6 @@
       </c>
       <c r="I110" t="s">
         <v>408</v>
-      </c>
-      <c r="M110" t="s">
-        <v>423</v>
       </c>
       <c r="P110" t="s">
         <v>407</v>
@@ -12207,7 +12299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>318</v>
       </c>
@@ -12234,12 +12326,6 @@
       </c>
       <c r="I111" t="s">
         <v>408</v>
-      </c>
-      <c r="J111" t="s">
-        <v>423</v>
-      </c>
-      <c r="M111" t="s">
-        <v>423</v>
       </c>
       <c r="Z111" t="s">
         <v>423</v>
@@ -12260,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>318</v>
       </c>
@@ -12287,12 +12373,6 @@
       </c>
       <c r="I112" t="s">
         <v>408</v>
-      </c>
-      <c r="J112" t="s">
-        <v>423</v>
-      </c>
-      <c r="M112" t="s">
-        <v>423</v>
       </c>
       <c r="Z112" t="s">
         <v>423</v>
@@ -12313,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>318</v>
       </c>
@@ -12340,12 +12420,6 @@
       </c>
       <c r="I113" t="s">
         <v>408</v>
-      </c>
-      <c r="J113" t="s">
-        <v>423</v>
-      </c>
-      <c r="M113" t="s">
-        <v>423</v>
       </c>
       <c r="Z113" t="s">
         <v>408</v>
@@ -12366,7 +12440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>318</v>
       </c>
@@ -12393,12 +12467,6 @@
       </c>
       <c r="I114" t="s">
         <v>408</v>
-      </c>
-      <c r="J114" t="s">
-        <v>423</v>
-      </c>
-      <c r="M114" t="s">
-        <v>423</v>
       </c>
       <c r="Z114" t="s">
         <v>423</v>
@@ -12419,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>318</v>
       </c>
@@ -12446,9 +12514,6 @@
       </c>
       <c r="I115" t="s">
         <v>408</v>
-      </c>
-      <c r="M115" t="s">
-        <v>423</v>
       </c>
       <c r="N115" t="s">
         <v>408</v>
@@ -12472,7 +12537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>318</v>
       </c>
@@ -12499,12 +12564,6 @@
       </c>
       <c r="I116" t="s">
         <v>408</v>
-      </c>
-      <c r="J116" t="s">
-        <v>423</v>
-      </c>
-      <c r="M116" t="s">
-        <v>423</v>
       </c>
       <c r="Z116" t="s">
         <v>423</v>
@@ -12525,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>318</v>
       </c>
@@ -12552,12 +12611,6 @@
       </c>
       <c r="I117" t="s">
         <v>408</v>
-      </c>
-      <c r="J117" t="s">
-        <v>423</v>
-      </c>
-      <c r="M117" t="s">
-        <v>423</v>
       </c>
       <c r="P117" t="s">
         <v>407</v>
@@ -12609,9 +12662,6 @@
       <c r="I118" t="s">
         <v>408</v>
       </c>
-      <c r="J118" t="s">
-        <v>423</v>
-      </c>
       <c r="M118" t="s">
         <v>408</v>
       </c>
@@ -12662,9 +12712,6 @@
       <c r="I119" t="s">
         <v>408</v>
       </c>
-      <c r="J119" t="s">
-        <v>423</v>
-      </c>
       <c r="K119" t="s">
         <v>408</v>
       </c>
@@ -12718,9 +12765,6 @@
       <c r="I120" t="s">
         <v>408</v>
       </c>
-      <c r="J120" t="s">
-        <v>423</v>
-      </c>
       <c r="M120" t="s">
         <v>423</v>
       </c>
@@ -12774,9 +12818,6 @@
       <c r="I121" t="s">
         <v>408</v>
       </c>
-      <c r="J121" t="s">
-        <v>423</v>
-      </c>
       <c r="L121" t="s">
         <v>407</v>
       </c>
@@ -12833,9 +12874,6 @@
       <c r="I122" t="s">
         <v>408</v>
       </c>
-      <c r="J122" t="s">
-        <v>423</v>
-      </c>
       <c r="M122" t="s">
         <v>423</v>
       </c>
@@ -12886,9 +12924,6 @@
       <c r="I123" t="s">
         <v>408</v>
       </c>
-      <c r="J123" t="s">
-        <v>423</v>
-      </c>
       <c r="M123" t="s">
         <v>423</v>
       </c>
@@ -12939,9 +12974,6 @@
       <c r="I124" t="s">
         <v>408</v>
       </c>
-      <c r="J124" t="s">
-        <v>423</v>
-      </c>
       <c r="M124" t="s">
         <v>423</v>
       </c>
@@ -12992,9 +13024,6 @@
       <c r="I125" t="s">
         <v>408</v>
       </c>
-      <c r="J125" t="s">
-        <v>423</v>
-      </c>
       <c r="M125" t="s">
         <v>423</v>
       </c>
@@ -13045,9 +13074,6 @@
       <c r="I126" t="s">
         <v>408</v>
       </c>
-      <c r="J126" t="s">
-        <v>423</v>
-      </c>
       <c r="M126" t="s">
         <v>423</v>
       </c>
@@ -13098,9 +13124,6 @@
       <c r="I127" t="s">
         <v>408</v>
       </c>
-      <c r="J127" t="s">
-        <v>423</v>
-      </c>
       <c r="M127" t="s">
         <v>423</v>
       </c>
@@ -13154,9 +13177,6 @@
       <c r="I128" t="s">
         <v>408</v>
       </c>
-      <c r="J128" t="s">
-        <v>423</v>
-      </c>
       <c r="M128" t="s">
         <v>423</v>
       </c>
@@ -13204,9 +13224,6 @@
       <c r="I129" t="s">
         <v>408</v>
       </c>
-      <c r="J129" t="s">
-        <v>423</v>
-      </c>
       <c r="M129" t="s">
         <v>423</v>
       </c>
@@ -13257,9 +13274,6 @@
       <c r="I130" t="s">
         <v>408</v>
       </c>
-      <c r="J130" t="s">
-        <v>423</v>
-      </c>
       <c r="M130" t="s">
         <v>408</v>
       </c>
@@ -13309,9 +13323,6 @@
       </c>
       <c r="I131" t="s">
         <v>408</v>
-      </c>
-      <c r="J131" t="s">
-        <v>423</v>
       </c>
       <c r="M131" t="s">
         <v>423</v>
@@ -13344,1235 +13355,1272 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA131" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AA131" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CCA Junior League 5 North"/>
+        <filter val="CCA Junior League 5 South"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="Z121:Z123">
-    <cfRule type="containsText" dxfId="692" priority="986" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="708" priority="998" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z123 Y123:Y131">
-    <cfRule type="containsText" dxfId="691" priority="599" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="707" priority="611" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="690" priority="571" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="706" priority="583" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="689" priority="570" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="705" priority="582" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="688" priority="567" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="704" priority="579" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="687" priority="566" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="703" priority="578" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="686" priority="563" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="702" priority="575" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="685" priority="562" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="701" priority="574" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y123:Y124">
-    <cfRule type="containsText" dxfId="684" priority="559" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="700" priority="571" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="683" priority="552" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="699" priority="564" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="682" priority="551" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="698" priority="563" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="681" priority="548" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="697" priority="560" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="680" priority="547" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="696" priority="559" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="679" priority="544" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="695" priority="556" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="678" priority="543" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="694" priority="555" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y125:Y131">
-    <cfRule type="containsText" dxfId="677" priority="536" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="693" priority="548" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="676" priority="533" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="692" priority="545" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="675" priority="532" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="691" priority="544" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="674" priority="529" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="690" priority="541" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="673" priority="528" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="689" priority="540" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="672" priority="509" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="688" priority="521" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="671" priority="508" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="687" priority="520" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="670" priority="505" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="686" priority="517" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="669" priority="504" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="685" priority="516" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="668" priority="497" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="684" priority="509" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="667" priority="496" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="683" priority="508" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="666" priority="493" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="682" priority="505" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="665" priority="492" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="681" priority="504" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="664" priority="489" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="680" priority="501" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="663" priority="488" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="679" priority="500" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="662" priority="485" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="678" priority="497" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="661" priority="484" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="677" priority="496" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="660" priority="481" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="676" priority="493" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="659" priority="480" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="675" priority="492" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="658" priority="477" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="674" priority="489" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="657" priority="476" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="673" priority="488" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="656" priority="473" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="672" priority="485" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="655" priority="472" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="671" priority="484" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="654" priority="469" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="670" priority="481" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="653" priority="468" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="669" priority="480" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="652" priority="465" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="668" priority="477" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="651" priority="464" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="667" priority="476" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="650" priority="461" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="666" priority="473" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="649" priority="460" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="665" priority="472" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="648" priority="457" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="664" priority="469" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="647" priority="456" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="663" priority="468" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="646" priority="453" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="662" priority="465" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="645" priority="452" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="661" priority="464" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="644" priority="449" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="660" priority="461" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="643" priority="448" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="659" priority="460" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="642" priority="445" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="658" priority="457" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="641" priority="444" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="657" priority="456" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="640" priority="441" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="656" priority="453" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="639" priority="440" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="655" priority="452" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="638" priority="437" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="654" priority="449" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="637" priority="436" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="653" priority="448" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="636" priority="433" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="652" priority="445" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="635" priority="432" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="651" priority="444" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="634" priority="429" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="650" priority="441" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="633" priority="428" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="649" priority="440" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="632" priority="425" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="648" priority="437" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="631" priority="424" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="647" priority="436" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="630" priority="421" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="646" priority="433" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="629" priority="420" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="645" priority="432" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="628" priority="417" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="644" priority="429" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="627" priority="416" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="643" priority="428" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="626" priority="413" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="642" priority="425" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="625" priority="412" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="641" priority="424" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="624" priority="409" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="640" priority="421" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="623" priority="408" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="639" priority="420" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="622" priority="405" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="638" priority="417" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="621" priority="404" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="637" priority="416" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="620" priority="401" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="636" priority="413" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="619" priority="400" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="635" priority="412" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="618" priority="397" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="634" priority="409" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="617" priority="396" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="633" priority="408" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="616" priority="393" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="632" priority="405" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="615" priority="392" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="631" priority="404" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="614" priority="389" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="630" priority="401" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="613" priority="388" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="629" priority="400" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="612" priority="385" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="628" priority="397" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="611" priority="384" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="627" priority="396" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="610" priority="381" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="626" priority="393" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="609" priority="380" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="625" priority="392" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="608" priority="377" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="624" priority="389" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="607" priority="376" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="623" priority="388" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="606" priority="373" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="622" priority="385" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="605" priority="372" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="621" priority="384" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="604" priority="369" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="620" priority="381" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="603" priority="368" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="619" priority="380" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="602" priority="365" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="618" priority="377" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="601" priority="364" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="617" priority="376" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="600" priority="361" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="616" priority="373" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="599" priority="360" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="615" priority="372" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="598" priority="357" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="614" priority="369" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="597" priority="356" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="613" priority="368" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="596" priority="353" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="612" priority="365" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="595" priority="352" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="611" priority="364" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="594" priority="349" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="610" priority="361" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="593" priority="348" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="609" priority="360" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="592" priority="345" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="608" priority="357" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="591" priority="344" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="607" priority="356" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="590" priority="341" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="606" priority="353" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="589" priority="340" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="605" priority="352" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="588" priority="337" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="604" priority="349" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="587" priority="336" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="603" priority="348" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="586" priority="333" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="602" priority="345" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="585" priority="332" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="601" priority="344" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="584" priority="329" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="600" priority="341" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="583" priority="328" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="599" priority="340" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="582" priority="325" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="598" priority="337" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="581" priority="324" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="597" priority="336" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="580" priority="321" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="596" priority="333" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="579" priority="320" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="595" priority="332" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="578" priority="317" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="594" priority="329" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="577" priority="316" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="593" priority="328" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="576" priority="313" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="592" priority="325" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="575" priority="312" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="591" priority="324" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="574" priority="309" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="590" priority="321" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="573" priority="308" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="589" priority="320" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="572" priority="305" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="588" priority="317" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="571" priority="304" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="587" priority="316" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="570" priority="301" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="586" priority="313" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="569" priority="300" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="585" priority="312" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="568" priority="297" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="584" priority="309" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="567" priority="296" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="583" priority="308" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="566" priority="293" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="582" priority="305" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="565" priority="292" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="581" priority="304" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="564" priority="289" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="580" priority="301" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="563" priority="288" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="579" priority="300" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="562" priority="285" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="578" priority="297" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="561" priority="284" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="577" priority="296" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="560" priority="281" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="576" priority="293" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="559" priority="280" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="575" priority="292" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="558" priority="277" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="574" priority="289" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="557" priority="276" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="573" priority="288" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="556" priority="273" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="572" priority="285" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="555" priority="272" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="571" priority="284" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="554" priority="269" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="570" priority="281" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="553" priority="268" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="569" priority="280" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="552" priority="265" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="568" priority="277" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="551" priority="264" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="567" priority="276" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="550" priority="261" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="566" priority="273" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="549" priority="260" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="565" priority="272" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="548" priority="257" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="564" priority="269" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="547" priority="256" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="563" priority="268" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="546" priority="253" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="562" priority="265" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="545" priority="252" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="561" priority="264" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="544" priority="249" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="560" priority="261" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="543" priority="248" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="559" priority="260" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="542" priority="245" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="558" priority="257" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="541" priority="244" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="557" priority="256" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="540" priority="241" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="556" priority="253" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="539" priority="240" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="555" priority="252" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="538" priority="237" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="554" priority="249" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="537" priority="236" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="553" priority="248" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="536" priority="233" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="552" priority="245" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="535" priority="232" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="551" priority="244" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="534" priority="229" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="550" priority="241" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="533" priority="228" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="549" priority="240" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="532" priority="225" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="548" priority="237" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="531" priority="224" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="547" priority="236" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="530" priority="221" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="546" priority="233" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="529" priority="220" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="545" priority="232" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="528" priority="217" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="544" priority="229" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="527" priority="216" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="543" priority="228" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="526" priority="213" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="542" priority="225" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="525" priority="212" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="541" priority="224" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="524" priority="209" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="540" priority="221" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="523" priority="208" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="539" priority="220" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="522" priority="205" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="538" priority="217" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="521" priority="204" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="537" priority="216" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="520" priority="201" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="536" priority="213" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="519" priority="200" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="535" priority="212" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="518" priority="193" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="534" priority="205" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="517" priority="192" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="533" priority="204" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="516" priority="189" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="532" priority="201" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="515" priority="188" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="531" priority="200" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="514" priority="185" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="530" priority="197" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="513" priority="184" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="529" priority="196" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="512" priority="181" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="528" priority="193" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="511" priority="180" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="527" priority="192" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="510" priority="177" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="526" priority="189" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="509" priority="176" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="525" priority="188" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="508" priority="173" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="524" priority="185" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="507" priority="172" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="523" priority="184" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="506" priority="169" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="522" priority="181" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="505" priority="168" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="521" priority="180" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="504" priority="165" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="520" priority="177" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="503" priority="164" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="519" priority="176" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="502" priority="161" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="518" priority="173" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="501" priority="160" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="517" priority="172" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="500" priority="157" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="516" priority="169" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="499" priority="156" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="515" priority="168" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="498" priority="153" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="514" priority="165" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="497" priority="152" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="513" priority="164" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="496" priority="149" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="512" priority="161" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="495" priority="148" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="511" priority="160" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="494" priority="145" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="510" priority="157" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="493" priority="144" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="509" priority="156" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="492" priority="141" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="508" priority="153" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="491" priority="140" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="507" priority="152" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="490" priority="133" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="506" priority="145" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="489" priority="132" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="505" priority="144" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="488" priority="129" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="504" priority="141" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="487" priority="128" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="503" priority="140" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="486" priority="117" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="502" priority="129" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="485" priority="116" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="501" priority="128" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="484" priority="113" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="500" priority="125" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="483" priority="112" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="499" priority="124" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="482" priority="109" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="498" priority="121" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="481" priority="108" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="497" priority="120" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="480" priority="105" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="496" priority="117" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="479" priority="104" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="495" priority="116" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="478" priority="101" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="494" priority="113" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="477" priority="100" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="493" priority="112" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z86">
-    <cfRule type="containsText" dxfId="476" priority="97" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="492" priority="109" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z86">
-    <cfRule type="containsText" dxfId="475" priority="96" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="491" priority="108" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="474" priority="73" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="490" priority="85" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="473" priority="72" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="489" priority="84" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="472" priority="69" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="488" priority="81" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="471" priority="68" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="487" priority="80" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="470" priority="65" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="486" priority="77" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="469" priority="64" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="485" priority="76" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="468" priority="57" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="484" priority="69" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="467" priority="56" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="483" priority="68" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="466" priority="53" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="482" priority="65" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="465" priority="52" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="481" priority="64" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="464" priority="49" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="480" priority="61" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="463" priority="48" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="479" priority="60" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="462" priority="45" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="478" priority="57" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="461" priority="44" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="477" priority="56" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="460" priority="41" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="476" priority="53" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="459" priority="40" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="475" priority="52" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="458" priority="37" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="474" priority="49" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="457" priority="36" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="473" priority="48" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="456" priority="33" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="472" priority="45" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="455" priority="32" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="471" priority="44" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="454" priority="29" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="470" priority="41" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="453" priority="28" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="469" priority="40" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="452" priority="25" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="468" priority="37" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="451" priority="24" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="467" priority="36" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="450" priority="21" stopIfTrue="1" operator="containsText" text="Off Request">
+  <conditionalFormatting sqref="J94:J101 J106 J109:J131">
+    <cfRule type="containsText" dxfId="466" priority="33" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="449" priority="20" operator="containsText" text="Home">
+  <conditionalFormatting sqref="J94:J101 J106 J109:J131">
+    <cfRule type="containsText" dxfId="465" priority="32" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="446" priority="9" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="462" priority="21" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="445" priority="8" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="461" priority="20" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102:J103">
+    <cfRule type="containsText" dxfId="15" priority="11" stopIfTrue="1" operator="containsText" text="Off Request">
+      <formula>NOT(ISERROR(SEARCH("Off Request",J102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102:J103">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Home">
+      <formula>NOT(ISERROR(SEARCH("Home",J102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:J105">
+    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="Off Request">
+      <formula>NOT(ISERROR(SEARCH("Off Request",J104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:J105">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Home">
+      <formula>NOT(ISERROR(SEARCH("Home",J104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107:J108">
+    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Off Request">
+      <formula>NOT(ISERROR(SEARCH("Off Request",J107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107:J108">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Home">
+      <formula>NOT(ISERROR(SEARCH("Home",J107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14580,17 +14628,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1044" stopIfTrue="1" operator="equal" id="{B8F21C49-FECB-2747-BD76-17F1F07CE896}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1045" operator="equal" id="{43E45996-2389-7648-8C3F-1AF918726F4B}">
+          <x14:cfRule type="cellIs" priority="1056" stopIfTrue="1" operator="equal" id="{B8F21C49-FECB-2747-BD76-17F1F07CE896}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1057" operator="equal" id="{43E45996-2389-7648-8C3F-1AF918726F4B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14603,17 +14651,17 @@
           <xm:sqref>Q60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1042" stopIfTrue="1" operator="equal" id="{B46758B0-3BA8-AA40-B39D-C372A753D4B2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1043" operator="equal" id="{E7360A3B-6FE0-C140-A2E5-FF66C79E1A10}">
+          <x14:cfRule type="cellIs" priority="1054" stopIfTrue="1" operator="equal" id="{B46758B0-3BA8-AA40-B39D-C372A753D4B2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1055" operator="equal" id="{E7360A3B-6FE0-C140-A2E5-FF66C79E1A10}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14626,17 +14674,17 @@
           <xm:sqref>U164</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1038" stopIfTrue="1" operator="equal" id="{16DE8540-DF28-D648-A00C-141869EA1F99}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1039" operator="equal" id="{7F563A28-F177-D14C-B245-BAA1843144B9}">
+          <x14:cfRule type="cellIs" priority="1050" stopIfTrue="1" operator="equal" id="{16DE8540-DF28-D648-A00C-141869EA1F99}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1051" operator="equal" id="{7F563A28-F177-D14C-B245-BAA1843144B9}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14649,17 +14697,17 @@
           <xm:sqref>S110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1034" stopIfTrue="1" operator="equal" id="{1E3B7A9C-CCDB-4849-A2FC-548F8350AC2E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1035" operator="equal" id="{916BE90E-312C-554E-876F-4F531B0E91F1}">
+          <x14:cfRule type="cellIs" priority="1046" stopIfTrue="1" operator="equal" id="{1E3B7A9C-CCDB-4849-A2FC-548F8350AC2E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1047" operator="equal" id="{916BE90E-312C-554E-876F-4F531B0E91F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14672,17 +14720,17 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1030" stopIfTrue="1" operator="equal" id="{C4F0806F-CB42-BA47-995D-ACDFE57CECA8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1031" operator="equal" id="{7695F84A-29B6-B64E-A47E-85747B6873E3}">
+          <x14:cfRule type="cellIs" priority="1042" stopIfTrue="1" operator="equal" id="{C4F0806F-CB42-BA47-995D-ACDFE57CECA8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1043" operator="equal" id="{7695F84A-29B6-B64E-A47E-85747B6873E3}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14695,17 +14743,17 @@
           <xm:sqref>M118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1028" stopIfTrue="1" operator="equal" id="{6C3D3A5E-946E-1944-9EA1-4964BC352CCD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1029" operator="equal" id="{636AFD87-ADC7-D944-8B2A-CF180A29CF34}">
+          <x14:cfRule type="cellIs" priority="1040" stopIfTrue="1" operator="equal" id="{6C3D3A5E-946E-1944-9EA1-4964BC352CCD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1041" operator="equal" id="{636AFD87-ADC7-D944-8B2A-CF180A29CF34}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14718,17 +14766,17 @@
           <xm:sqref>Z50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1020" stopIfTrue="1" operator="equal" id="{DF33F242-E9B8-EF49-BB65-4A3705FD57E0}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1021" operator="equal" id="{46E8D10D-B9BD-F441-B124-59A399E47EB6}">
+          <x14:cfRule type="cellIs" priority="1032" stopIfTrue="1" operator="equal" id="{DF33F242-E9B8-EF49-BB65-4A3705FD57E0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1033" operator="equal" id="{46E8D10D-B9BD-F441-B124-59A399E47EB6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14741,17 +14789,17 @@
           <xm:sqref>R86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1018" stopIfTrue="1" operator="equal" id="{08C9F9B7-AA1B-0748-AA41-091984CEA4E4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1019" operator="equal" id="{D6348B08-61C4-3347-8491-60A74A98F26C}">
+          <x14:cfRule type="cellIs" priority="1030" stopIfTrue="1" operator="equal" id="{08C9F9B7-AA1B-0748-AA41-091984CEA4E4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1031" operator="equal" id="{D6348B08-61C4-3347-8491-60A74A98F26C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14764,17 +14812,17 @@
           <xm:sqref>R127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1016" stopIfTrue="1" operator="equal" id="{A5DD4F50-85D2-E54A-AB69-6BE5F524114E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1017" operator="equal" id="{AE7AF954-5717-C94D-AD8B-74D51CFC9FE4}">
+          <x14:cfRule type="cellIs" priority="1028" stopIfTrue="1" operator="equal" id="{A5DD4F50-85D2-E54A-AB69-6BE5F524114E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1029" operator="equal" id="{AE7AF954-5717-C94D-AD8B-74D51CFC9FE4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14787,17 +14835,17 @@
           <xm:sqref>Z32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1004" stopIfTrue="1" operator="equal" id="{5387F593-BB90-A84D-B2E5-11E6A788FC5F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1005" operator="equal" id="{5D0B0D7A-2EA2-E24D-8DF3-DF5D88B09728}">
+          <x14:cfRule type="cellIs" priority="1016" stopIfTrue="1" operator="equal" id="{5387F593-BB90-A84D-B2E5-11E6A788FC5F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1017" operator="equal" id="{5D0B0D7A-2EA2-E24D-8DF3-DF5D88B09728}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14810,17 +14858,17 @@
           <xm:sqref>R69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1002" stopIfTrue="1" operator="equal" id="{11490116-2FE1-1A4B-BE92-F615B4124EEC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1003" operator="equal" id="{D9AF94E4-DFC3-5A44-B712-6DB258EECC93}">
+          <x14:cfRule type="cellIs" priority="1014" stopIfTrue="1" operator="equal" id="{11490116-2FE1-1A4B-BE92-F615B4124EEC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1015" operator="equal" id="{D9AF94E4-DFC3-5A44-B712-6DB258EECC93}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14833,17 +14881,17 @@
           <xm:sqref>K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1000" stopIfTrue="1" operator="equal" id="{DDE200A8-049C-E448-A55E-8479759DD008}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1001" operator="equal" id="{C728B3C0-FF45-FB4F-B0AF-D1AD3D258F40}">
+          <x14:cfRule type="cellIs" priority="1012" stopIfTrue="1" operator="equal" id="{DDE200A8-049C-E448-A55E-8479759DD008}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1013" operator="equal" id="{C728B3C0-FF45-FB4F-B0AF-D1AD3D258F40}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14856,17 +14904,17 @@
           <xm:sqref>K119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="998" stopIfTrue="1" operator="equal" id="{7096E9D6-B401-D845-9C04-A949D1D78862}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="999" operator="equal" id="{73FEE7DB-FD05-A44C-B642-9A042DADCD8B}">
+          <x14:cfRule type="cellIs" priority="1010" stopIfTrue="1" operator="equal" id="{7096E9D6-B401-D845-9C04-A949D1D78862}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1011" operator="equal" id="{73FEE7DB-FD05-A44C-B642-9A042DADCD8B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14879,17 +14927,17 @@
           <xm:sqref>Z25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="996" stopIfTrue="1" operator="equal" id="{31EDCF1A-E223-1B4E-AEF6-5253E1FA747C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="997" operator="equal" id="{0B86EB7E-06B8-1544-95F8-899BE916F22A}">
+          <x14:cfRule type="cellIs" priority="1008" stopIfTrue="1" operator="equal" id="{31EDCF1A-E223-1B4E-AEF6-5253E1FA747C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1009" operator="equal" id="{0B86EB7E-06B8-1544-95F8-899BE916F22A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14902,17 +14950,17 @@
           <xm:sqref>Z87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="580" operator="equal" id="{881727F1-F454-3E40-B9E5-2832E32A3597}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="987" stopIfTrue="1" operator="equal" id="{8ED96105-43C4-EC4A-9258-5335AE5695EE}">
+          <x14:cfRule type="cellIs" priority="592" operator="equal" id="{881727F1-F454-3E40-B9E5-2832E32A3597}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="999" stopIfTrue="1" operator="equal" id="{8ED96105-43C4-EC4A-9258-5335AE5695EE}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -14925,17 +14973,17 @@
           <xm:sqref>Z121:Z123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="984" stopIfTrue="1" operator="equal" id="{33DA27C2-3E27-2248-9621-FA9DBBE902F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="985" operator="equal" id="{AC0B924A-6B9D-E944-8D54-F6CD1C0F41BD}">
+          <x14:cfRule type="cellIs" priority="996" stopIfTrue="1" operator="equal" id="{33DA27C2-3E27-2248-9621-FA9DBBE902F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="997" operator="equal" id="{AC0B924A-6B9D-E944-8D54-F6CD1C0F41BD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14948,17 +14996,17 @@
           <xm:sqref>R64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="982" stopIfTrue="1" operator="equal" id="{D7762E6B-0212-5A47-AEE7-4A3F1379904D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="983" operator="equal" id="{59823944-DD40-5C45-828D-7DBD0AB7391C}">
+          <x14:cfRule type="cellIs" priority="994" stopIfTrue="1" operator="equal" id="{D7762E6B-0212-5A47-AEE7-4A3F1379904D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="995" operator="equal" id="{59823944-DD40-5C45-828D-7DBD0AB7391C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14971,17 +15019,17 @@
           <xm:sqref>S64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="980" stopIfTrue="1" operator="equal" id="{97FA85E0-29BA-784A-B10F-2B34C26D5552}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="981" operator="equal" id="{29DF4259-F305-294E-9486-2C0A8E6480C8}">
+          <x14:cfRule type="cellIs" priority="992" stopIfTrue="1" operator="equal" id="{97FA85E0-29BA-784A-B10F-2B34C26D5552}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="993" operator="equal" id="{29DF4259-F305-294E-9486-2C0A8E6480C8}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -14994,17 +15042,17 @@
           <xm:sqref>AA64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="976" stopIfTrue="1" operator="equal" id="{8EF1A0F2-C5FA-DD40-A98E-8EBD47ABB3E6}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="977" operator="equal" id="{05A4387F-4C05-D744-B209-1622B1BE3D6D}">
+          <x14:cfRule type="cellIs" priority="988" stopIfTrue="1" operator="equal" id="{8EF1A0F2-C5FA-DD40-A98E-8EBD47ABB3E6}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="989" operator="equal" id="{05A4387F-4C05-D744-B209-1622B1BE3D6D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15017,17 +15065,17 @@
           <xm:sqref>J70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="966" stopIfTrue="1" operator="equal" id="{3050AC31-1DA1-4042-BCD9-BBF85A37353E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="967" operator="equal" id="{59842BCD-F224-D146-9B5F-A31FE63EFCB7}">
+          <x14:cfRule type="cellIs" priority="978" stopIfTrue="1" operator="equal" id="{3050AC31-1DA1-4042-BCD9-BBF85A37353E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="979" operator="equal" id="{59842BCD-F224-D146-9B5F-A31FE63EFCB7}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15040,17 +15088,17 @@
           <xm:sqref>R46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="964" stopIfTrue="1" operator="equal" id="{9ABDBC09-81EE-EB4B-A699-7F00BE160088}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="965" operator="equal" id="{8DBE70D9-1DF3-484E-BDC1-400CC0015794}">
+          <x14:cfRule type="cellIs" priority="976" stopIfTrue="1" operator="equal" id="{9ABDBC09-81EE-EB4B-A699-7F00BE160088}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="977" operator="equal" id="{8DBE70D9-1DF3-484E-BDC1-400CC0015794}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15063,17 +15111,17 @@
           <xm:sqref>R106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="950" stopIfTrue="1" operator="equal" id="{160A2ADE-ABA0-9C47-8EFA-842500EB0449}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="951" operator="equal" id="{15BB4C4E-E140-FF46-8021-61DEB5BFEF68}">
+          <x14:cfRule type="cellIs" priority="962" stopIfTrue="1" operator="equal" id="{160A2ADE-ABA0-9C47-8EFA-842500EB0449}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="963" operator="equal" id="{15BB4C4E-E140-FF46-8021-61DEB5BFEF68}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15086,17 +15134,17 @@
           <xm:sqref>Q36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="946" stopIfTrue="1" operator="equal" id="{E3CEE448-98E5-1B4C-BF0A-9B5F3F4E02F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="947" operator="equal" id="{818D8602-580E-1841-ADC9-EFE47BD40388}">
+          <x14:cfRule type="cellIs" priority="958" stopIfTrue="1" operator="equal" id="{E3CEE448-98E5-1B4C-BF0A-9B5F3F4E02F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="959" operator="equal" id="{818D8602-580E-1841-ADC9-EFE47BD40388}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15109,17 +15157,17 @@
           <xm:sqref>S18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="942" stopIfTrue="1" operator="equal" id="{B339A9C6-666D-3D4F-AC7C-711DC813D36F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="943" operator="equal" id="{959B0C4E-EC58-2849-BADA-B628E3737758}">
+          <x14:cfRule type="cellIs" priority="954" stopIfTrue="1" operator="equal" id="{B339A9C6-666D-3D4F-AC7C-711DC813D36F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="955" operator="equal" id="{959B0C4E-EC58-2849-BADA-B628E3737758}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15132,17 +15180,17 @@
           <xm:sqref>R84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="940" stopIfTrue="1" operator="equal" id="{9F98199F-DCF1-464A-8219-1DC656411C9E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="941" operator="equal" id="{B3B5E7AC-08F4-D448-8F14-C9A9E4E36E64}">
+          <x14:cfRule type="cellIs" priority="952" stopIfTrue="1" operator="equal" id="{9F98199F-DCF1-464A-8219-1DC656411C9E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="953" operator="equal" id="{B3B5E7AC-08F4-D448-8F14-C9A9E4E36E64}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15155,17 +15203,17 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="938" stopIfTrue="1" operator="equal" id="{AA0A5D38-C1AC-C74B-BE09-21691DF27B93}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="939" operator="equal" id="{22D35834-5606-6F48-9398-AC865858DD4E}">
+          <x14:cfRule type="cellIs" priority="950" stopIfTrue="1" operator="equal" id="{AA0A5D38-C1AC-C74B-BE09-21691DF27B93}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="951" operator="equal" id="{22D35834-5606-6F48-9398-AC865858DD4E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15178,17 +15226,17 @@
           <xm:sqref>M130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="928" stopIfTrue="1" operator="equal" id="{15FF22AE-C9A5-0346-9D81-93EB1A4B4FD9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="929" operator="equal" id="{4D61668A-9DFC-064B-8DD3-F56FDECACDAB}">
+          <x14:cfRule type="cellIs" priority="940" stopIfTrue="1" operator="equal" id="{15FF22AE-C9A5-0346-9D81-93EB1A4B4FD9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="941" operator="equal" id="{4D61668A-9DFC-064B-8DD3-F56FDECACDAB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15201,17 +15249,17 @@
           <xm:sqref>L65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="926" stopIfTrue="1" operator="equal" id="{2E5C1682-0FFD-8849-A51E-04025B84E57A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="927" operator="equal" id="{1EB151A6-F577-2741-ABD2-326BAFAF6326}">
+          <x14:cfRule type="cellIs" priority="938" stopIfTrue="1" operator="equal" id="{2E5C1682-0FFD-8849-A51E-04025B84E57A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="939" operator="equal" id="{1EB151A6-F577-2741-ABD2-326BAFAF6326}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15224,17 +15272,17 @@
           <xm:sqref>L109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="924" stopIfTrue="1" operator="equal" id="{1CE3FB13-74FD-8C4A-8145-EA88C5AB3F12}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="925" operator="equal" id="{65704A62-1753-5349-8D07-8D18068BE414}">
+          <x14:cfRule type="cellIs" priority="936" stopIfTrue="1" operator="equal" id="{1CE3FB13-74FD-8C4A-8145-EA88C5AB3F12}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="937" operator="equal" id="{65704A62-1753-5349-8D07-8D18068BE414}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15247,17 +15295,17 @@
           <xm:sqref>Z66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="920" stopIfTrue="1" operator="equal" id="{F3830CB7-8A98-9E41-98F5-A9B22291A7B5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="921" operator="equal" id="{50462366-D9FB-0945-A594-E9E74C027A9A}">
+          <x14:cfRule type="cellIs" priority="932" stopIfTrue="1" operator="equal" id="{F3830CB7-8A98-9E41-98F5-A9B22291A7B5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="933" operator="equal" id="{50462366-D9FB-0945-A594-E9E74C027A9A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15270,17 +15318,17 @@
           <xm:sqref>Q21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="786" stopIfTrue="1" operator="equal" id="{FB7DAF59-CDF1-0F46-97C5-2BF84FC5C668}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="787" operator="equal" id="{B61B11C5-C62B-7345-985F-472D40595EED}">
+          <x14:cfRule type="cellIs" priority="798" stopIfTrue="1" operator="equal" id="{FB7DAF59-CDF1-0F46-97C5-2BF84FC5C668}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="799" operator="equal" id="{B61B11C5-C62B-7345-985F-472D40595EED}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15293,17 +15341,17 @@
           <xm:sqref>R67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="784" stopIfTrue="1" operator="equal" id="{B59DD66C-AB3C-CB42-9F09-74576444AA77}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="785" operator="equal" id="{E5DD8DB4-0033-DC4A-A62D-8C069E843BBC}">
+          <x14:cfRule type="cellIs" priority="796" stopIfTrue="1" operator="equal" id="{B59DD66C-AB3C-CB42-9F09-74576444AA77}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="797" operator="equal" id="{E5DD8DB4-0033-DC4A-A62D-8C069E843BBC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15316,17 +15364,17 @@
           <xm:sqref>T67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="782" stopIfTrue="1" operator="equal" id="{D5FBD6E4-D607-8644-8709-EE5540241951}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="783" operator="equal" id="{30B5E45B-2913-FB49-ADCB-04FF3D6F99B1}">
+          <x14:cfRule type="cellIs" priority="794" stopIfTrue="1" operator="equal" id="{D5FBD6E4-D607-8644-8709-EE5540241951}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="795" operator="equal" id="{30B5E45B-2913-FB49-ADCB-04FF3D6F99B1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15339,17 +15387,17 @@
           <xm:sqref>V67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="780" stopIfTrue="1" operator="equal" id="{23B14C99-E044-0546-A05B-8DDFD1A6445B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="781" operator="equal" id="{21D69A42-1B53-0B44-A98E-2EB19DBB0E21}">
+          <x14:cfRule type="cellIs" priority="792" stopIfTrue="1" operator="equal" id="{23B14C99-E044-0546-A05B-8DDFD1A6445B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="793" operator="equal" id="{21D69A42-1B53-0B44-A98E-2EB19DBB0E21}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15362,17 +15410,17 @@
           <xm:sqref>W67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="778" stopIfTrue="1" operator="equal" id="{870D1A61-6366-4F4B-BBD9-6503CAE67D09}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="779" operator="equal" id="{D853CA65-4061-5C4A-8FC1-491E7AC4E240}">
+          <x14:cfRule type="cellIs" priority="790" stopIfTrue="1" operator="equal" id="{870D1A61-6366-4F4B-BBD9-6503CAE67D09}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="791" operator="equal" id="{D853CA65-4061-5C4A-8FC1-491E7AC4E240}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15385,17 +15433,17 @@
           <xm:sqref>Z67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="776" stopIfTrue="1" operator="equal" id="{68AFC342-05D6-2B4B-B37D-E904A940ADE3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="777" operator="equal" id="{CED18387-5A71-7F45-9E23-7DED98966C6C}">
+          <x14:cfRule type="cellIs" priority="788" stopIfTrue="1" operator="equal" id="{68AFC342-05D6-2B4B-B37D-E904A940ADE3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="789" operator="equal" id="{CED18387-5A71-7F45-9E23-7DED98966C6C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15408,17 +15456,17 @@
           <xm:sqref>AA67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="716" stopIfTrue="1" operator="equal" id="{33C9F4DD-8EAA-0542-84B2-B68A39E58A12}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="717" operator="equal" id="{8596C912-48E7-1147-ACCF-4F095B2AEFE5}">
+          <x14:cfRule type="cellIs" priority="728" stopIfTrue="1" operator="equal" id="{33C9F4DD-8EAA-0542-84B2-B68A39E58A12}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="729" operator="equal" id="{8596C912-48E7-1147-ACCF-4F095B2AEFE5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15431,17 +15479,17 @@
           <xm:sqref>R19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="714" stopIfTrue="1" operator="equal" id="{7673B1CB-A612-094E-B631-46A283D9FBCA}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="715" operator="equal" id="{DE7BACFD-A744-1444-8943-BDAA147C32F1}">
+          <x14:cfRule type="cellIs" priority="726" stopIfTrue="1" operator="equal" id="{7673B1CB-A612-094E-B631-46A283D9FBCA}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="727" operator="equal" id="{DE7BACFD-A744-1444-8943-BDAA147C32F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15454,17 +15502,17 @@
           <xm:sqref>R13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="712" stopIfTrue="1" operator="equal" id="{A459854E-EBFE-A34E-8EED-0EA9CBD3490C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="713" operator="equal" id="{E4C2B1A9-9B51-644E-82E9-69F74841FFC4}">
+          <x14:cfRule type="cellIs" priority="724" stopIfTrue="1" operator="equal" id="{A459854E-EBFE-A34E-8EED-0EA9CBD3490C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="725" operator="equal" id="{E4C2B1A9-9B51-644E-82E9-69F74841FFC4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15477,17 +15525,17 @@
           <xm:sqref>I13:I14 I18:I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="708" stopIfTrue="1" operator="equal" id="{2EC8E46B-8D69-E946-AF5F-9500AB9D4F76}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="709" operator="equal" id="{B6EF0668-CE4E-1C45-9EF1-140E7EEA29CC}">
+          <x14:cfRule type="cellIs" priority="720" stopIfTrue="1" operator="equal" id="{2EC8E46B-8D69-E946-AF5F-9500AB9D4F76}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="721" operator="equal" id="{B6EF0668-CE4E-1C45-9EF1-140E7EEA29CC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15500,17 +15548,17 @@
           <xm:sqref>P147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="706" stopIfTrue="1" operator="equal" id="{8E3A209F-7C04-D742-82D2-829167695300}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="707" operator="equal" id="{E56AF8BE-0342-C24E-B236-0EC227AF318F}">
+          <x14:cfRule type="cellIs" priority="718" stopIfTrue="1" operator="equal" id="{8E3A209F-7C04-D742-82D2-829167695300}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="719" operator="equal" id="{E56AF8BE-0342-C24E-B236-0EC227AF318F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15523,17 +15571,17 @@
           <xm:sqref>N141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="704" stopIfTrue="1" operator="equal" id="{B3566CFB-496D-4746-BD8B-3ADFA7764AC4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="705" operator="equal" id="{DC643038-E83A-EC48-8B76-89BC00ACF75D}">
+          <x14:cfRule type="cellIs" priority="716" stopIfTrue="1" operator="equal" id="{B3566CFB-496D-4746-BD8B-3ADFA7764AC4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="717" operator="equal" id="{DC643038-E83A-EC48-8B76-89BC00ACF75D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15546,17 +15594,17 @@
           <xm:sqref>M141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="702" stopIfTrue="1" operator="equal" id="{8EB3C511-504C-5F4A-B549-84431F8567A3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="703" operator="equal" id="{01B3819D-9CD7-CC4F-9F9A-E05C7D3549AB}">
+          <x14:cfRule type="cellIs" priority="714" stopIfTrue="1" operator="equal" id="{8EB3C511-504C-5F4A-B549-84431F8567A3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="715" operator="equal" id="{01B3819D-9CD7-CC4F-9F9A-E05C7D3549AB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15569,17 +15617,17 @@
           <xm:sqref>L141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="700" stopIfTrue="1" operator="equal" id="{80D41A3A-98BA-3349-B532-79F408E4B21A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="701" operator="equal" id="{F768298C-CC19-284A-B8BF-0C256F08772C}">
+          <x14:cfRule type="cellIs" priority="712" stopIfTrue="1" operator="equal" id="{80D41A3A-98BA-3349-B532-79F408E4B21A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="713" operator="equal" id="{F768298C-CC19-284A-B8BF-0C256F08772C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15592,17 +15640,17 @@
           <xm:sqref>K141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="698" stopIfTrue="1" operator="equal" id="{371C8D65-FAA9-6742-ADBE-CAD711B62879}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="699" operator="equal" id="{D45A7BB4-C3E3-DC42-8F6B-05F9D2300876}">
+          <x14:cfRule type="cellIs" priority="710" stopIfTrue="1" operator="equal" id="{371C8D65-FAA9-6742-ADBE-CAD711B62879}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="711" operator="equal" id="{D45A7BB4-C3E3-DC42-8F6B-05F9D2300876}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15615,17 +15663,17 @@
           <xm:sqref>J141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="696" stopIfTrue="1" operator="equal" id="{6EAF2E20-8B39-0B43-B26C-C49191EF9142}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="697" operator="equal" id="{33DD5BE4-9AF2-0B43-A07E-F2BCC03AB1B0}">
+          <x14:cfRule type="cellIs" priority="708" stopIfTrue="1" operator="equal" id="{6EAF2E20-8B39-0B43-B26C-C49191EF9142}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="709" operator="equal" id="{33DD5BE4-9AF2-0B43-A07E-F2BCC03AB1B0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15638,17 +15686,17 @@
           <xm:sqref>I141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="694" stopIfTrue="1" operator="equal" id="{721B23E0-080D-3742-ABAE-2CC88C87AA0A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="695" operator="equal" id="{F3D2BC7A-715D-A549-8DD6-0DFA1898B876}">
+          <x14:cfRule type="cellIs" priority="706" stopIfTrue="1" operator="equal" id="{721B23E0-080D-3742-ABAE-2CC88C87AA0A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="707" operator="equal" id="{F3D2BC7A-715D-A549-8DD6-0DFA1898B876}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15661,17 +15709,17 @@
           <xm:sqref>X141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="692" stopIfTrue="1" operator="equal" id="{9E02E47A-9D0B-074F-BB62-64DC3C53F30D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="693" operator="equal" id="{63AAD570-AE0E-2043-94A6-B73EBA7BFC17}">
+          <x14:cfRule type="cellIs" priority="704" stopIfTrue="1" operator="equal" id="{9E02E47A-9D0B-074F-BB62-64DC3C53F30D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="705" operator="equal" id="{63AAD570-AE0E-2043-94A6-B73EBA7BFC17}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15684,17 +15732,17 @@
           <xm:sqref>Y141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="690" stopIfTrue="1" operator="equal" id="{C573C457-6152-0743-B78A-1F1A09D52AC5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="691" operator="equal" id="{F5B9DE07-A7E5-6B48-AAF5-81312DF936B5}">
+          <x14:cfRule type="cellIs" priority="702" stopIfTrue="1" operator="equal" id="{C573C457-6152-0743-B78A-1F1A09D52AC5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="703" operator="equal" id="{F5B9DE07-A7E5-6B48-AAF5-81312DF936B5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15707,17 +15755,17 @@
           <xm:sqref>Z141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="688" stopIfTrue="1" operator="equal" id="{27228EE8-43E2-B24B-A706-E2A9F17C9EA5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="689" operator="equal" id="{588EF9CF-E4F4-744A-9952-38EAF1B50742}">
+          <x14:cfRule type="cellIs" priority="700" stopIfTrue="1" operator="equal" id="{27228EE8-43E2-B24B-A706-E2A9F17C9EA5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="701" operator="equal" id="{588EF9CF-E4F4-744A-9952-38EAF1B50742}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15730,17 +15778,17 @@
           <xm:sqref>I142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="686" stopIfTrue="1" operator="equal" id="{CE43376E-65BC-4B4A-BCFE-D70BF1E45729}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="687" operator="equal" id="{CBC8CE1B-30E2-1341-91F1-51D739F568C1}">
+          <x14:cfRule type="cellIs" priority="698" stopIfTrue="1" operator="equal" id="{CE43376E-65BC-4B4A-BCFE-D70BF1E45729}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="699" operator="equal" id="{CBC8CE1B-30E2-1341-91F1-51D739F568C1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15753,17 +15801,17 @@
           <xm:sqref>K142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="684" stopIfTrue="1" operator="equal" id="{C4B33A45-42F3-894B-BF1A-9244BDD19535}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="685" operator="equal" id="{15DFFF79-D40D-7D4B-B047-35A446E3C113}">
+          <x14:cfRule type="cellIs" priority="696" stopIfTrue="1" operator="equal" id="{C4B33A45-42F3-894B-BF1A-9244BDD19535}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="697" operator="equal" id="{15DFFF79-D40D-7D4B-B047-35A446E3C113}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15776,17 +15824,17 @@
           <xm:sqref>M142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="682" stopIfTrue="1" operator="equal" id="{FC175B4A-AB1C-A142-95CF-E50D45720BD3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="683" operator="equal" id="{DA85519F-79E0-8C42-A0A5-179212923529}">
+          <x14:cfRule type="cellIs" priority="694" stopIfTrue="1" operator="equal" id="{FC175B4A-AB1C-A142-95CF-E50D45720BD3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="695" operator="equal" id="{DA85519F-79E0-8C42-A0A5-179212923529}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15799,17 +15847,17 @@
           <xm:sqref>O142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="680" stopIfTrue="1" operator="equal" id="{9AC5E474-FB65-4545-979D-0DB2AF157F71}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="681" operator="equal" id="{E6816027-6430-0842-9348-CA10FAA93547}">
+          <x14:cfRule type="cellIs" priority="692" stopIfTrue="1" operator="equal" id="{9AC5E474-FB65-4545-979D-0DB2AF157F71}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="693" operator="equal" id="{E6816027-6430-0842-9348-CA10FAA93547}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15822,17 +15870,17 @@
           <xm:sqref>Q142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="678" stopIfTrue="1" operator="equal" id="{AC1F680F-4ABA-0144-94B0-7A3B27B65893}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="679" operator="equal" id="{0244B78B-CB90-B64F-B40A-E80BF4C8A4EC}">
+          <x14:cfRule type="cellIs" priority="690" stopIfTrue="1" operator="equal" id="{AC1F680F-4ABA-0144-94B0-7A3B27B65893}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="691" operator="equal" id="{0244B78B-CB90-B64F-B40A-E80BF4C8A4EC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15845,17 +15893,17 @@
           <xm:sqref>S142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="676" stopIfTrue="1" operator="equal" id="{D07747CD-1D8A-C448-AB5D-39DA7D8E9FE8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="677" operator="equal" id="{93BEBEEF-C823-3F49-9D29-1F3775DAE09C}">
+          <x14:cfRule type="cellIs" priority="688" stopIfTrue="1" operator="equal" id="{D07747CD-1D8A-C448-AB5D-39DA7D8E9FE8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="689" operator="equal" id="{93BEBEEF-C823-3F49-9D29-1F3775DAE09C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15868,17 +15916,17 @@
           <xm:sqref>U142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="674" stopIfTrue="1" operator="equal" id="{1DB1A343-7F8F-DF48-84D5-C21D85E312E9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="675" operator="equal" id="{A6B31165-38E5-6E46-B5DA-5BD66689707E}">
+          <x14:cfRule type="cellIs" priority="686" stopIfTrue="1" operator="equal" id="{1DB1A343-7F8F-DF48-84D5-C21D85E312E9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="687" operator="equal" id="{A6B31165-38E5-6E46-B5DA-5BD66689707E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15891,17 +15939,17 @@
           <xm:sqref>W142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="672" stopIfTrue="1" operator="equal" id="{7E1DE444-9C4B-1944-913E-E380D2F31ED4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="673" operator="equal" id="{C1A8FDB2-0994-DF43-8939-E793B71EBDBB}">
+          <x14:cfRule type="cellIs" priority="684" stopIfTrue="1" operator="equal" id="{7E1DE444-9C4B-1944-913E-E380D2F31ED4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="685" operator="equal" id="{C1A8FDB2-0994-DF43-8939-E793B71EBDBB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15914,17 +15962,17 @@
           <xm:sqref>Y142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="670" stopIfTrue="1" operator="equal" id="{E365216E-D285-7145-B15B-81497FAA9F0D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="671" operator="equal" id="{E69C23FE-E205-5E42-BBA1-F06C9EFEF28D}">
+          <x14:cfRule type="cellIs" priority="682" stopIfTrue="1" operator="equal" id="{E365216E-D285-7145-B15B-81497FAA9F0D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="683" operator="equal" id="{E69C23FE-E205-5E42-BBA1-F06C9EFEF28D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15937,17 +15985,17 @@
           <xm:sqref>J140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="668" stopIfTrue="1" operator="equal" id="{26C7A783-3EFA-764B-AD5E-800D712CF746}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="669" operator="equal" id="{A11E5773-EC41-7542-B4A7-3010C4F4B75F}">
+          <x14:cfRule type="cellIs" priority="680" stopIfTrue="1" operator="equal" id="{26C7A783-3EFA-764B-AD5E-800D712CF746}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="681" operator="equal" id="{A11E5773-EC41-7542-B4A7-3010C4F4B75F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15960,17 +16008,17 @@
           <xm:sqref>K140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="666" stopIfTrue="1" operator="equal" id="{1F6C9277-673A-7044-9238-5889C669B9A1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="667" operator="equal" id="{21043E87-7DC7-AF41-B433-18CDAA0C7EE1}">
+          <x14:cfRule type="cellIs" priority="678" stopIfTrue="1" operator="equal" id="{1F6C9277-673A-7044-9238-5889C669B9A1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="679" operator="equal" id="{21043E87-7DC7-AF41-B433-18CDAA0C7EE1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -15983,17 +16031,17 @@
           <xm:sqref>N140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="664" stopIfTrue="1" operator="equal" id="{AAEF8A0D-655A-EB42-B4C7-FFA818760CF2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="665" operator="equal" id="{972365D3-2B2F-6C4E-9D5D-21161CC929BE}">
+          <x14:cfRule type="cellIs" priority="676" stopIfTrue="1" operator="equal" id="{AAEF8A0D-655A-EB42-B4C7-FFA818760CF2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="677" operator="equal" id="{972365D3-2B2F-6C4E-9D5D-21161CC929BE}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16006,17 +16054,17 @@
           <xm:sqref>P140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="662" stopIfTrue="1" operator="equal" id="{43AFC509-0331-994C-B9DD-29C0EDC66723}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="663" operator="equal" id="{A8BBF19B-0344-4346-8CC7-DD8F251F08EA}">
+          <x14:cfRule type="cellIs" priority="674" stopIfTrue="1" operator="equal" id="{43AFC509-0331-994C-B9DD-29C0EDC66723}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="675" operator="equal" id="{A8BBF19B-0344-4346-8CC7-DD8F251F08EA}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16029,17 +16077,17 @@
           <xm:sqref>R140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="660" stopIfTrue="1" operator="equal" id="{14767652-7EE4-4442-9879-ED3F4BBEAC63}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="661" operator="equal" id="{C9959D16-FF88-0D41-84E2-9DD9B15A6D28}">
+          <x14:cfRule type="cellIs" priority="672" stopIfTrue="1" operator="equal" id="{14767652-7EE4-4442-9879-ED3F4BBEAC63}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="673" operator="equal" id="{C9959D16-FF88-0D41-84E2-9DD9B15A6D28}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16052,17 +16100,17 @@
           <xm:sqref>U140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="658" stopIfTrue="1" operator="equal" id="{4D8D83CE-F574-A443-89A9-5FF0DCF29530}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="659" operator="equal" id="{56A786E2-8BEA-3544-80FC-766AF2EECA07}">
+          <x14:cfRule type="cellIs" priority="670" stopIfTrue="1" operator="equal" id="{4D8D83CE-F574-A443-89A9-5FF0DCF29530}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="671" operator="equal" id="{56A786E2-8BEA-3544-80FC-766AF2EECA07}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16075,17 +16123,17 @@
           <xm:sqref>X140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="656" stopIfTrue="1" operator="equal" id="{221975DC-D343-994A-803B-1953118EEA5D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="657" operator="equal" id="{18C5B217-4FBA-8B4C-BCD5-8FA31141B1B1}">
+          <x14:cfRule type="cellIs" priority="668" stopIfTrue="1" operator="equal" id="{221975DC-D343-994A-803B-1953118EEA5D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="669" operator="equal" id="{18C5B217-4FBA-8B4C-BCD5-8FA31141B1B1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16098,17 +16146,17 @@
           <xm:sqref>Y140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="654" stopIfTrue="1" operator="equal" id="{FBB9E2C2-2E7C-8C4B-90EA-F9FDC4279244}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="655" operator="equal" id="{0DF1ABF0-6874-B445-B23D-BC8DC9BF43E8}">
+          <x14:cfRule type="cellIs" priority="666" stopIfTrue="1" operator="equal" id="{FBB9E2C2-2E7C-8C4B-90EA-F9FDC4279244}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="667" operator="equal" id="{0DF1ABF0-6874-B445-B23D-BC8DC9BF43E8}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16121,17 +16169,17 @@
           <xm:sqref>Z140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="652" stopIfTrue="1" operator="equal" id="{8E7F0203-3EF4-8149-B7AB-6CE6FA426FCF}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="653" operator="equal" id="{05202053-C6F3-804A-9818-669EC5A4DA44}">
+          <x14:cfRule type="cellIs" priority="664" stopIfTrue="1" operator="equal" id="{8E7F0203-3EF4-8149-B7AB-6CE6FA426FCF}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="665" operator="equal" id="{05202053-C6F3-804A-9818-669EC5A4DA44}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16144,17 +16192,17 @@
           <xm:sqref>I139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="650" stopIfTrue="1" operator="equal" id="{984AAFE3-28FD-7A48-AC20-C9EFA95B26CC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="651" operator="equal" id="{498A7BBC-D17C-A24D-8939-D51CE129285D}">
+          <x14:cfRule type="cellIs" priority="662" stopIfTrue="1" operator="equal" id="{984AAFE3-28FD-7A48-AC20-C9EFA95B26CC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="663" operator="equal" id="{498A7BBC-D17C-A24D-8939-D51CE129285D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16167,17 +16215,17 @@
           <xm:sqref>K139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="648" stopIfTrue="1" operator="equal" id="{5C15A365-FA03-EB47-9251-3F7281571041}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="649" operator="equal" id="{1155C27E-5376-2243-9327-6A6512701A49}">
+          <x14:cfRule type="cellIs" priority="660" stopIfTrue="1" operator="equal" id="{5C15A365-FA03-EB47-9251-3F7281571041}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="661" operator="equal" id="{1155C27E-5376-2243-9327-6A6512701A49}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16190,17 +16238,17 @@
           <xm:sqref>L139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="646" stopIfTrue="1" operator="equal" id="{E45A6F3B-6868-6241-9329-AB2B5723A4EB}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="647" operator="equal" id="{FCD7FD27-3261-7B4C-A993-7D3E519CD4FD}">
+          <x14:cfRule type="cellIs" priority="658" stopIfTrue="1" operator="equal" id="{E45A6F3B-6868-6241-9329-AB2B5723A4EB}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="659" operator="equal" id="{FCD7FD27-3261-7B4C-A993-7D3E519CD4FD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16213,17 +16261,17 @@
           <xm:sqref>O139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="644" stopIfTrue="1" operator="equal" id="{8E7DA33B-BEAF-D44F-A390-1FBD0FB9F2D1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="645" operator="equal" id="{241FE201-5E0A-3244-A0F2-8FFB3974CD64}">
+          <x14:cfRule type="cellIs" priority="656" stopIfTrue="1" operator="equal" id="{8E7DA33B-BEAF-D44F-A390-1FBD0FB9F2D1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="657" operator="equal" id="{241FE201-5E0A-3244-A0F2-8FFB3974CD64}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16236,17 +16284,17 @@
           <xm:sqref>S139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="642" stopIfTrue="1" operator="equal" id="{2E1981AF-FDF5-AC4F-996B-4737F8FA941C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="643" operator="equal" id="{987E0448-75B0-9B45-BF04-EC773F5AD82B}">
+          <x14:cfRule type="cellIs" priority="654" stopIfTrue="1" operator="equal" id="{2E1981AF-FDF5-AC4F-996B-4737F8FA941C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="655" operator="equal" id="{987E0448-75B0-9B45-BF04-EC773F5AD82B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16259,17 +16307,17 @@
           <xm:sqref>U139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="640" stopIfTrue="1" operator="equal" id="{7626FB23-BB3A-594A-A2B5-D4D4B803BDE0}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="641" operator="equal" id="{3D413AAF-A1F8-FC4C-9ED1-105B1EA137F5}">
+          <x14:cfRule type="cellIs" priority="652" stopIfTrue="1" operator="equal" id="{7626FB23-BB3A-594A-A2B5-D4D4B803BDE0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="653" operator="equal" id="{3D413AAF-A1F8-FC4C-9ED1-105B1EA137F5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16282,17 +16330,17 @@
           <xm:sqref>X139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="638" stopIfTrue="1" operator="equal" id="{15D70CCE-D912-9341-9223-68A53228B780}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="639" operator="equal" id="{4A140F29-852D-F945-8D23-052C65C615D0}">
+          <x14:cfRule type="cellIs" priority="650" stopIfTrue="1" operator="equal" id="{15D70CCE-D912-9341-9223-68A53228B780}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="651" operator="equal" id="{4A140F29-852D-F945-8D23-052C65C615D0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16305,17 +16353,17 @@
           <xm:sqref>Z139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="636" stopIfTrue="1" operator="equal" id="{3A95B9A3-D21B-C94C-B3D8-A7EFDE9195F2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="637" operator="equal" id="{073B0958-6AF2-7C41-9E63-30F5E1ECA1F1}">
+          <x14:cfRule type="cellIs" priority="648" stopIfTrue="1" operator="equal" id="{3A95B9A3-D21B-C94C-B3D8-A7EFDE9195F2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="649" operator="equal" id="{073B0958-6AF2-7C41-9E63-30F5E1ECA1F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16328,17 +16376,17 @@
           <xm:sqref>I144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="634" stopIfTrue="1" operator="equal" id="{01A66FC7-DC1F-A141-A306-CBDDC42AF642}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="635" operator="equal" id="{A348EA3B-1D22-7048-9F6A-D3E0ACCF24AF}">
+          <x14:cfRule type="cellIs" priority="646" stopIfTrue="1" operator="equal" id="{01A66FC7-DC1F-A141-A306-CBDDC42AF642}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="647" operator="equal" id="{A348EA3B-1D22-7048-9F6A-D3E0ACCF24AF}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16351,17 +16399,17 @@
           <xm:sqref>K144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="632" stopIfTrue="1" operator="equal" id="{40FAEC30-B30A-8D43-8009-DDD3DEDFD739}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="633" operator="equal" id="{364744C5-6BA1-D04A-BB8D-5686134FEC8D}">
+          <x14:cfRule type="cellIs" priority="644" stopIfTrue="1" operator="equal" id="{40FAEC30-B30A-8D43-8009-DDD3DEDFD739}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="645" operator="equal" id="{364744C5-6BA1-D04A-BB8D-5686134FEC8D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16374,17 +16422,17 @@
           <xm:sqref>O144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="630" stopIfTrue="1" operator="equal" id="{D2A7337A-0BD8-0343-860C-CCBCD6E5FE84}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="631" operator="equal" id="{FB00D27E-8628-3A43-9464-62BF35AE9E60}">
+          <x14:cfRule type="cellIs" priority="642" stopIfTrue="1" operator="equal" id="{D2A7337A-0BD8-0343-860C-CCBCD6E5FE84}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="643" operator="equal" id="{FB00D27E-8628-3A43-9464-62BF35AE9E60}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16397,17 +16445,17 @@
           <xm:sqref>P144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="628" stopIfTrue="1" operator="equal" id="{3BEC1028-F6E8-E340-B8EC-E23A5FDC6705}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="629" operator="equal" id="{05A9C8F7-DD7A-CE4C-BF64-F04194B8403B}">
+          <x14:cfRule type="cellIs" priority="640" stopIfTrue="1" operator="equal" id="{3BEC1028-F6E8-E340-B8EC-E23A5FDC6705}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="641" operator="equal" id="{05A9C8F7-DD7A-CE4C-BF64-F04194B8403B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16420,17 +16468,17 @@
           <xm:sqref>S144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="626" stopIfTrue="1" operator="equal" id="{90508BC8-DFDF-7F4A-A444-0CAB8231E0AE}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="627" operator="equal" id="{212D98B2-ED32-2A41-941B-87AF812A52C7}">
+          <x14:cfRule type="cellIs" priority="638" stopIfTrue="1" operator="equal" id="{90508BC8-DFDF-7F4A-A444-0CAB8231E0AE}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="639" operator="equal" id="{212D98B2-ED32-2A41-941B-87AF812A52C7}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16443,17 +16491,17 @@
           <xm:sqref>U144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="624" stopIfTrue="1" operator="equal" id="{F0834520-483F-D440-BE14-2226E8978103}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="625" operator="equal" id="{B0B21511-817A-2340-A169-FAFE1FEF483E}">
+          <x14:cfRule type="cellIs" priority="636" stopIfTrue="1" operator="equal" id="{F0834520-483F-D440-BE14-2226E8978103}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="637" operator="equal" id="{B0B21511-817A-2340-A169-FAFE1FEF483E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16466,17 +16514,17 @@
           <xm:sqref>V144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="622" stopIfTrue="1" operator="equal" id="{BD95B31E-072D-7649-AD30-015B1CA55566}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="623" operator="equal" id="{E61AB912-4DBE-8549-93C3-42010B3CAD34}">
+          <x14:cfRule type="cellIs" priority="634" stopIfTrue="1" operator="equal" id="{BD95B31E-072D-7649-AD30-015B1CA55566}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="635" operator="equal" id="{E61AB912-4DBE-8549-93C3-42010B3CAD34}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16489,17 +16537,17 @@
           <xm:sqref>Y144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="620" stopIfTrue="1" operator="equal" id="{9AD1FC55-3ECB-284D-9487-71C4971E00C1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="621" operator="equal" id="{422AC68A-C6E2-354E-869A-8F07AEF4FF22}">
+          <x14:cfRule type="cellIs" priority="632" stopIfTrue="1" operator="equal" id="{9AD1FC55-3ECB-284D-9487-71C4971E00C1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="633" operator="equal" id="{422AC68A-C6E2-354E-869A-8F07AEF4FF22}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16512,17 +16560,17 @@
           <xm:sqref>Z144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="614" stopIfTrue="1" operator="equal" id="{4C917A97-EB4B-ED4A-82D6-3970DDC31602}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="615" operator="equal" id="{23E8EA7D-6D49-4646-816D-E2F732E88B06}">
+          <x14:cfRule type="cellIs" priority="626" stopIfTrue="1" operator="equal" id="{4C917A97-EB4B-ED4A-82D6-3970DDC31602}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="627" operator="equal" id="{23E8EA7D-6D49-4646-816D-E2F732E88B06}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16535,17 +16583,17 @@
           <xm:sqref>G138:H147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="612" stopIfTrue="1" operator="equal" id="{0483F300-E256-FC47-AD97-ECEC8E056228}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="613" operator="equal" id="{B76DAE6E-0463-6641-AD48-77F57568D58B}">
+          <x14:cfRule type="cellIs" priority="624" stopIfTrue="1" operator="equal" id="{0483F300-E256-FC47-AD97-ECEC8E056228}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="625" operator="equal" id="{B76DAE6E-0463-6641-AD48-77F57568D58B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16558,17 +16606,17 @@
           <xm:sqref>Q139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="610" stopIfTrue="1" operator="equal" id="{FD184665-CCCF-6043-B4E9-56262AA1C64F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="611" operator="equal" id="{99608DFA-2631-2F45-92C2-9AD9F5983AE0}">
+          <x14:cfRule type="cellIs" priority="622" stopIfTrue="1" operator="equal" id="{FD184665-CCCF-6043-B4E9-56262AA1C64F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="623" operator="equal" id="{99608DFA-2631-2F45-92C2-9AD9F5983AE0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16581,17 +16629,17 @@
           <xm:sqref>Q145</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="608" stopIfTrue="1" operator="equal" id="{76C20ABA-AF5A-6D40-B65A-74CB2750F72D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="609" operator="equal" id="{226A21B2-9FBA-BF4F-B1B5-675C3F188806}">
+          <x14:cfRule type="cellIs" priority="620" stopIfTrue="1" operator="equal" id="{76C20ABA-AF5A-6D40-B65A-74CB2750F72D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="621" operator="equal" id="{226A21B2-9FBA-BF4F-B1B5-675C3F188806}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16604,17 +16652,17 @@
           <xm:sqref>R144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="606" stopIfTrue="1" operator="equal" id="{58C5315A-CD64-EB40-8B58-D22B86CF5649}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="607" operator="equal" id="{195859E4-9103-1A42-938F-7B7A4B213F3F}">
+          <x14:cfRule type="cellIs" priority="618" stopIfTrue="1" operator="equal" id="{58C5315A-CD64-EB40-8B58-D22B86CF5649}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="619" operator="equal" id="{195859E4-9103-1A42-938F-7B7A4B213F3F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16627,17 +16675,17 @@
           <xm:sqref>N154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="604" stopIfTrue="1" operator="equal" id="{9CE50279-DCAF-4F46-99F5-2E2DDD900070}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="605" operator="equal" id="{F8304A22-D1EC-6341-BF87-CC9EF22BFA35}">
+          <x14:cfRule type="cellIs" priority="616" stopIfTrue="1" operator="equal" id="{9CE50279-DCAF-4F46-99F5-2E2DDD900070}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="617" operator="equal" id="{F8304A22-D1EC-6341-BF87-CC9EF22BFA35}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16650,17 +16698,17 @@
           <xm:sqref>N115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="602" stopIfTrue="1" operator="equal" id="{F87C7F3B-FF11-4842-8638-7D1335687DFF}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="603" operator="equal" id="{0D76F3F2-C77D-2846-AAA9-8DA17EC80608}">
+          <x14:cfRule type="cellIs" priority="614" stopIfTrue="1" operator="equal" id="{F87C7F3B-FF11-4842-8638-7D1335687DFF}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="615" operator="equal" id="{0D76F3F2-C77D-2846-AAA9-8DA17EC80608}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -16673,17 +16721,17 @@
           <xm:sqref>M85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="569" operator="equal" id="{B5F100CA-740E-3248-AFA7-6108CD1B5618}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="572" stopIfTrue="1" operator="equal" id="{D39B1A2E-2570-6347-BBAA-3BD0ABB29D51}">
+          <x14:cfRule type="cellIs" priority="581" operator="equal" id="{B5F100CA-740E-3248-AFA7-6108CD1B5618}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="584" stopIfTrue="1" operator="equal" id="{D39B1A2E-2570-6347-BBAA-3BD0ABB29D51}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16696,17 +16744,17 @@
           <xm:sqref>AA121:AA124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="565" operator="equal" id="{A0ECDCDD-A4A3-5846-A539-EEE3B2BE3435}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="568" stopIfTrue="1" operator="equal" id="{112A46A0-A22D-5D49-9A71-9048643B2AF2}">
+          <x14:cfRule type="cellIs" priority="577" operator="equal" id="{A0ECDCDD-A4A3-5846-A539-EEE3B2BE3435}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="580" stopIfTrue="1" operator="equal" id="{112A46A0-A22D-5D49-9A71-9048643B2AF2}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16719,17 +16767,17 @@
           <xm:sqref>AA118:AA120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="561" operator="equal" id="{95DC4265-D048-FB45-8F46-2E24CEF8004B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="564" stopIfTrue="1" operator="equal" id="{01E5168D-3BF2-8B4D-921E-5EF93200DE11}">
+          <x14:cfRule type="cellIs" priority="573" operator="equal" id="{95DC4265-D048-FB45-8F46-2E24CEF8004B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="576" stopIfTrue="1" operator="equal" id="{01E5168D-3BF2-8B4D-921E-5EF93200DE11}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16742,17 +16790,17 @@
           <xm:sqref>Y118:Y122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="558" operator="equal" id="{BF08D5D0-11D3-1341-B6D2-CD2260124D75}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="560" stopIfTrue="1" operator="equal" id="{DAE19FFA-BF60-6F48-A9C2-C63554BF9C66}">
+          <x14:cfRule type="cellIs" priority="570" operator="equal" id="{BF08D5D0-11D3-1341-B6D2-CD2260124D75}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="572" stopIfTrue="1" operator="equal" id="{DAE19FFA-BF60-6F48-A9C2-C63554BF9C66}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16765,17 +16813,17 @@
           <xm:sqref>Y123:Y124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="550" operator="equal" id="{3E32FC67-9A6C-4949-9A91-EEB553023F05}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="553" stopIfTrue="1" operator="equal" id="{5CBCD9F3-BAB6-7C45-9B0E-AA7C25AB3666}">
+          <x14:cfRule type="cellIs" priority="562" operator="equal" id="{3E32FC67-9A6C-4949-9A91-EEB553023F05}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="565" stopIfTrue="1" operator="equal" id="{5CBCD9F3-BAB6-7C45-9B0E-AA7C25AB3666}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16788,17 +16836,17 @@
           <xm:sqref>Z88:Z93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="546" operator="equal" id="{C0765E8C-E466-494A-B266-CAD865755609}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="549" stopIfTrue="1" operator="equal" id="{510C2C29-BDD9-F540-B3BD-539E80D8075B}">
+          <x14:cfRule type="cellIs" priority="558" operator="equal" id="{C0765E8C-E466-494A-B266-CAD865755609}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="561" stopIfTrue="1" operator="equal" id="{510C2C29-BDD9-F540-B3BD-539E80D8075B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16811,17 +16859,17 @@
           <xm:sqref>AA94:AA99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="542" operator="equal" id="{1C0FF3F8-099E-A74B-B44B-61013D70F15B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="545" stopIfTrue="1" operator="equal" id="{8C4B8EFB-8D13-4F46-A88D-259CC24EAEFD}">
+          <x14:cfRule type="cellIs" priority="554" operator="equal" id="{1C0FF3F8-099E-A74B-B44B-61013D70F15B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="557" stopIfTrue="1" operator="equal" id="{8C4B8EFB-8D13-4F46-A88D-259CC24EAEFD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16834,17 +16882,17 @@
           <xm:sqref>AA101:AA117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="535" operator="equal" id="{661DC988-0BF7-3749-A58F-F8DEBFABB898}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="537" stopIfTrue="1" operator="equal" id="{FEA4BCFD-360C-DE44-BE50-37F86B86F407}">
+          <x14:cfRule type="cellIs" priority="547" operator="equal" id="{661DC988-0BF7-3749-A58F-F8DEBFABB898}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="549" stopIfTrue="1" operator="equal" id="{FEA4BCFD-360C-DE44-BE50-37F86B86F407}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16857,17 +16905,17 @@
           <xm:sqref>Y125:Y131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="531" operator="equal" id="{A68BA7A1-328C-5A40-A6C9-B04CBF594E93}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="534" stopIfTrue="1" operator="equal" id="{D156D8C1-33B8-2C45-ACAA-69FAB8DDA844}">
+          <x14:cfRule type="cellIs" priority="543" operator="equal" id="{A68BA7A1-328C-5A40-A6C9-B04CBF594E93}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="546" stopIfTrue="1" operator="equal" id="{D156D8C1-33B8-2C45-ACAA-69FAB8DDA844}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16880,17 +16928,17 @@
           <xm:sqref>Z125:Z130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="527" operator="equal" id="{D6DA8CC0-C541-5B44-BD5B-9B21A341AACB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="530" stopIfTrue="1" operator="equal" id="{B4A6D78C-5420-F244-8262-472AE09F6368}">
+          <x14:cfRule type="cellIs" priority="539" operator="equal" id="{D6DA8CC0-C541-5B44-BD5B-9B21A341AACB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="542" stopIfTrue="1" operator="equal" id="{B4A6D78C-5420-F244-8262-472AE09F6368}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16903,17 +16951,17 @@
           <xm:sqref>AA125:AA131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="507" operator="equal" id="{C47E6087-7A91-2A4F-80F1-E5FDCAC8D3D6}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="510" stopIfTrue="1" operator="equal" id="{7E76B8EB-189D-684B-AE06-79E6C4A751E0}">
+          <x14:cfRule type="cellIs" priority="519" operator="equal" id="{C47E6087-7A91-2A4F-80F1-E5FDCAC8D3D6}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="522" stopIfTrue="1" operator="equal" id="{7E76B8EB-189D-684B-AE06-79E6C4A751E0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16926,17 +16974,17 @@
           <xm:sqref>P3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="503" operator="equal" id="{9DBFC7D7-413A-464A-92F2-B01B0B628265}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="506" stopIfTrue="1" operator="equal" id="{98DB3B71-055B-1C41-BD5E-346B244B262E}">
+          <x14:cfRule type="cellIs" priority="515" operator="equal" id="{9DBFC7D7-413A-464A-92F2-B01B0B628265}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="518" stopIfTrue="1" operator="equal" id="{98DB3B71-055B-1C41-BD5E-346B244B262E}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16949,17 +16997,17 @@
           <xm:sqref>J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="495" operator="equal" id="{3F4B9CE9-1DD2-504D-A9D4-1958950B7187}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="498" stopIfTrue="1" operator="equal" id="{773771BA-4268-014B-8499-28D2E847DD80}">
+          <x14:cfRule type="cellIs" priority="507" operator="equal" id="{3F4B9CE9-1DD2-504D-A9D4-1958950B7187}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="510" stopIfTrue="1" operator="equal" id="{773771BA-4268-014B-8499-28D2E847DD80}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16972,17 +17020,17 @@
           <xm:sqref>J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="491" operator="equal" id="{705988D1-8C8F-4E4E-96B5-9541B43136C9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="494" stopIfTrue="1" operator="equal" id="{ECA827C8-8AAE-174E-88A0-78263C9EA8A0}">
+          <x14:cfRule type="cellIs" priority="503" operator="equal" id="{705988D1-8C8F-4E4E-96B5-9541B43136C9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="506" stopIfTrue="1" operator="equal" id="{ECA827C8-8AAE-174E-88A0-78263C9EA8A0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -16995,17 +17043,17 @@
           <xm:sqref>K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="487" operator="equal" id="{12C5853B-542D-7D4D-BA27-73C65620A15D}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="490" stopIfTrue="1" operator="equal" id="{689B6242-D50C-6F46-88AD-272C8D26F219}">
+          <x14:cfRule type="cellIs" priority="499" operator="equal" id="{12C5853B-542D-7D4D-BA27-73C65620A15D}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="502" stopIfTrue="1" operator="equal" id="{689B6242-D50C-6F46-88AD-272C8D26F219}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17018,17 +17066,17 @@
           <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="483" operator="equal" id="{8D2974D0-9BD9-C144-817F-4801BFBF11A9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="486" stopIfTrue="1" operator="equal" id="{8702AF39-13F8-4049-83A0-F16B9658AEAB}">
+          <x14:cfRule type="cellIs" priority="495" operator="equal" id="{8D2974D0-9BD9-C144-817F-4801BFBF11A9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="498" stopIfTrue="1" operator="equal" id="{8702AF39-13F8-4049-83A0-F16B9658AEAB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17041,17 +17089,17 @@
           <xm:sqref>J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="479" operator="equal" id="{7DC10360-A12C-B849-BB7E-5AA35E8109B5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="482" stopIfTrue="1" operator="equal" id="{E9A001FD-5304-2D47-9973-DD44C2782B50}">
+          <x14:cfRule type="cellIs" priority="491" operator="equal" id="{7DC10360-A12C-B849-BB7E-5AA35E8109B5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="494" stopIfTrue="1" operator="equal" id="{E9A001FD-5304-2D47-9973-DD44C2782B50}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17064,17 +17112,17 @@
           <xm:sqref>J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="475" operator="equal" id="{0593EB66-A78D-244C-B279-814E22620901}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="478" stopIfTrue="1" operator="equal" id="{9D73447F-4607-0B46-B482-4EFF29FE1D03}">
+          <x14:cfRule type="cellIs" priority="487" operator="equal" id="{0593EB66-A78D-244C-B279-814E22620901}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="490" stopIfTrue="1" operator="equal" id="{9D73447F-4607-0B46-B482-4EFF29FE1D03}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17087,17 +17135,17 @@
           <xm:sqref>J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="471" operator="equal" id="{1B8D078B-F754-124A-A000-08EDDB430166}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="474" stopIfTrue="1" operator="equal" id="{07623138-F9FE-644A-986E-055F128E680C}">
+          <x14:cfRule type="cellIs" priority="483" operator="equal" id="{1B8D078B-F754-124A-A000-08EDDB430166}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="486" stopIfTrue="1" operator="equal" id="{07623138-F9FE-644A-986E-055F128E680C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17110,17 +17158,17 @@
           <xm:sqref>L13:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="467" operator="equal" id="{5C547ED2-B735-034E-8A1E-B936383F2CFB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="470" stopIfTrue="1" operator="equal" id="{ADAE6A4E-5101-E144-8BB9-8A6450680595}">
+          <x14:cfRule type="cellIs" priority="479" operator="equal" id="{5C547ED2-B735-034E-8A1E-B936383F2CFB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="482" stopIfTrue="1" operator="equal" id="{ADAE6A4E-5101-E144-8BB9-8A6450680595}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17133,17 +17181,17 @@
           <xm:sqref>L11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="463" operator="equal" id="{29B104E6-4957-B34A-9E91-E7B2FBE2F166}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="466" stopIfTrue="1" operator="equal" id="{7D633A52-9556-9E45-AA6B-B88017318CD4}">
+          <x14:cfRule type="cellIs" priority="475" operator="equal" id="{29B104E6-4957-B34A-9E91-E7B2FBE2F166}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="478" stopIfTrue="1" operator="equal" id="{7D633A52-9556-9E45-AA6B-B88017318CD4}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17156,17 +17204,17 @@
           <xm:sqref>L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="459" operator="equal" id="{53ADFA02-AD97-5946-B79B-C55091009B8A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="462" stopIfTrue="1" operator="equal" id="{E23A1EF4-2D0D-EE43-A87F-B4DE5D85AADC}">
+          <x14:cfRule type="cellIs" priority="471" operator="equal" id="{53ADFA02-AD97-5946-B79B-C55091009B8A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="474" stopIfTrue="1" operator="equal" id="{E23A1EF4-2D0D-EE43-A87F-B4DE5D85AADC}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17179,17 +17227,17 @@
           <xm:sqref>M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="455" operator="equal" id="{83A08424-DD25-6844-9479-935B9AE301CE}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="458" stopIfTrue="1" operator="equal" id="{AA9110FF-4109-B945-BCF2-E5D99A95CA00}">
+          <x14:cfRule type="cellIs" priority="467" operator="equal" id="{83A08424-DD25-6844-9479-935B9AE301CE}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="470" stopIfTrue="1" operator="equal" id="{AA9110FF-4109-B945-BCF2-E5D99A95CA00}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17202,17 +17250,17 @@
           <xm:sqref>M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="451" operator="equal" id="{035F5013-2C7F-034C-99E6-8E62D85BE962}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="454" stopIfTrue="1" operator="equal" id="{A64F7CBB-396A-AA4E-9FB6-D8F98AA0ADDD}">
+          <x14:cfRule type="cellIs" priority="463" operator="equal" id="{035F5013-2C7F-034C-99E6-8E62D85BE962}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="466" stopIfTrue="1" operator="equal" id="{A64F7CBB-396A-AA4E-9FB6-D8F98AA0ADDD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17225,17 +17273,17 @@
           <xm:sqref>N11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="447" operator="equal" id="{BB1762A0-3C08-C24F-BE4D-F6C15301B28A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="450" stopIfTrue="1" operator="equal" id="{20BB3EFA-2A2E-0B4B-BFE4-566A4B8DEEAB}">
+          <x14:cfRule type="cellIs" priority="459" operator="equal" id="{BB1762A0-3C08-C24F-BE4D-F6C15301B28A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="462" stopIfTrue="1" operator="equal" id="{20BB3EFA-2A2E-0B4B-BFE4-566A4B8DEEAB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17248,17 +17296,17 @@
           <xm:sqref>N15:N16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="443" operator="equal" id="{5B9D3828-F849-C148-82F9-39BA7C309429}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="446" stopIfTrue="1" operator="equal" id="{A0E3F067-0F5A-8C46-9399-32021AC2465C}">
+          <x14:cfRule type="cellIs" priority="455" operator="equal" id="{5B9D3828-F849-C148-82F9-39BA7C309429}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="458" stopIfTrue="1" operator="equal" id="{A0E3F067-0F5A-8C46-9399-32021AC2465C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17271,17 +17319,17 @@
           <xm:sqref>O14:O15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="439" operator="equal" id="{4FB07AC9-EF1D-8148-86F8-098F660F7504}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="442" stopIfTrue="1" operator="equal" id="{76593C95-CE48-5949-9934-55C9ACFDF415}">
+          <x14:cfRule type="cellIs" priority="451" operator="equal" id="{4FB07AC9-EF1D-8148-86F8-098F660F7504}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="454" stopIfTrue="1" operator="equal" id="{76593C95-CE48-5949-9934-55C9ACFDF415}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17294,17 +17342,17 @@
           <xm:sqref>P11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="435" operator="equal" id="{6191D368-ABA8-644C-9351-1A8531DDC49D}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="438" stopIfTrue="1" operator="equal" id="{5605BE01-0957-3548-B91A-D1A1B4862E82}">
+          <x14:cfRule type="cellIs" priority="447" operator="equal" id="{6191D368-ABA8-644C-9351-1A8531DDC49D}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="450" stopIfTrue="1" operator="equal" id="{5605BE01-0957-3548-B91A-D1A1B4862E82}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17317,17 +17365,17 @@
           <xm:sqref>P13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="431" operator="equal" id="{021092B1-E2B2-554C-B40C-7D4372886127}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="434" stopIfTrue="1" operator="equal" id="{38FD1228-7133-4A4B-BF9F-F4B1A470B2CA}">
+          <x14:cfRule type="cellIs" priority="443" operator="equal" id="{021092B1-E2B2-554C-B40C-7D4372886127}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="446" stopIfTrue="1" operator="equal" id="{38FD1228-7133-4A4B-BF9F-F4B1A470B2CA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17340,17 +17388,17 @@
           <xm:sqref>P16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="427" operator="equal" id="{94C0F6EF-9113-3541-8EAF-CB4FFFA00036}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="430" stopIfTrue="1" operator="equal" id="{DA658331-AF2E-DA42-8586-4816CDFA7E8C}">
+          <x14:cfRule type="cellIs" priority="439" operator="equal" id="{94C0F6EF-9113-3541-8EAF-CB4FFFA00036}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="442" stopIfTrue="1" operator="equal" id="{DA658331-AF2E-DA42-8586-4816CDFA7E8C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17363,17 +17411,17 @@
           <xm:sqref>P18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="423" operator="equal" id="{4C8222C7-2CE9-9241-ABCC-0AC30DCF0957}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="426" stopIfTrue="1" operator="equal" id="{23263C80-8972-0D45-86E8-77B8C69E7060}">
+          <x14:cfRule type="cellIs" priority="435" operator="equal" id="{4C8222C7-2CE9-9241-ABCC-0AC30DCF0957}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="438" stopIfTrue="1" operator="equal" id="{23263C80-8972-0D45-86E8-77B8C69E7060}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17386,17 +17434,17 @@
           <xm:sqref>Q14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="419" operator="equal" id="{11982E32-A2E4-A245-BAD6-79AF1418C194}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="422" stopIfTrue="1" operator="equal" id="{1E22BA0F-0864-B74D-B841-F01680AF32CA}">
+          <x14:cfRule type="cellIs" priority="431" operator="equal" id="{11982E32-A2E4-A245-BAD6-79AF1418C194}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="434" stopIfTrue="1" operator="equal" id="{1E22BA0F-0864-B74D-B841-F01680AF32CA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17409,17 +17457,17 @@
           <xm:sqref>Q18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="415" operator="equal" id="{4376CD1A-E3D0-574C-9532-8745F7EFC7D1}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="418" stopIfTrue="1" operator="equal" id="{5743A979-3360-224A-86E2-E0AC8B74B015}">
+          <x14:cfRule type="cellIs" priority="427" operator="equal" id="{4376CD1A-E3D0-574C-9532-8745F7EFC7D1}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="430" stopIfTrue="1" operator="equal" id="{5743A979-3360-224A-86E2-E0AC8B74B015}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17432,17 +17480,17 @@
           <xm:sqref>R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="411" operator="equal" id="{36B92971-831A-9545-9C5E-8D883814E649}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="414" stopIfTrue="1" operator="equal" id="{B2935112-C898-354C-8DAE-59413C69CC12}">
+          <x14:cfRule type="cellIs" priority="423" operator="equal" id="{36B92971-831A-9545-9C5E-8D883814E649}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="426" stopIfTrue="1" operator="equal" id="{B2935112-C898-354C-8DAE-59413C69CC12}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17455,17 +17503,17 @@
           <xm:sqref>S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="407" operator="equal" id="{87E20782-3F41-3A4C-90CF-BC34007EDD3C}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="410" stopIfTrue="1" operator="equal" id="{D4F1F75E-7692-7140-9E94-A736240C5E8D}">
+          <x14:cfRule type="cellIs" priority="419" operator="equal" id="{87E20782-3F41-3A4C-90CF-BC34007EDD3C}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="422" stopIfTrue="1" operator="equal" id="{D4F1F75E-7692-7140-9E94-A736240C5E8D}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17478,17 +17526,17 @@
           <xm:sqref>T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="403" operator="equal" id="{4F782191-59F0-E047-BEBD-80DEA6D01578}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="406" stopIfTrue="1" operator="equal" id="{EA457E94-89C1-A540-BA58-3B72838F3C9A}">
+          <x14:cfRule type="cellIs" priority="415" operator="equal" id="{4F782191-59F0-E047-BEBD-80DEA6D01578}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="418" stopIfTrue="1" operator="equal" id="{EA457E94-89C1-A540-BA58-3B72838F3C9A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17501,17 +17549,17 @@
           <xm:sqref>S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{11204725-7693-2C4E-AB30-66523F2B8DAB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="402" stopIfTrue="1" operator="equal" id="{2BCD0F55-9239-D84E-9788-36DD9EB00486}">
+          <x14:cfRule type="cellIs" priority="411" operator="equal" id="{11204725-7693-2C4E-AB30-66523F2B8DAB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="414" stopIfTrue="1" operator="equal" id="{2BCD0F55-9239-D84E-9788-36DD9EB00486}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17524,17 +17572,17 @@
           <xm:sqref>T16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="395" operator="equal" id="{11DF7C5F-EA6E-4F4C-8FAD-DBBBD6FD46EF}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="398" stopIfTrue="1" operator="equal" id="{D848F5A6-83BD-7C40-A5F8-4C835DD5CE32}">
+          <x14:cfRule type="cellIs" priority="407" operator="equal" id="{11DF7C5F-EA6E-4F4C-8FAD-DBBBD6FD46EF}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="410" stopIfTrue="1" operator="equal" id="{D848F5A6-83BD-7C40-A5F8-4C835DD5CE32}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17547,17 +17595,17 @@
           <xm:sqref>T18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="391" operator="equal" id="{6F02BD75-06C1-324B-AD05-7343CBACE529}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="394" stopIfTrue="1" operator="equal" id="{4042AF4A-B011-0D47-931D-64B07625C6B2}">
+          <x14:cfRule type="cellIs" priority="403" operator="equal" id="{6F02BD75-06C1-324B-AD05-7343CBACE529}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="406" stopIfTrue="1" operator="equal" id="{4042AF4A-B011-0D47-931D-64B07625C6B2}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17570,17 +17618,17 @@
           <xm:sqref>V11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="387" operator="equal" id="{FEB81F53-0214-7742-8C12-278966DECCE9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="390" stopIfTrue="1" operator="equal" id="{C46F86B7-E14A-164A-82ED-A881AA49AB69}">
+          <x14:cfRule type="cellIs" priority="399" operator="equal" id="{FEB81F53-0214-7742-8C12-278966DECCE9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="402" stopIfTrue="1" operator="equal" id="{C46F86B7-E14A-164A-82ED-A881AA49AB69}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17593,17 +17641,17 @@
           <xm:sqref>V13:V14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="383" operator="equal" id="{462B7413-C4ED-AB40-BE13-F68C57FED46B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="386" stopIfTrue="1" operator="equal" id="{83D3FE68-80D4-E54C-9348-75BA8085E8F7}">
+          <x14:cfRule type="cellIs" priority="395" operator="equal" id="{462B7413-C4ED-AB40-BE13-F68C57FED46B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="398" stopIfTrue="1" operator="equal" id="{83D3FE68-80D4-E54C-9348-75BA8085E8F7}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17616,17 +17664,17 @@
           <xm:sqref>V16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="379" operator="equal" id="{E762752A-8FAA-E845-9839-EB0A0C7958E7}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="382" stopIfTrue="1" operator="equal" id="{DBE06208-5AC2-404B-AA88-A329F6352D82}">
+          <x14:cfRule type="cellIs" priority="391" operator="equal" id="{E762752A-8FAA-E845-9839-EB0A0C7958E7}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="394" stopIfTrue="1" operator="equal" id="{DBE06208-5AC2-404B-AA88-A329F6352D82}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17639,17 +17687,17 @@
           <xm:sqref>V18:W18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="375" operator="equal" id="{018B3730-3CFD-F54B-940E-D8BFEBD7D018}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="378" stopIfTrue="1" operator="equal" id="{29F04B9F-4E41-D747-A26B-602EF7AE43F5}">
+          <x14:cfRule type="cellIs" priority="387" operator="equal" id="{018B3730-3CFD-F54B-940E-D8BFEBD7D018}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="390" stopIfTrue="1" operator="equal" id="{29F04B9F-4E41-D747-A26B-602EF7AE43F5}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17662,17 +17710,17 @@
           <xm:sqref>Y13:Y15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="371" operator="equal" id="{AA851307-6013-1842-9879-F1A165176D50}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="374" stopIfTrue="1" operator="equal" id="{14C9216A-CB2E-1E41-8B36-56F56D4830AD}">
+          <x14:cfRule type="cellIs" priority="383" operator="equal" id="{AA851307-6013-1842-9879-F1A165176D50}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="386" stopIfTrue="1" operator="equal" id="{14C9216A-CB2E-1E41-8B36-56F56D4830AD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17685,17 +17733,17 @@
           <xm:sqref>X11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="367" operator="equal" id="{23335A75-4839-4343-924B-06C0AFA0DCCD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="370" stopIfTrue="1" operator="equal" id="{EB8A40F7-A507-5745-8B70-9EB79834D779}">
+          <x14:cfRule type="cellIs" priority="379" operator="equal" id="{23335A75-4839-4343-924B-06C0AFA0DCCD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="382" stopIfTrue="1" operator="equal" id="{EB8A40F7-A507-5745-8B70-9EB79834D779}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17708,17 +17756,17 @@
           <xm:sqref>X16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="363" operator="equal" id="{47DDF984-F8FD-BA4C-95FB-4EE5E10F2B49}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="366" stopIfTrue="1" operator="equal" id="{8885FB1D-27FB-054A-9805-8441FED5D278}">
+          <x14:cfRule type="cellIs" priority="375" operator="equal" id="{47DDF984-F8FD-BA4C-95FB-4EE5E10F2B49}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="378" stopIfTrue="1" operator="equal" id="{8885FB1D-27FB-054A-9805-8441FED5D278}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17731,17 +17779,17 @@
           <xm:sqref>Z14:Z16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="359" operator="equal" id="{AEE8DF95-2839-D24D-AD57-273CB2098A9C}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="362" stopIfTrue="1" operator="equal" id="{4A5CAB4F-771B-3C43-AC67-C5C31DA5207B}">
+          <x14:cfRule type="cellIs" priority="371" operator="equal" id="{AEE8DF95-2839-D24D-AD57-273CB2098A9C}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="374" stopIfTrue="1" operator="equal" id="{4A5CAB4F-771B-3C43-AC67-C5C31DA5207B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17754,17 +17802,17 @@
           <xm:sqref>Z11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="355" operator="equal" id="{64614D6F-9038-D944-9D97-6E4E51C01F6A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="358" stopIfTrue="1" operator="equal" id="{37DD690E-92DA-FA40-97D3-95ACEDF9AF37}">
+          <x14:cfRule type="cellIs" priority="367" operator="equal" id="{64614D6F-9038-D944-9D97-6E4E51C01F6A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="370" stopIfTrue="1" operator="equal" id="{37DD690E-92DA-FA40-97D3-95ACEDF9AF37}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17777,17 +17825,17 @@
           <xm:sqref>AA13:AA15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="351" operator="equal" id="{F4B86C33-D7CA-8147-BB76-795D1FC83E67}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="354" stopIfTrue="1" operator="equal" id="{A8F936DB-623A-5A4F-B5F1-A41755789696}">
+          <x14:cfRule type="cellIs" priority="363" operator="equal" id="{F4B86C33-D7CA-8147-BB76-795D1FC83E67}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="366" stopIfTrue="1" operator="equal" id="{A8F936DB-623A-5A4F-B5F1-A41755789696}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17800,17 +17848,17 @@
           <xm:sqref>Z18:AA18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="347" operator="equal" id="{30C06AA7-244E-F145-BE10-EA7FD19FEE13}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="350" stopIfTrue="1" operator="equal" id="{4EC6894C-E726-6D48-8ABC-973107E923C2}">
+          <x14:cfRule type="cellIs" priority="359" operator="equal" id="{30C06AA7-244E-F145-BE10-EA7FD19FEE13}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="362" stopIfTrue="1" operator="equal" id="{4EC6894C-E726-6D48-8ABC-973107E923C2}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17823,17 +17871,17 @@
           <xm:sqref>L27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="343" operator="equal" id="{4F83E2BB-36BD-AD48-8531-14722E21102A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="346" stopIfTrue="1" operator="equal" id="{B17E13CD-B5EE-C042-9D29-1424CF22DB70}">
+          <x14:cfRule type="cellIs" priority="355" operator="equal" id="{4F83E2BB-36BD-AD48-8531-14722E21102A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="358" stopIfTrue="1" operator="equal" id="{B17E13CD-B5EE-C042-9D29-1424CF22DB70}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17846,17 +17894,17 @@
           <xm:sqref>J28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="339" operator="equal" id="{3B6766C1-E14E-A042-B818-DADE9EDD6BB8}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="342" stopIfTrue="1" operator="equal" id="{DBBE7C76-7C98-5D4C-9027-DE5A1AE2EA88}">
+          <x14:cfRule type="cellIs" priority="351" operator="equal" id="{3B6766C1-E14E-A042-B818-DADE9EDD6BB8}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="354" stopIfTrue="1" operator="equal" id="{DBBE7C76-7C98-5D4C-9027-DE5A1AE2EA88}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17869,17 +17917,17 @@
           <xm:sqref>J32:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="335" operator="equal" id="{B024C09B-93AC-0544-BED7-2B40AAC5BB71}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="338" stopIfTrue="1" operator="equal" id="{6E0EF842-08EF-5F4D-9700-C06C228F6D7B}">
+          <x14:cfRule type="cellIs" priority="347" operator="equal" id="{B024C09B-93AC-0544-BED7-2B40AAC5BB71}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="350" stopIfTrue="1" operator="equal" id="{6E0EF842-08EF-5F4D-9700-C06C228F6D7B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17892,17 +17940,17 @@
           <xm:sqref>R27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="331" operator="equal" id="{9B18374D-37F6-8041-9C12-DFA80B2C3064}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="334" stopIfTrue="1" operator="equal" id="{EA75B4D6-9651-AF4E-B005-FC769A9F4EFD}">
+          <x14:cfRule type="cellIs" priority="343" operator="equal" id="{9B18374D-37F6-8041-9C12-DFA80B2C3064}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="346" stopIfTrue="1" operator="equal" id="{EA75B4D6-9651-AF4E-B005-FC769A9F4EFD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17915,17 +17963,17 @@
           <xm:sqref>S26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="327" operator="equal" id="{66D06A09-CAEF-B14D-9949-E32F936C4A07}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="330" stopIfTrue="1" operator="equal" id="{219CF2B7-CF3E-5F46-9F85-5008208BD59B}">
+          <x14:cfRule type="cellIs" priority="339" operator="equal" id="{66D06A09-CAEF-B14D-9949-E32F936C4A07}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="342" stopIfTrue="1" operator="equal" id="{219CF2B7-CF3E-5F46-9F85-5008208BD59B}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17938,17 +17986,17 @@
           <xm:sqref>Y32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="323" operator="equal" id="{4D8E773A-9558-B34F-A50B-6A4B3C04422F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="326" stopIfTrue="1" operator="equal" id="{FDDF9D7B-6587-C949-88C3-A8BC5E306DFF}">
+          <x14:cfRule type="cellIs" priority="335" operator="equal" id="{4D8E773A-9558-B34F-A50B-6A4B3C04422F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="338" stopIfTrue="1" operator="equal" id="{FDDF9D7B-6587-C949-88C3-A8BC5E306DFF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17961,17 +18009,17 @@
           <xm:sqref>Z37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="319" operator="equal" id="{1A9CF858-253A-FF4C-8806-73A83DBF2A8F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="322" stopIfTrue="1" operator="equal" id="{CE43188E-E1C3-CE43-B3F0-950191FA4952}">
+          <x14:cfRule type="cellIs" priority="331" operator="equal" id="{1A9CF858-253A-FF4C-8806-73A83DBF2A8F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="334" stopIfTrue="1" operator="equal" id="{CE43188E-E1C3-CE43-B3F0-950191FA4952}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -17984,17 +18032,17 @@
           <xm:sqref>X36:X37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="315" operator="equal" id="{C9A8B83D-7C20-E243-9B45-E422F82CE6D0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="318" stopIfTrue="1" operator="equal" id="{E975CCEB-F984-B64B-9B40-100B2B1C8687}">
+          <x14:cfRule type="cellIs" priority="327" operator="equal" id="{C9A8B83D-7C20-E243-9B45-E422F82CE6D0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="330" stopIfTrue="1" operator="equal" id="{E975CCEB-F984-B64B-9B40-100B2B1C8687}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18007,17 +18055,17 @@
           <xm:sqref>V36:W36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="311" operator="equal" id="{ED8AE917-3808-0D48-B1A0-AA9FAF4000FC}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="314" stopIfTrue="1" operator="equal" id="{4D2E825D-78D0-DF48-92A2-CA33C98D0A73}">
+          <x14:cfRule type="cellIs" priority="323" operator="equal" id="{ED8AE917-3808-0D48-B1A0-AA9FAF4000FC}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="326" stopIfTrue="1" operator="equal" id="{4D2E825D-78D0-DF48-92A2-CA33C98D0A73}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18030,17 +18078,17 @@
           <xm:sqref>V37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="307" operator="equal" id="{47FC51AC-A356-5C48-AE5D-C35C3761C79A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="310" stopIfTrue="1" operator="equal" id="{BB59056E-66FC-2944-9DC7-3AC4922D85B7}">
+          <x14:cfRule type="cellIs" priority="319" operator="equal" id="{47FC51AC-A356-5C48-AE5D-C35C3761C79A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="322" stopIfTrue="1" operator="equal" id="{BB59056E-66FC-2944-9DC7-3AC4922D85B7}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18053,17 +18101,17 @@
           <xm:sqref>U41:V41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="303" operator="equal" id="{77990D13-7051-6A49-906B-08C1F0D1D394}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="306" stopIfTrue="1" operator="equal" id="{E83C4054-5069-5A4F-92DD-ECB0A82B01B1}">
+          <x14:cfRule type="cellIs" priority="315" operator="equal" id="{77990D13-7051-6A49-906B-08C1F0D1D394}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="318" stopIfTrue="1" operator="equal" id="{E83C4054-5069-5A4F-92DD-ECB0A82B01B1}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18076,17 +18124,17 @@
           <xm:sqref>R36:S36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="299" operator="equal" id="{E32FA422-A2AD-AA45-8804-EC08990B744A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="302" stopIfTrue="1" operator="equal" id="{3EA97D7E-1E51-E744-A651-43F66383508E}">
+          <x14:cfRule type="cellIs" priority="311" operator="equal" id="{E32FA422-A2AD-AA45-8804-EC08990B744A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="314" stopIfTrue="1" operator="equal" id="{3EA97D7E-1E51-E744-A651-43F66383508E}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18099,17 +18147,17 @@
           <xm:sqref>R37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="295" operator="equal" id="{5C7AD42F-2AEC-2E4E-9FB2-D2A7AB123302}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="298" stopIfTrue="1" operator="equal" id="{4CA4B214-FF6B-934C-AD2C-9889F8160004}">
+          <x14:cfRule type="cellIs" priority="307" operator="equal" id="{5C7AD42F-2AEC-2E4E-9FB2-D2A7AB123302}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="310" stopIfTrue="1" operator="equal" id="{4CA4B214-FF6B-934C-AD2C-9889F8160004}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18122,17 +18170,17 @@
           <xm:sqref>S41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="291" operator="equal" id="{37003AE6-D8D3-4045-B3E1-CA73AEBD1ECD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="294" stopIfTrue="1" operator="equal" id="{ECA83904-BD7C-7E46-B68E-AAE6251313CD}">
+          <x14:cfRule type="cellIs" priority="303" operator="equal" id="{37003AE6-D8D3-4045-B3E1-CA73AEBD1ECD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="306" stopIfTrue="1" operator="equal" id="{ECA83904-BD7C-7E46-B68E-AAE6251313CD}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18145,17 +18193,17 @@
           <xm:sqref>P41:Q41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="287" operator="equal" id="{8BCC2AF1-B66C-E045-AFCD-F2682E269F53}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="290" stopIfTrue="1" operator="equal" id="{C34389CA-4627-8143-970A-08C59C844BDF}">
+          <x14:cfRule type="cellIs" priority="299" operator="equal" id="{8BCC2AF1-B66C-E045-AFCD-F2682E269F53}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="302" stopIfTrue="1" operator="equal" id="{C34389CA-4627-8143-970A-08C59C844BDF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18168,17 +18216,17 @@
           <xm:sqref>P36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="283" operator="equal" id="{3478BC0A-CA3E-1B4C-AE0D-B0DDA41EE597}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="286" stopIfTrue="1" operator="equal" id="{15AE0C6F-1B73-A248-BFDA-81F2C27A4B9A}">
+          <x14:cfRule type="cellIs" priority="295" operator="equal" id="{3478BC0A-CA3E-1B4C-AE0D-B0DDA41EE597}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="298" stopIfTrue="1" operator="equal" id="{15AE0C6F-1B73-A248-BFDA-81F2C27A4B9A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18191,17 +18239,17 @@
           <xm:sqref>O37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="279" operator="equal" id="{CF2CD43C-EF5A-E648-BD83-C9345F138F4F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="282" stopIfTrue="1" operator="equal" id="{79FB7280-7830-C747-A150-7AC6F6B6C4DA}">
+          <x14:cfRule type="cellIs" priority="291" operator="equal" id="{CF2CD43C-EF5A-E648-BD83-C9345F138F4F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="294" stopIfTrue="1" operator="equal" id="{79FB7280-7830-C747-A150-7AC6F6B6C4DA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18214,17 +18262,17 @@
           <xm:sqref>N36:N37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="275" operator="equal" id="{3FB00328-E38F-354E-A3BA-CE6240959721}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="278" stopIfTrue="1" operator="equal" id="{2F1076FC-492D-384E-ADF5-20555403DC04}">
+          <x14:cfRule type="cellIs" priority="287" operator="equal" id="{3FB00328-E38F-354E-A3BA-CE6240959721}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="290" stopIfTrue="1" operator="equal" id="{2F1076FC-492D-384E-ADF5-20555403DC04}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18237,17 +18285,17 @@
           <xm:sqref>K36:L36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{30A58B27-BDBC-1949-B642-6B0300CB9208}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="274" stopIfTrue="1" operator="equal" id="{676FE5CB-7D3C-694C-AABD-862451AEDF6D}">
+          <x14:cfRule type="cellIs" priority="283" operator="equal" id="{30A58B27-BDBC-1949-B642-6B0300CB9208}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="286" stopIfTrue="1" operator="equal" id="{676FE5CB-7D3C-694C-AABD-862451AEDF6D}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18260,17 +18308,17 @@
           <xm:sqref>L37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{4AAB2C5B-0794-1C43-98BB-8D13C2956AE8}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="270" stopIfTrue="1" operator="equal" id="{B22A2EC4-AC3A-F84B-8601-212F548BDEBB}">
+          <x14:cfRule type="cellIs" priority="279" operator="equal" id="{4AAB2C5B-0794-1C43-98BB-8D13C2956AE8}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="282" stopIfTrue="1" operator="equal" id="{B22A2EC4-AC3A-F84B-8601-212F548BDEBB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18283,17 +18331,17 @@
           <xm:sqref>M41:N41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="263" operator="equal" id="{B5300FB9-C17A-2740-AC92-AB577C7C68A0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="266" stopIfTrue="1" operator="equal" id="{1207C40A-2183-A043-8785-84AA7F9AFD43}">
+          <x14:cfRule type="cellIs" priority="275" operator="equal" id="{B5300FB9-C17A-2740-AC92-AB577C7C68A0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="278" stopIfTrue="1" operator="equal" id="{1207C40A-2183-A043-8785-84AA7F9AFD43}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18306,17 +18354,17 @@
           <xm:sqref>J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{EAD9E7E6-03D0-C54B-BFF7-CB5E06B22C77}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="262" stopIfTrue="1" operator="equal" id="{18B97F45-2A80-2C4D-9AF4-E5CA97B55E7A}">
+          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{EAD9E7E6-03D0-C54B-BFF7-CB5E06B22C77}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="274" stopIfTrue="1" operator="equal" id="{18B97F45-2A80-2C4D-9AF4-E5CA97B55E7A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18329,17 +18377,17 @@
           <xm:sqref>K41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="255" operator="equal" id="{1A38CFAB-3AD1-DA49-9BE6-430F7D1C1443}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="258" stopIfTrue="1" operator="equal" id="{7765EF27-CF99-554B-B9AA-B26741D11ADB}">
+          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{1A38CFAB-3AD1-DA49-9BE6-430F7D1C1443}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="270" stopIfTrue="1" operator="equal" id="{7765EF27-CF99-554B-B9AA-B26741D11ADB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18352,17 +18400,17 @@
           <xm:sqref>AA55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{18E56655-E716-4C47-B7A2-A4453DFF7393}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="254" stopIfTrue="1" operator="equal" id="{4B7C0578-0F1D-3346-AF83-03AAAB18B5FF}">
+          <x14:cfRule type="cellIs" priority="263" operator="equal" id="{18E56655-E716-4C47-B7A2-A4453DFF7393}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="266" stopIfTrue="1" operator="equal" id="{4B7C0578-0F1D-3346-AF83-03AAAB18B5FF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18375,17 +18423,17 @@
           <xm:sqref>W55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{AC5F0103-AF55-AD43-971F-E6FEC318006E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="250" stopIfTrue="1" operator="equal" id="{C538A1EE-E7E3-324D-BDE0-9DA0666B17EB}">
+          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{AC5F0103-AF55-AD43-971F-E6FEC318006E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="262" stopIfTrue="1" operator="equal" id="{C538A1EE-E7E3-324D-BDE0-9DA0666B17EB}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18398,17 +18446,17 @@
           <xm:sqref>T55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="243" operator="equal" id="{018AE223-765B-BB44-ADB0-668CEE19DB9D}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="246" stopIfTrue="1" operator="equal" id="{0FD043D0-2976-CD4A-992D-D50B24BB64CA}">
+          <x14:cfRule type="cellIs" priority="255" operator="equal" id="{018AE223-765B-BB44-ADB0-668CEE19DB9D}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="258" stopIfTrue="1" operator="equal" id="{0FD043D0-2976-CD4A-992D-D50B24BB64CA}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18421,17 +18469,17 @@
           <xm:sqref>Q55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{A6BB9E62-5D90-A549-BFAD-6530B8403E10}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="242" stopIfTrue="1" operator="equal" id="{10CFFC4B-55DB-2C4C-903B-E41884064DA4}">
+          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{A6BB9E62-5D90-A549-BFAD-6530B8403E10}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="254" stopIfTrue="1" operator="equal" id="{10CFFC4B-55DB-2C4C-903B-E41884064DA4}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18444,17 +18492,17 @@
           <xm:sqref>P52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{B1607F03-FB76-B746-8C55-EDFB4469D397}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="238" stopIfTrue="1" operator="equal" id="{2DF486F5-8924-C344-9EBF-81EBC362704F}">
+          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{B1607F03-FB76-B746-8C55-EDFB4469D397}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="250" stopIfTrue="1" operator="equal" id="{2DF486F5-8924-C344-9EBF-81EBC362704F}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18467,17 +18515,17 @@
           <xm:sqref>P49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{A6C1DA8E-CD32-7649-B77F-64E8FB1ABBB4}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="234" stopIfTrue="1" operator="equal" id="{6E727F77-6201-8146-83F1-99A4F945D638}">
+          <x14:cfRule type="cellIs" priority="243" operator="equal" id="{A6C1DA8E-CD32-7649-B77F-64E8FB1ABBB4}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="246" stopIfTrue="1" operator="equal" id="{6E727F77-6201-8146-83F1-99A4F945D638}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18490,17 +18538,17 @@
           <xm:sqref>L55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{DF0F2D19-812B-2D4A-B581-1CCC258E1546}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="230" stopIfTrue="1" operator="equal" id="{A8CF374B-0F7A-5847-9BB2-915222BBF55A}">
+          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{DF0F2D19-812B-2D4A-B581-1CCC258E1546}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="242" stopIfTrue="1" operator="equal" id="{A8CF374B-0F7A-5847-9BB2-915222BBF55A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18513,17 +18561,17 @@
           <xm:sqref>J55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{7EFAF514-682E-2C4C-8526-D2726D24E014}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="226" stopIfTrue="1" operator="equal" id="{A77C768A-A0DF-8A42-9DD1-841E575D1AEE}">
+          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{7EFAF514-682E-2C4C-8526-D2726D24E014}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="238" stopIfTrue="1" operator="equal" id="{A77C768A-A0DF-8A42-9DD1-841E575D1AEE}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18536,17 +18584,17 @@
           <xm:sqref>N54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{EAC4890D-18F4-044E-8FD6-E82B0E00A1A3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="222" stopIfTrue="1" operator="equal" id="{FB6CC97B-7D8A-D544-AC08-417B9C895D59}">
+          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{EAC4890D-18F4-044E-8FD6-E82B0E00A1A3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="234" stopIfTrue="1" operator="equal" id="{FB6CC97B-7D8A-D544-AC08-417B9C895D59}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18559,17 +18607,17 @@
           <xm:sqref>N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{480FA449-BE6B-444E-BD68-64D01E9DF2C5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="218" stopIfTrue="1" operator="equal" id="{D7E3C1AD-A29A-B047-AE9B-9CB1F0CBE897}">
+          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{480FA449-BE6B-444E-BD68-64D01E9DF2C5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="230" stopIfTrue="1" operator="equal" id="{D7E3C1AD-A29A-B047-AE9B-9CB1F0CBE897}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18582,17 +18630,17 @@
           <xm:sqref>O55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{B7502251-0916-0547-AE77-94EE0E9F4484}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="214" stopIfTrue="1" operator="equal" id="{686D1E31-83DF-7B44-A74C-CE094A158614}">
+          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{B7502251-0916-0547-AE77-94EE0E9F4484}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="226" stopIfTrue="1" operator="equal" id="{686D1E31-83DF-7B44-A74C-CE094A158614}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18605,17 +18653,17 @@
           <xm:sqref>L66:L67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{36C6E23C-E4A2-8943-80DE-54C905E36D2E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="210" stopIfTrue="1" operator="equal" id="{A47539F2-A063-6B46-9E2C-2728FF602244}">
+          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{36C6E23C-E4A2-8943-80DE-54C905E36D2E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="222" stopIfTrue="1" operator="equal" id="{A47539F2-A063-6B46-9E2C-2728FF602244}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18628,17 +18676,17 @@
           <xm:sqref>O67:P67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{1411A342-7034-7343-9934-92458F8000D5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="206" stopIfTrue="1" operator="equal" id="{EF6FD6D6-9472-8A4A-9ACF-F02C8E7F0908}">
+          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{1411A342-7034-7343-9934-92458F8000D5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="218" stopIfTrue="1" operator="equal" id="{EF6FD6D6-9472-8A4A-9ACF-F02C8E7F0908}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18651,17 +18699,17 @@
           <xm:sqref>L80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{F822B586-042D-7C49-BD70-E5BC74F5DECB}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="202" stopIfTrue="1" operator="equal" id="{605CB2B8-6145-974F-9C1E-1E34C78913BC}">
+          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{F822B586-042D-7C49-BD70-E5BC74F5DECB}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="214" stopIfTrue="1" operator="equal" id="{605CB2B8-6145-974F-9C1E-1E34C78913BC}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18674,17 +18722,17 @@
           <xm:sqref>J82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{F756020A-DBAE-CE47-89FA-060939C20631}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="194" stopIfTrue="1" operator="equal" id="{BF4BAC7A-30EC-4D47-BC9C-92F5D2545435}">
+          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{F756020A-DBAE-CE47-89FA-060939C20631}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="206" stopIfTrue="1" operator="equal" id="{BF4BAC7A-30EC-4D47-BC9C-92F5D2545435}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18697,17 +18745,17 @@
           <xm:sqref>P110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="187" operator="equal" id="{14420188-5DA6-E542-9878-777AAE022BF0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="190" stopIfTrue="1" operator="equal" id="{6AF66108-571F-F145-AF55-842E5BBACE49}">
+          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{14420188-5DA6-E542-9878-777AAE022BF0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="202" stopIfTrue="1" operator="equal" id="{6AF66108-571F-F145-AF55-842E5BBACE49}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18720,17 +18768,17 @@
           <xm:sqref>P117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{81BA8766-B4DC-3041-B5BD-A274AAA713E2}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="186" stopIfTrue="1" operator="equal" id="{09DD80B9-9537-D442-9603-EE188C1AA22A}">
+          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{81BA8766-B4DC-3041-B5BD-A274AAA713E2}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="198" stopIfTrue="1" operator="equal" id="{09DD80B9-9537-D442-9603-EE188C1AA22A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18743,17 +18791,17 @@
           <xm:sqref>L121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{9F73FA1E-443C-CB4B-B28F-5DF85A3B965E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="182" stopIfTrue="1" operator="equal" id="{2307B30C-E6E6-5B40-BBF5-0E4BB6940790}">
+          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{9F73FA1E-443C-CB4B-B28F-5DF85A3B965E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="194" stopIfTrue="1" operator="equal" id="{2307B30C-E6E6-5B40-BBF5-0E4BB6940790}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18766,17 +18814,17 @@
           <xm:sqref>R121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="175" operator="equal" id="{3E4CA7AA-DA6D-544D-8504-79FEBDFF5D99}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="178" stopIfTrue="1" operator="equal" id="{4A7C0803-40C7-4A47-A194-6AB7FA1684B1}">
+          <x14:cfRule type="cellIs" priority="187" operator="equal" id="{3E4CA7AA-DA6D-544D-8504-79FEBDFF5D99}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="190" stopIfTrue="1" operator="equal" id="{4A7C0803-40C7-4A47-A194-6AB7FA1684B1}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18789,17 +18837,17 @@
           <xm:sqref>S120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{8036F642-5657-3344-9523-A2AFC23DEBD8}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="174" stopIfTrue="1" operator="equal" id="{166C56D1-4471-D940-B078-E457515415A0}">
+          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{8036F642-5657-3344-9523-A2AFC23DEBD8}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="186" stopIfTrue="1" operator="equal" id="{166C56D1-4471-D940-B078-E457515415A0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18812,17 +18860,17 @@
           <xm:sqref>Z124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{C7551666-052B-7744-8417-47EE360A3AAA}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="170" stopIfTrue="1" operator="equal" id="{52E8E654-92C9-BB4F-9B28-4AC86440E8D7}">
+          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{C7551666-052B-7744-8417-47EE360A3AAA}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="182" stopIfTrue="1" operator="equal" id="{52E8E654-92C9-BB4F-9B28-4AC86440E8D7}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18835,17 +18883,17 @@
           <xm:sqref>Z131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{20B28410-0C83-284F-B2F6-FD0FAE5E0D3F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="166" stopIfTrue="1" operator="equal" id="{5947969B-E243-B04F-B642-63E8556F1297}">
+          <x14:cfRule type="cellIs" priority="175" operator="equal" id="{20B28410-0C83-284F-B2F6-FD0FAE5E0D3F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="178" stopIfTrue="1" operator="equal" id="{5947969B-E243-B04F-B642-63E8556F1297}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18858,17 +18906,17 @@
           <xm:sqref>Z120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{71BE1141-AEEF-6C41-876A-B43340BD65B9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="162" stopIfTrue="1" operator="equal" id="{44054386-93A7-0043-899D-C840BEA3D376}">
+          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{71BE1141-AEEF-6C41-876A-B43340BD65B9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="174" stopIfTrue="1" operator="equal" id="{44054386-93A7-0043-899D-C840BEA3D376}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18881,17 +18929,17 @@
           <xm:sqref>Z118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{B3FDC315-708D-EA44-A4FB-620203E04C9F}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="158" stopIfTrue="1" operator="equal" id="{0D152E38-FDB7-FD40-9EEB-FFE4F31FBB04}">
+          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{B3FDC315-708D-EA44-A4FB-620203E04C9F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="170" stopIfTrue="1" operator="equal" id="{0D152E38-FDB7-FD40-9EEB-FFE4F31FBB04}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18904,17 +18952,17 @@
           <xm:sqref>Z117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{C6ACCAE0-90C7-CA4B-9D26-554B9BF66704}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="154" stopIfTrue="1" operator="equal" id="{400895A0-E339-6743-9689-7DEA24BDB451}">
+          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{C6ACCAE0-90C7-CA4B-9D26-554B9BF66704}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="166" stopIfTrue="1" operator="equal" id="{400895A0-E339-6743-9689-7DEA24BDB451}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18927,17 +18975,17 @@
           <xm:sqref>Z113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{73A77E6C-388C-3E48-A1CB-4B166E67D88E}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="150" stopIfTrue="1" operator="equal" id="{336CDAFD-F542-4448-B70B-066091646724}">
+          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{73A77E6C-388C-3E48-A1CB-4B166E67D88E}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="162" stopIfTrue="1" operator="equal" id="{336CDAFD-F542-4448-B70B-066091646724}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18950,17 +18998,17 @@
           <xm:sqref>AA100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{C514B965-D1BF-8847-AAD7-BF98BF75C34B}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="146" stopIfTrue="1" operator="equal" id="{2E2CB82C-A77E-D04E-8717-B53B0641F3E0}">
+          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{C514B965-D1BF-8847-AAD7-BF98BF75C34B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="158" stopIfTrue="1" operator="equal" id="{2E2CB82C-A77E-D04E-8717-B53B0641F3E0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18973,17 +19021,17 @@
           <xm:sqref>Z72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{E0B043C4-C998-0741-BF87-FD8CA65D8847}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="142" stopIfTrue="1" operator="equal" id="{0074109D-F97C-B84C-9F88-D19EE8661A35}">
+          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{E0B043C4-C998-0741-BF87-FD8CA65D8847}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="154" stopIfTrue="1" operator="equal" id="{0074109D-F97C-B84C-9F88-D19EE8661A35}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -18996,17 +19044,17 @@
           <xm:sqref>W77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{E1FC485D-3E28-2649-AE96-6535BF570C96}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="134" stopIfTrue="1" operator="equal" id="{048D750C-D68E-CE41-B123-C95091368226}">
+          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{E1FC485D-3E28-2649-AE96-6535BF570C96}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="146" stopIfTrue="1" operator="equal" id="{048D750C-D68E-CE41-B123-C95091368226}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19019,17 +19067,17 @@
           <xm:sqref>Q74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{90ED778A-1019-D243-8A1F-979964C4AC86}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" stopIfTrue="1" operator="equal" id="{1874274F-776E-4444-B292-ECB6BC8DCBE0}">
+          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{90ED778A-1019-D243-8A1F-979964C4AC86}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="142" stopIfTrue="1" operator="equal" id="{1874274F-776E-4444-B292-ECB6BC8DCBE0}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19042,17 +19090,17 @@
           <xm:sqref>O93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{5530637B-E9F4-5E4D-B7DD-E82EB9C78437}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{71A336ED-6739-3A4C-B0AD-B2CF7D2897B5}">
+          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{5530637B-E9F4-5E4D-B7DD-E82EB9C78437}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="130" stopIfTrue="1" operator="equal" id="{71A336ED-6739-3A4C-B0AD-B2CF7D2897B5}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19065,17 +19113,17 @@
           <xm:sqref>I2:I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{8CE40E9E-082F-FC47-9E6B-8AD5E5B41610}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{2633E424-2DB7-2545-8FEA-620EC5EEB16A}">
+          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{8CE40E9E-082F-FC47-9E6B-8AD5E5B41610}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="126" stopIfTrue="1" operator="equal" id="{2633E424-2DB7-2545-8FEA-620EC5EEB16A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19088,17 +19136,17 @@
           <xm:sqref>I15:I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{0B4A02A7-F121-424C-996F-4BCDEE5E2377}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="110" stopIfTrue="1" operator="equal" id="{FD0D568C-3696-2747-B1D2-44E8188F14B8}">
+          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{0B4A02A7-F121-424C-996F-4BCDEE5E2377}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="122" stopIfTrue="1" operator="equal" id="{FD0D568C-3696-2747-B1D2-44E8188F14B8}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19111,17 +19159,17 @@
           <xm:sqref>I20:I131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{D9B38C3B-96CC-B746-81ED-CEB4D34BA2D5}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal" id="{D61980B2-999D-E64F-8E77-6B516E9D9643}">
+          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{D9B38C3B-96CC-B746-81ED-CEB4D34BA2D5}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal" id="{D61980B2-999D-E64F-8E77-6B516E9D9643}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19134,17 +19182,17 @@
           <xm:sqref>Z68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{9C084209-6BBD-8F44-A9C0-AA146963DD01}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" stopIfTrue="1" operator="equal" id="{EB3AC6D8-66FC-4D45-977F-F9CCDA5AA863}">
+          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{9C084209-6BBD-8F44-A9C0-AA146963DD01}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="114" stopIfTrue="1" operator="equal" id="{EB3AC6D8-66FC-4D45-977F-F9CCDA5AA863}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19157,17 +19205,17 @@
           <xm:sqref>Z69:Z71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{3A10919A-65CD-354D-A7C6-D32B8194CA62}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="98" stopIfTrue="1" operator="equal" id="{BA20EB41-AE32-4147-B296-3257B501C643}">
+          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{3A10919A-65CD-354D-A7C6-D32B8194CA62}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="110" stopIfTrue="1" operator="equal" id="{BA20EB41-AE32-4147-B296-3257B501C643}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19180,17 +19228,17 @@
           <xm:sqref>Z73:Z86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{4A3C07B8-9D89-7144-9D6E-0E9D176C27D3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" stopIfTrue="1" operator="equal" id="{D177B21B-DDE6-1046-945B-AB765BD60E3A}">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{4A3C07B8-9D89-7144-9D6E-0E9D176C27D3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal" id="{D177B21B-DDE6-1046-945B-AB765BD60E3A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19203,17 +19251,17 @@
           <xm:sqref>Z33:Z36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{D0A2B503-8D11-6A4C-B908-AE3736BFC795}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{D8C841BD-4BDE-6F45-BCF2-39C6B3CAEB74}">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{D0A2B503-8D11-6A4C-B908-AE3736BFC795}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal" id="{D8C841BD-4BDE-6F45-BCF2-39C6B3CAEB74}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19226,17 +19274,17 @@
           <xm:sqref>Z38:Z49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{3AF7E628-CC30-5E44-B561-34C682954AA6}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{F5A8953B-CC4A-A340-BF56-A0D423205399}">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{3AF7E628-CC30-5E44-B561-34C682954AA6}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="78" stopIfTrue="1" operator="equal" id="{F5A8953B-CC4A-A340-BF56-A0D423205399}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19249,17 +19297,17 @@
           <xm:sqref>Z51:Z65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{9B349F8C-DD46-F04A-95DA-E4E0E5697989}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{9941D726-3B8A-B446-9B73-D3179E0A1109}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{9B349F8C-DD46-F04A-95DA-E4E0E5697989}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal" id="{9941D726-3B8A-B446-9B73-D3179E0A1109}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19272,17 +19320,17 @@
           <xm:sqref>Z119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{C671D90E-15E2-D349-8A0B-82D25F006B1C}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{BB7DAB51-226B-1246-9C6E-6A3F723AE0FF}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{C671D90E-15E2-D349-8A0B-82D25F006B1C}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="66" stopIfTrue="1" operator="equal" id="{BB7DAB51-226B-1246-9C6E-6A3F723AE0FF}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19295,17 +19343,17 @@
           <xm:sqref>Z22 Z24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{47B3E24B-0862-7942-B4B7-6E96156B236A}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{4AEA8B2C-A193-264B-8AD1-E6ECA33F8A68}">
+          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{47B3E24B-0862-7942-B4B7-6E96156B236A}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="62" stopIfTrue="1" operator="equal" id="{4AEA8B2C-A193-264B-8AD1-E6ECA33F8A68}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19318,17 +19366,17 @@
           <xm:sqref>Z26:Z31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{89A3D46B-8BD6-6E4D-876C-81EC4B8F66E9}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{599718FD-3E08-2B49-A5D3-6AA094896C08}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{89A3D46B-8BD6-6E4D-876C-81EC4B8F66E9}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal" id="{599718FD-3E08-2B49-A5D3-6AA094896C08}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19341,17 +19389,17 @@
           <xm:sqref>M22 M24:M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{055AFA6D-2AE2-8744-88EF-94E6C666A2FA}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{4C363513-1152-5A46-9AA5-97A0D631E162}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{055AFA6D-2AE2-8744-88EF-94E6C666A2FA}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="54" stopIfTrue="1" operator="equal" id="{4C363513-1152-5A46-9AA5-97A0D631E162}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19364,17 +19412,17 @@
           <xm:sqref>Z94:Z112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{600F5777-2D38-7A4B-9EC7-0B3234B9A1BD}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{8029DB3D-5BEA-1A46-BEC9-C03ACAF6C006}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{600F5777-2D38-7A4B-9EC7-0B3234B9A1BD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="50" stopIfTrue="1" operator="equal" id="{8029DB3D-5BEA-1A46-BEC9-C03ACAF6C006}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19387,17 +19435,17 @@
           <xm:sqref>Z114:Z116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{6E837B0B-94EA-984A-8371-3D630ACC3399}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{76DCC2E7-D884-9949-8E90-B32590BF7F35}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{6E837B0B-94EA-984A-8371-3D630ACC3399}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal" id="{76DCC2E7-D884-9949-8E90-B32590BF7F35}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19410,17 +19458,17 @@
           <xm:sqref>M94:M117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{2EDA04E2-BE95-684B-8A3E-E08C837D6CB7}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" stopIfTrue="1" operator="equal" id="{4D604F86-3212-7142-9D14-0B229D34A01C}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{2EDA04E2-BE95-684B-8A3E-E08C837D6CB7}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="42" stopIfTrue="1" operator="equal" id="{4D604F86-3212-7142-9D14-0B229D34A01C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19433,17 +19481,17 @@
           <xm:sqref>M119:M129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{77DC7A7D-54B2-8D45-B02B-5028FA3FB054}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" stopIfTrue="1" operator="equal" id="{90883195-4EA2-2C41-A299-BCFD1720514C}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{77DC7A7D-54B2-8D45-B02B-5028FA3FB054}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" stopIfTrue="1" operator="equal" id="{90883195-4EA2-2C41-A299-BCFD1720514C}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19456,40 +19504,40 @@
           <xm:sqref>M131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{1219022D-5411-EB4A-8413-C61EA98BF9E4}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{0EF3E53A-7ECF-EE45-BE97-CFC672ED25CC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J94:J131</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{58D8061C-4112-444A-8B4C-84EF9B4F56B3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal" id="{EC1A53CA-8FD3-2E46-947C-BE2C8F6D819A}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{1219022D-5411-EB4A-8413-C61EA98BF9E4}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal" id="{0EF3E53A-7ECF-EE45-BE97-CFC672ED25CC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J94:J101 J106 J109:J131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{58D8061C-4112-444A-8B4C-84EF9B4F56B3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal" id="{EC1A53CA-8FD3-2E46-947C-BE2C8F6D819A}">
             <xm:f>contraints!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -19502,17 +19550,17 @@
           <xm:sqref>Z23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{3E175472-B7F6-BE42-A226-8BAB6897E60E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{30A72E1B-43FD-1540-8037-DF61930064A9}">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{3E175472-B7F6-BE42-A226-8BAB6897E60E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{30A72E1B-43FD-1540-8037-DF61930064A9}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -19523,6 +19571,75 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>M23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{DCCBB010-80DB-1041-B839-42D41E6FDE16}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{6330342A-3047-E94D-A79E-D231B2D6C812}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J102:J103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{5E10EFD6-E01C-F34C-8CC8-976697FB6ED3}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{291ED827-2EAC-8741-9BBD-E73BA97EB505}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J104:J105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{55747D39-0F21-2E4E-BA9C-A0C808CBE0C0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{4B9E426A-2D71-5747-B932-4F9B81C468E8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J107:J108</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -19538,7 +19655,7 @@
           <x14:formula1>
             <xm:f>contraints!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y118:Y131 M94:M117 AA94:AA131 M122:M129 Z88:Z131 P3 I2:I12 L13:L16 J13 K14:K15 J15:J16 J18 L11 L18 M13 M15:O15 N11 N16 O14 P11 P13 P16 P18:Q18 Q14 R16 S14 T13 S11 T16 T18 V11 V13:V14 V16 V18:W18 Y13:Y15 X11 X16 Z14:Z16 Z11 AA13:AA15 Z18:AA18 L27:M27 I28:J28 I32:M32 R27 S26 Y32 X36:X37 V36:W36 V37 U41:V41 R36:S36 R37 S41 P41:Q41 P36 N37:O37 N36 K36:L36 L37 M41:N41 I37:J37 K41 Z55:AA55 W55 T55 Q55 P52 P49 L55 I55:J55 N54:N55 O55 L66:L67 O67:P67 L80 I82:J82 Q74 P110 P117 L121:M121 R121 S120 W77 O93 I15:I17 J11 I20:I27 I29:I31 I33:I36 I38:I54 I56:I81 I83:I131 M28:M30 Z68:Z86 Z56:Z65 Z33:Z49 Z51:Z54 Z26:Z31 J94:J131 M119:M120 M131 Z22:Z24 M22 M24:M26</xm:sqref>
+          <xm:sqref>Y118:Y131 M94:M117 AA94:AA131 M122:M129 Z88:Z131 P3 I2:I12 L13:L16 J13 K14:K15 J15:J16 J18 L11 L18 M13 M15:O15 N11 N16 O14 P11 P13 P16 P18:Q18 Q14 R16 S14 T13 S11 T16 T18 V11 V13:V14 V16 V18:W18 Y13:Y15 X11 X16 Z14:Z16 Z11 AA13:AA15 Z18:AA18 L27:M27 I28:J28 I32:M32 R27 S26 Y32 X36:X37 V36:W36 V37 U41:V41 R36:S36 R37 S41 P41:Q41 P36 N37:O37 N36 K36:L36 L37 M41:N41 I37:J37 K41 Z55:AA55 W55 T55 Q55 P52 P49 L55 I55:J55 N54:N55 O55 L66:L67 O67:P67 L80 I82:J82 Q74 P110 P117 L121:M121 R121 S120 W77 O93 I15:I17 J11 I20:I27 I29:I31 I33:I36 I38:I54 I56:I81 I83:I131 M28:M30 Z68:Z86 Z56:Z65 Z33:Z49 Z51:Z54 Z26:Z31 M24:M26 M119:M120 M131 Z22:Z24 M22 J94:J131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19596,13 +19713,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -19617,13 +19734,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -19638,15 +19755,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4C5DB-467F-E54E-B99C-779E04B822C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB5564A-5C34-C04D-AAAA-B5A0CF508262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="425">
   <si>
     <t>Division</t>
   </si>
@@ -1898,7 +1898,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="709">
+  <dxfs count="713">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7181,12 +7209,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H94" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="J118" sqref="J118:J131"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A1:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11428,7 +11456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>290</v>
       </c>
@@ -11455,9 +11483,6 @@
       </c>
       <c r="I94" t="s">
         <v>408</v>
-      </c>
-      <c r="J94" t="s">
-        <v>423</v>
       </c>
       <c r="M94" t="s">
         <v>423</v>
@@ -11481,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>290</v>
       </c>
@@ -11508,9 +11533,6 @@
       </c>
       <c r="I95" t="s">
         <v>408</v>
-      </c>
-      <c r="J95" t="s">
-        <v>423</v>
       </c>
       <c r="M95" t="s">
         <v>423</v>
@@ -11534,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -11561,9 +11583,6 @@
       </c>
       <c r="I96" t="s">
         <v>408</v>
-      </c>
-      <c r="J96" t="s">
-        <v>423</v>
       </c>
       <c r="M96" t="s">
         <v>423</v>
@@ -11587,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>290</v>
       </c>
@@ -11614,9 +11633,6 @@
       </c>
       <c r="I97" t="s">
         <v>408</v>
-      </c>
-      <c r="J97" t="s">
-        <v>423</v>
       </c>
       <c r="M97" t="s">
         <v>423</v>
@@ -11640,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -11667,9 +11683,6 @@
       </c>
       <c r="I98" t="s">
         <v>408</v>
-      </c>
-      <c r="J98" t="s">
-        <v>423</v>
       </c>
       <c r="M98" t="s">
         <v>423</v>
@@ -11693,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>290</v>
       </c>
@@ -11720,9 +11733,6 @@
       </c>
       <c r="I99" t="s">
         <v>408</v>
-      </c>
-      <c r="J99" t="s">
-        <v>423</v>
       </c>
       <c r="M99" t="s">
         <v>423</v>
@@ -11746,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -11773,9 +11783,6 @@
       </c>
       <c r="I100" t="s">
         <v>408</v>
-      </c>
-      <c r="J100" t="s">
-        <v>423</v>
       </c>
       <c r="M100" t="s">
         <v>423</v>
@@ -11799,7 +11806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -11826,9 +11833,6 @@
       </c>
       <c r="I101" t="s">
         <v>408</v>
-      </c>
-      <c r="J101" t="s">
-        <v>423</v>
       </c>
       <c r="M101" t="s">
         <v>423</v>
@@ -11852,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>306</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>306</v>
       </c>
@@ -11993,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>306</v>
       </c>
@@ -12043,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>306</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>306</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -12196,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>318</v>
       </c>
@@ -12299,7 +12303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>318</v>
       </c>
@@ -12346,7 +12350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>318</v>
       </c>
@@ -12393,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>318</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>318</v>
       </c>
@@ -12487,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>318</v>
       </c>
@@ -12537,7 +12541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>318</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>318</v>
       </c>
@@ -13358,1269 +13362,1242 @@
   <autoFilter ref="A1:AA131" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
+        <filter val="CCA Junior League 4 North"/>
+        <filter val="CCA Junior League 4 South"/>
+        <filter val="CCA Junior League 4 West"/>
         <filter val="CCA Junior League 5 North"/>
         <filter val="CCA Junior League 5 South"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="Z121:Z123">
-    <cfRule type="containsText" dxfId="708" priority="998" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="712" priority="998" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z123 Y123:Y131">
-    <cfRule type="containsText" dxfId="707" priority="611" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="711" priority="611" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="706" priority="583" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="710" priority="583" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="705" priority="582" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="709" priority="582" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="704" priority="579" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="708" priority="579" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="703" priority="578" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="707" priority="578" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="702" priority="575" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="706" priority="575" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="701" priority="574" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="705" priority="574" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y123:Y124">
-    <cfRule type="containsText" dxfId="700" priority="571" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="704" priority="571" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="699" priority="564" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="703" priority="564" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="698" priority="563" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="702" priority="563" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="697" priority="560" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="701" priority="560" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="696" priority="559" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="700" priority="559" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="695" priority="556" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="699" priority="556" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="694" priority="555" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="698" priority="555" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y125:Y131">
-    <cfRule type="containsText" dxfId="693" priority="548" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="697" priority="548" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="692" priority="545" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="696" priority="545" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="691" priority="544" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="695" priority="544" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="690" priority="541" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="694" priority="541" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="689" priority="540" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="693" priority="540" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="688" priority="521" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="692" priority="521" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="687" priority="520" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="691" priority="520" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="686" priority="517" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="690" priority="517" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="685" priority="516" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="689" priority="516" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="684" priority="509" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="688" priority="509" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="683" priority="508" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="687" priority="508" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="682" priority="505" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="686" priority="505" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="681" priority="504" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="685" priority="504" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="680" priority="501" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="684" priority="501" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="679" priority="500" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="683" priority="500" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="678" priority="497" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="682" priority="497" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="677" priority="496" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="681" priority="496" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="676" priority="493" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="680" priority="493" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="675" priority="492" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="679" priority="492" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="674" priority="489" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="678" priority="489" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="673" priority="488" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="677" priority="488" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="672" priority="485" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="676" priority="485" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="671" priority="484" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="675" priority="484" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="670" priority="481" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="674" priority="481" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="669" priority="480" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="673" priority="480" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="668" priority="477" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="672" priority="477" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="667" priority="476" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="671" priority="476" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="666" priority="473" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="670" priority="473" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="665" priority="472" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="669" priority="472" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="664" priority="469" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="668" priority="469" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="663" priority="468" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="667" priority="468" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="662" priority="465" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="666" priority="465" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="661" priority="464" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="665" priority="464" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="660" priority="461" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="664" priority="461" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="659" priority="460" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="663" priority="460" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="658" priority="457" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="662" priority="457" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="657" priority="456" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="661" priority="456" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="656" priority="453" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="660" priority="453" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="655" priority="452" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="659" priority="452" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="654" priority="449" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="658" priority="449" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="653" priority="448" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="657" priority="448" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="652" priority="445" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="656" priority="445" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="651" priority="444" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="655" priority="444" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="650" priority="441" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="654" priority="441" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="649" priority="440" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="653" priority="440" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="648" priority="437" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="652" priority="437" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="647" priority="436" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="651" priority="436" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="646" priority="433" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="650" priority="433" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="645" priority="432" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="649" priority="432" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="644" priority="429" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="648" priority="429" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="643" priority="428" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="647" priority="428" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="642" priority="425" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="646" priority="425" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="641" priority="424" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="645" priority="424" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="640" priority="421" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="644" priority="421" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="639" priority="420" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="643" priority="420" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="638" priority="417" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="642" priority="417" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="637" priority="416" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="641" priority="416" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="636" priority="413" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="640" priority="413" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="635" priority="412" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="639" priority="412" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="634" priority="409" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="638" priority="409" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="633" priority="408" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="637" priority="408" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="632" priority="405" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="636" priority="405" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="631" priority="404" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="635" priority="404" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="630" priority="401" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="634" priority="401" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="629" priority="400" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="633" priority="400" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="628" priority="397" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="632" priority="397" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="627" priority="396" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="631" priority="396" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="626" priority="393" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="630" priority="393" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="625" priority="392" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="629" priority="392" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="624" priority="389" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="628" priority="389" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="623" priority="388" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="627" priority="388" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="622" priority="385" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="626" priority="385" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="621" priority="384" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="625" priority="384" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="620" priority="381" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="624" priority="381" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="619" priority="380" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="623" priority="380" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="618" priority="377" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="622" priority="377" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="617" priority="376" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="621" priority="376" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="616" priority="373" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="620" priority="373" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="615" priority="372" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="619" priority="372" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="614" priority="369" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="618" priority="369" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="613" priority="368" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="617" priority="368" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="612" priority="365" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="616" priority="365" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="611" priority="364" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="615" priority="364" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="610" priority="361" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="614" priority="361" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="609" priority="360" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="613" priority="360" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="608" priority="357" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="612" priority="357" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="607" priority="356" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="611" priority="356" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="606" priority="353" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="610" priority="353" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="605" priority="352" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="609" priority="352" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="604" priority="349" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="608" priority="349" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="603" priority="348" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="607" priority="348" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="602" priority="345" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="606" priority="345" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="601" priority="344" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="605" priority="344" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="600" priority="341" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="604" priority="341" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="599" priority="340" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="603" priority="340" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="598" priority="337" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="602" priority="337" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="597" priority="336" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="601" priority="336" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="596" priority="333" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="600" priority="333" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="595" priority="332" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="599" priority="332" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="594" priority="329" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="598" priority="329" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="593" priority="328" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="597" priority="328" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="592" priority="325" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="596" priority="325" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="591" priority="324" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="595" priority="324" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="590" priority="321" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="594" priority="321" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="589" priority="320" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="593" priority="320" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="588" priority="317" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="592" priority="317" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="587" priority="316" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="591" priority="316" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="586" priority="313" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="590" priority="313" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="585" priority="312" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="589" priority="312" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="584" priority="309" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="588" priority="309" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="583" priority="308" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="587" priority="308" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="582" priority="305" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="586" priority="305" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="581" priority="304" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="585" priority="304" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="580" priority="301" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="584" priority="301" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="579" priority="300" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="583" priority="300" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="578" priority="297" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="582" priority="297" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="577" priority="296" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="581" priority="296" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="576" priority="293" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="580" priority="293" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="575" priority="292" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="579" priority="292" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="574" priority="289" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="578" priority="289" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="573" priority="288" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="577" priority="288" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="572" priority="285" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="576" priority="285" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="571" priority="284" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="575" priority="284" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="570" priority="281" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="574" priority="281" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="569" priority="280" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="573" priority="280" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="568" priority="277" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="572" priority="277" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="567" priority="276" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="571" priority="276" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="566" priority="273" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="570" priority="273" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="565" priority="272" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="569" priority="272" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="564" priority="269" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="568" priority="269" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="563" priority="268" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="567" priority="268" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="562" priority="265" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="566" priority="265" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="561" priority="264" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="565" priority="264" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="560" priority="261" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="564" priority="261" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="559" priority="260" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="563" priority="260" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="558" priority="257" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="562" priority="257" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="557" priority="256" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="561" priority="256" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="556" priority="253" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="560" priority="253" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="555" priority="252" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="559" priority="252" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="554" priority="249" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="558" priority="249" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="553" priority="248" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="557" priority="248" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="552" priority="245" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="556" priority="245" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="551" priority="244" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="555" priority="244" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="550" priority="241" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="554" priority="241" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="549" priority="240" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="553" priority="240" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="548" priority="237" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="552" priority="237" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="547" priority="236" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="551" priority="236" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="546" priority="233" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="550" priority="233" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="545" priority="232" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="549" priority="232" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="544" priority="229" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="548" priority="229" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="543" priority="228" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="547" priority="228" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="542" priority="225" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="546" priority="225" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="541" priority="224" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="545" priority="224" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="540" priority="221" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="544" priority="221" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="539" priority="220" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="543" priority="220" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="538" priority="217" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="542" priority="217" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="537" priority="216" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="541" priority="216" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="536" priority="213" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="540" priority="213" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="535" priority="212" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="539" priority="212" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="534" priority="205" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="538" priority="205" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="533" priority="204" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="537" priority="204" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="532" priority="201" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="536" priority="201" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="531" priority="200" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="535" priority="200" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="530" priority="197" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="534" priority="197" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="529" priority="196" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="533" priority="196" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="528" priority="193" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="532" priority="193" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="527" priority="192" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="531" priority="192" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="526" priority="189" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="530" priority="189" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="525" priority="188" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="529" priority="188" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="524" priority="185" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="528" priority="185" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="523" priority="184" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="527" priority="184" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="522" priority="181" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="526" priority="181" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="521" priority="180" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="525" priority="180" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="520" priority="177" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="524" priority="177" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="519" priority="176" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="523" priority="176" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="518" priority="173" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="522" priority="173" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="517" priority="172" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="521" priority="172" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="516" priority="169" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="520" priority="169" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="515" priority="168" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="519" priority="168" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="514" priority="165" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="518" priority="165" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="513" priority="164" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="517" priority="164" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="512" priority="161" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="516" priority="161" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="511" priority="160" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="515" priority="160" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="510" priority="157" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="514" priority="157" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="509" priority="156" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="513" priority="156" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="508" priority="153" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="512" priority="153" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="507" priority="152" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="511" priority="152" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="506" priority="145" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="510" priority="145" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="505" priority="144" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="509" priority="144" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="504" priority="141" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="508" priority="141" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="503" priority="140" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="507" priority="140" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="502" priority="129" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="506" priority="129" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="501" priority="128" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="505" priority="128" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="500" priority="125" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="504" priority="125" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="499" priority="124" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="503" priority="124" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="498" priority="121" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="502" priority="121" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="497" priority="120" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="501" priority="120" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="496" priority="117" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="500" priority="117" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="495" priority="116" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="499" priority="116" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="494" priority="113" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="498" priority="113" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="493" priority="112" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="497" priority="112" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z86">
-    <cfRule type="containsText" dxfId="492" priority="109" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="496" priority="109" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z86">
-    <cfRule type="containsText" dxfId="491" priority="108" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="495" priority="108" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="490" priority="85" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="494" priority="85" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="489" priority="84" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="493" priority="84" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="488" priority="81" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="492" priority="81" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="487" priority="80" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="491" priority="80" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="486" priority="77" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="490" priority="77" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="485" priority="76" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="489" priority="76" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="484" priority="69" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="488" priority="69" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="483" priority="68" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="487" priority="68" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="482" priority="65" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="486" priority="65" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="481" priority="64" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="485" priority="64" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="480" priority="61" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="484" priority="61" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="479" priority="60" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="483" priority="60" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="478" priority="57" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="482" priority="57" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="477" priority="56" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="481" priority="56" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="476" priority="53" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="480" priority="53" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="475" priority="52" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="479" priority="52" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="474" priority="49" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="478" priority="49" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="473" priority="48" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="477" priority="48" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="472" priority="45" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="476" priority="45" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="471" priority="44" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="475" priority="44" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="470" priority="41" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="474" priority="41" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="469" priority="40" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="473" priority="40" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="468" priority="37" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="472" priority="37" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="467" priority="36" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="471" priority="36" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J101 J106 J109:J131">
-    <cfRule type="containsText" dxfId="466" priority="33" stopIfTrue="1" operator="containsText" text="Off Request">
+  <conditionalFormatting sqref="J94:J131">
+    <cfRule type="containsText" dxfId="470" priority="33" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J101 J106 J109:J131">
-    <cfRule type="containsText" dxfId="465" priority="32" operator="containsText" text="Home">
+  <conditionalFormatting sqref="J94:J131">
+    <cfRule type="containsText" dxfId="469" priority="32" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="462" priority="21" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="466" priority="21" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="461" priority="20" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="465" priority="20" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J102:J103">
-    <cfRule type="containsText" dxfId="15" priority="11" stopIfTrue="1" operator="containsText" text="Off Request">
-      <formula>NOT(ISERROR(SEARCH("Off Request",J102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J102:J103">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Home">
-      <formula>NOT(ISERROR(SEARCH("Home",J102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J105">
-    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="Off Request">
-      <formula>NOT(ISERROR(SEARCH("Off Request",J104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J105">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Home">
-      <formula>NOT(ISERROR(SEARCH("Home",J104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107:J108">
-    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Off Request">
-      <formula>NOT(ISERROR(SEARCH("Off Request",J107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107:J108">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Home">
-      <formula>NOT(ISERROR(SEARCH("Home",J107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19524,7 +19501,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J94:J101 J106 J109:J131</xm:sqref>
+          <xm:sqref>J94:J131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{58D8061C-4112-444A-8B4C-84EF9B4F56B3}">
@@ -19571,75 +19548,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>M23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{DCCBB010-80DB-1041-B839-42D41E6FDE16}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal" id="{6330342A-3047-E94D-A79E-D231B2D6C812}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J102:J103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{5E10EFD6-E01C-F34C-8CC8-976697FB6ED3}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal" id="{291ED827-2EAC-8741-9BBD-E73BA97EB505}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J104:J105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{55747D39-0F21-2E4E-BA9C-A0C808CBE0C0}">
-            <xm:f>contraints!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal" id="{4B9E426A-2D71-5747-B932-4F9B81C468E8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J107:J108</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -19713,13 +19621,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -19734,13 +19642,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -19755,15 +19663,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4BAD37-B39E-AB48-A459-87BB95591AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD86B0-99B0-FD47-92EC-1C9BCDC20833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,7 +1898,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="719">
+  <dxfs count="723">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7251,11 +7279,11 @@
   <dimension ref="A1:AD164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="M110" sqref="M110:M117"/>
+      <selection pane="bottomRight" activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13408,1232 +13436,1232 @@
   </sheetData>
   <autoFilter ref="A1:AA131" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="Z121:Z123">
-    <cfRule type="containsText" dxfId="718" priority="1004" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="722" priority="1004" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z123 Y123:Y131">
-    <cfRule type="containsText" dxfId="717" priority="617" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="721" priority="617" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="716" priority="589" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="720" priority="589" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="715" priority="588" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="719" priority="588" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="714" priority="585" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="718" priority="585" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="713" priority="584" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="717" priority="584" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="712" priority="581" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="716" priority="581" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="711" priority="580" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="715" priority="580" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y123:Y124">
-    <cfRule type="containsText" dxfId="710" priority="577" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="714" priority="577" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="709" priority="570" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="713" priority="570" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="708" priority="569" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="712" priority="569" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="707" priority="566" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="711" priority="566" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="706" priority="565" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="710" priority="565" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="705" priority="562" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="709" priority="562" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="704" priority="561" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="708" priority="561" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y125:Y131">
-    <cfRule type="containsText" dxfId="703" priority="554" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="707" priority="554" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="702" priority="551" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="706" priority="551" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="701" priority="550" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="705" priority="550" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="700" priority="547" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="704" priority="547" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="699" priority="546" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="703" priority="546" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="698" priority="527" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="702" priority="527" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="697" priority="526" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="701" priority="526" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="696" priority="523" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="700" priority="523" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="695" priority="522" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="699" priority="522" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="694" priority="515" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="698" priority="515" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="693" priority="514" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="697" priority="514" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="692" priority="511" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="696" priority="511" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="691" priority="510" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="695" priority="510" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="690" priority="507" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="694" priority="507" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="689" priority="506" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="693" priority="506" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="688" priority="503" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="692" priority="503" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="687" priority="502" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="691" priority="502" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="686" priority="499" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="690" priority="499" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="685" priority="498" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="689" priority="498" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="684" priority="495" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="688" priority="495" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="683" priority="494" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="687" priority="494" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="682" priority="491" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="686" priority="491" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="681" priority="490" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="685" priority="490" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="680" priority="487" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="684" priority="487" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="679" priority="486" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="683" priority="486" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="678" priority="483" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="682" priority="483" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="677" priority="482" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="681" priority="482" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="676" priority="479" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="680" priority="479" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="675" priority="478" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="679" priority="478" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="674" priority="475" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="678" priority="475" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="673" priority="474" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="677" priority="474" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="672" priority="471" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="676" priority="471" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="671" priority="470" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="675" priority="470" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="670" priority="467" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="674" priority="467" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="669" priority="466" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="673" priority="466" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="668" priority="463" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="672" priority="463" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="667" priority="462" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="671" priority="462" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="666" priority="459" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="670" priority="459" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="665" priority="458" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="669" priority="458" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="664" priority="455" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="668" priority="455" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="663" priority="454" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="667" priority="454" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="662" priority="451" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="666" priority="451" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="661" priority="450" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="665" priority="450" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="660" priority="447" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="664" priority="447" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="659" priority="446" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="663" priority="446" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="658" priority="443" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="662" priority="443" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="657" priority="442" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="661" priority="442" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="656" priority="439" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="660" priority="439" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="655" priority="438" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="659" priority="438" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="654" priority="435" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="658" priority="435" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="653" priority="434" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="657" priority="434" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="652" priority="431" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="656" priority="431" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="651" priority="430" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="655" priority="430" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="650" priority="427" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="654" priority="427" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="649" priority="426" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="653" priority="426" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="648" priority="423" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="652" priority="423" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="647" priority="422" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="651" priority="422" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="646" priority="419" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="650" priority="419" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="645" priority="418" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="649" priority="418" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="644" priority="415" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="648" priority="415" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="643" priority="414" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="647" priority="414" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="642" priority="411" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="646" priority="411" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="641" priority="410" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="645" priority="410" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="640" priority="407" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="644" priority="407" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="639" priority="406" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="643" priority="406" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="638" priority="403" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="642" priority="403" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="637" priority="402" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="641" priority="402" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="636" priority="399" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="640" priority="399" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="635" priority="398" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="639" priority="398" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="634" priority="395" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="638" priority="395" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="633" priority="394" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="637" priority="394" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="632" priority="391" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="636" priority="391" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="631" priority="390" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="635" priority="390" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="630" priority="387" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="634" priority="387" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="629" priority="386" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="633" priority="386" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="628" priority="383" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="632" priority="383" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="627" priority="382" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="631" priority="382" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="626" priority="379" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="630" priority="379" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="625" priority="378" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="629" priority="378" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="624" priority="375" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="628" priority="375" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="623" priority="374" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="627" priority="374" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="622" priority="371" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="626" priority="371" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="621" priority="370" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="625" priority="370" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="620" priority="367" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="624" priority="367" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="619" priority="366" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="623" priority="366" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="618" priority="363" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="622" priority="363" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="617" priority="362" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="621" priority="362" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="616" priority="359" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="620" priority="359" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="615" priority="358" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="619" priority="358" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="614" priority="355" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="618" priority="355" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="613" priority="354" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="617" priority="354" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="612" priority="351" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="616" priority="351" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="611" priority="350" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="615" priority="350" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="610" priority="347" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="614" priority="347" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="609" priority="346" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="613" priority="346" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="608" priority="343" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="612" priority="343" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="607" priority="342" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="611" priority="342" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="606" priority="339" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="610" priority="339" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="605" priority="338" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="609" priority="338" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="604" priority="335" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="608" priority="335" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="603" priority="334" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="607" priority="334" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="602" priority="331" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="606" priority="331" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="601" priority="330" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="605" priority="330" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="600" priority="327" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="604" priority="327" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="599" priority="326" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="603" priority="326" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="598" priority="323" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="602" priority="323" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="597" priority="322" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="601" priority="322" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="596" priority="319" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="600" priority="319" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="595" priority="318" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="599" priority="318" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="594" priority="315" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="598" priority="315" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="593" priority="314" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="597" priority="314" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="592" priority="311" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="596" priority="311" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="591" priority="310" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="595" priority="310" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="590" priority="307" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="594" priority="307" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="589" priority="306" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="593" priority="306" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="588" priority="303" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="592" priority="303" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="587" priority="302" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="591" priority="302" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="586" priority="299" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="590" priority="299" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="585" priority="298" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="589" priority="298" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="584" priority="295" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="588" priority="295" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="583" priority="294" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="587" priority="294" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="582" priority="291" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="586" priority="291" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="581" priority="290" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="585" priority="290" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="580" priority="287" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="584" priority="287" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="579" priority="286" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="583" priority="286" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="578" priority="283" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="582" priority="283" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="577" priority="282" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="581" priority="282" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="576" priority="279" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="580" priority="279" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="575" priority="278" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="579" priority="278" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="574" priority="275" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="578" priority="275" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="573" priority="274" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="577" priority="274" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="572" priority="271" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="576" priority="271" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="571" priority="270" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="575" priority="270" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="570" priority="267" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="574" priority="267" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="569" priority="266" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="573" priority="266" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="568" priority="263" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="572" priority="263" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="567" priority="262" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="571" priority="262" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="566" priority="259" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="570" priority="259" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="565" priority="258" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="569" priority="258" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="564" priority="255" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="568" priority="255" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="563" priority="254" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="567" priority="254" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="562" priority="251" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="566" priority="251" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="561" priority="250" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="565" priority="250" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="560" priority="247" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="564" priority="247" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="559" priority="246" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="563" priority="246" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="558" priority="243" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="562" priority="243" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="557" priority="242" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="561" priority="242" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="556" priority="239" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="560" priority="239" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="555" priority="238" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="559" priority="238" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="554" priority="235" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="558" priority="235" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="553" priority="234" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="557" priority="234" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="552" priority="231" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="556" priority="231" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="551" priority="230" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="555" priority="230" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="550" priority="227" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="554" priority="227" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="549" priority="226" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="553" priority="226" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="548" priority="223" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="552" priority="223" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="547" priority="222" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="551" priority="222" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="546" priority="219" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="550" priority="219" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="545" priority="218" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="549" priority="218" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="544" priority="211" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="548" priority="211" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="543" priority="210" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="547" priority="210" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="542" priority="207" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="546" priority="207" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="541" priority="206" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="545" priority="206" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="540" priority="203" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="544" priority="203" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="539" priority="202" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="543" priority="202" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="538" priority="199" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="542" priority="199" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="537" priority="198" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="541" priority="198" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="536" priority="195" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="540" priority="195" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="535" priority="194" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="539" priority="194" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="534" priority="191" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="538" priority="191" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="533" priority="190" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="537" priority="190" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="532" priority="187" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="536" priority="187" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="531" priority="186" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="535" priority="186" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="530" priority="183" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="534" priority="183" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="529" priority="182" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="533" priority="182" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="528" priority="179" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="532" priority="179" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="527" priority="178" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="531" priority="178" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="526" priority="175" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="530" priority="175" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="525" priority="174" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="529" priority="174" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="524" priority="171" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="528" priority="171" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="523" priority="170" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="527" priority="170" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="522" priority="167" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="526" priority="167" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="521" priority="166" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="525" priority="166" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="520" priority="163" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="524" priority="163" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="519" priority="162" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="523" priority="162" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="518" priority="159" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="522" priority="159" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="517" priority="158" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="521" priority="158" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="516" priority="151" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="520" priority="151" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="515" priority="150" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="519" priority="150" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="514" priority="147" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="518" priority="147" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="513" priority="146" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="517" priority="146" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="512" priority="135" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="516" priority="135" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="511" priority="134" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="515" priority="134" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="510" priority="131" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="514" priority="131" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="509" priority="130" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="513" priority="130" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="508" priority="127" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="512" priority="127" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="507" priority="126" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="511" priority="126" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="506" priority="123" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="510" priority="123" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="505" priority="122" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="509" priority="122" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="504" priority="119" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="508" priority="119" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="503" priority="118" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="507" priority="118" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z84 Z86">
-    <cfRule type="containsText" dxfId="502" priority="115" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="506" priority="115" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z84 Z86">
-    <cfRule type="containsText" dxfId="501" priority="114" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="505" priority="114" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="500" priority="91" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="504" priority="91" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="499" priority="90" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="503" priority="90" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="498" priority="87" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="502" priority="87" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="497" priority="86" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="501" priority="86" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="496" priority="83" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="500" priority="83" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="495" priority="82" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="499" priority="82" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="494" priority="75" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="498" priority="75" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="493" priority="74" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="497" priority="74" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="492" priority="71" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="496" priority="71" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="491" priority="70" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="495" priority="70" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="490" priority="67" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="494" priority="67" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="489" priority="66" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="493" priority="66" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="488" priority="63" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="492" priority="63" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="487" priority="62" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="491" priority="62" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="486" priority="59" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="490" priority="59" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="485" priority="58" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="489" priority="58" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="484" priority="55" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="488" priority="55" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="483" priority="54" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="487" priority="54" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="482" priority="51" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="3" priority="51" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="481" priority="50" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="2" priority="50" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="480" priority="47" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="484" priority="47" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="479" priority="46" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="483" priority="46" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="478" priority="43" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="482" priority="43" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="477" priority="42" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="481" priority="42" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="476" priority="39" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="480" priority="39" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="475" priority="38" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="479" priority="38" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="472" priority="27" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="476" priority="27" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="471" priority="26" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="475" priority="26" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19681,13 +19709,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -19702,13 +19730,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -19723,15 +19751,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD86B0-99B0-FD47-92EC-1C9BCDC20833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DB03C-2D9C-6B48-BEDC-0A2D02D6E0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,49 +1898,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="723">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="687">
     <dxf>
       <fill>
         <patternFill>
@@ -2041,3206 +1999,2996 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7279,7 +7027,7 @@
   <dimension ref="A1:AD164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
@@ -13436,1232 +13184,1232 @@
   </sheetData>
   <autoFilter ref="A1:AA131" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="Z121:Z123">
-    <cfRule type="containsText" dxfId="722" priority="1004" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="686" priority="1004" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z123 Y123:Y131">
-    <cfRule type="containsText" dxfId="721" priority="617" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="685" priority="617" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="720" priority="589" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="684" priority="589" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121:AA124">
-    <cfRule type="containsText" dxfId="719" priority="588" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="683" priority="588" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="718" priority="585" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="682" priority="585" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA118:AA120">
-    <cfRule type="containsText" dxfId="717" priority="584" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="681" priority="584" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="716" priority="581" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="680" priority="581" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y118:Y122">
-    <cfRule type="containsText" dxfId="715" priority="580" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="679" priority="580" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y123:Y124">
-    <cfRule type="containsText" dxfId="714" priority="577" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="678" priority="577" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="713" priority="570" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="677" priority="570" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z88:Z93">
-    <cfRule type="containsText" dxfId="712" priority="569" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="676" priority="569" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="711" priority="566" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="675" priority="566" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA94:AA99">
-    <cfRule type="containsText" dxfId="710" priority="565" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="674" priority="565" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="709" priority="562" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="673" priority="562" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101:AA117">
-    <cfRule type="containsText" dxfId="708" priority="561" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="672" priority="561" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y125:Y131">
-    <cfRule type="containsText" dxfId="707" priority="554" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="671" priority="554" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="706" priority="551" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="670" priority="551" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z125:Z130">
-    <cfRule type="containsText" dxfId="705" priority="550" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="669" priority="550" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="704" priority="547" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="668" priority="547" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AA131">
-    <cfRule type="containsText" dxfId="703" priority="546" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="667" priority="546" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="702" priority="527" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="666" priority="527" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="701" priority="526" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="665" priority="526" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="700" priority="523" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="664" priority="523" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="699" priority="522" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="663" priority="522" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="698" priority="515" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="662" priority="515" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="697" priority="514" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="661" priority="514" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="696" priority="511" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="660" priority="511" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="695" priority="510" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="659" priority="510" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="694" priority="507" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="658" priority="507" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="693" priority="506" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="657" priority="506" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="692" priority="503" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="656" priority="503" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="691" priority="502" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="655" priority="502" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="690" priority="499" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="654" priority="499" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="689" priority="498" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="653" priority="498" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="688" priority="495" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="652" priority="495" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="687" priority="494" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="651" priority="494" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="686" priority="491" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="650" priority="491" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L16">
-    <cfRule type="containsText" dxfId="685" priority="490" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="649" priority="490" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="684" priority="487" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="648" priority="487" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="683" priority="486" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="647" priority="486" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="682" priority="483" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="646" priority="483" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="681" priority="482" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="645" priority="482" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="680" priority="479" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="644" priority="479" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="679" priority="478" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="643" priority="478" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="678" priority="475" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="642" priority="475" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="677" priority="474" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="641" priority="474" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="676" priority="471" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="640" priority="471" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="675" priority="470" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="639" priority="470" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="674" priority="467" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="638" priority="467" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="containsText" dxfId="673" priority="466" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="637" priority="466" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="672" priority="463" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="636" priority="463" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O15">
-    <cfRule type="containsText" dxfId="671" priority="462" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="635" priority="462" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="670" priority="459" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="634" priority="459" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="containsText" dxfId="669" priority="458" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="633" priority="458" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="668" priority="455" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="632" priority="455" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="667" priority="454" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="631" priority="454" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="666" priority="451" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="630" priority="451" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="665" priority="450" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="629" priority="450" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="664" priority="447" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="628" priority="447" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="663" priority="446" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="627" priority="446" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="662" priority="443" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="626" priority="443" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="661" priority="442" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="625" priority="442" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="660" priority="439" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="624" priority="439" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="659" priority="438" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="623" priority="438" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="658" priority="435" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="622" priority="435" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="657" priority="434" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="621" priority="434" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="656" priority="431" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="620" priority="431" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="containsText" dxfId="655" priority="430" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="619" priority="430" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="654" priority="427" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="618" priority="427" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="653" priority="426" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="617" priority="426" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="652" priority="423" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="616" priority="423" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="651" priority="422" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="615" priority="422" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="650" priority="419" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="614" priority="419" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="649" priority="418" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="613" priority="418" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="648" priority="415" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="612" priority="415" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18">
-    <cfRule type="containsText" dxfId="647" priority="414" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="611" priority="414" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="646" priority="411" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="610" priority="411" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="645" priority="410" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="609" priority="410" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="644" priority="407" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="608" priority="407" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V14">
-    <cfRule type="containsText" dxfId="643" priority="406" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="607" priority="406" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="642" priority="403" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="606" priority="403" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="containsText" dxfId="641" priority="402" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="605" priority="402" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="640" priority="399" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="604" priority="399" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18:W18">
-    <cfRule type="containsText" dxfId="639" priority="398" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="603" priority="398" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="638" priority="395" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="602" priority="395" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y15">
-    <cfRule type="containsText" dxfId="637" priority="394" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="601" priority="394" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="636" priority="391" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="600" priority="391" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="containsText" dxfId="635" priority="390" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="599" priority="390" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="634" priority="387" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="598" priority="387" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="containsText" dxfId="633" priority="386" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="597" priority="386" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="632" priority="383" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="596" priority="383" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:Z16">
-    <cfRule type="containsText" dxfId="631" priority="382" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="595" priority="382" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="630" priority="379" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="594" priority="379" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="629" priority="378" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="593" priority="378" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="628" priority="375" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="592" priority="375" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AA15">
-    <cfRule type="containsText" dxfId="627" priority="374" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="591" priority="374" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="626" priority="371" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="590" priority="371" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18:AA18">
-    <cfRule type="containsText" dxfId="625" priority="370" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="589" priority="370" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="624" priority="367" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="588" priority="367" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="containsText" dxfId="623" priority="366" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="587" priority="366" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="622" priority="363" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="586" priority="363" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="621" priority="362" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="585" priority="362" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="620" priority="359" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="584" priority="359" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:M32">
-    <cfRule type="containsText" dxfId="619" priority="358" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="583" priority="358" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="618" priority="355" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="582" priority="355" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="containsText" dxfId="617" priority="354" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="581" priority="354" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="616" priority="351" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="580" priority="351" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="containsText" dxfId="615" priority="350" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="579" priority="350" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="614" priority="347" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="578" priority="347" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="containsText" dxfId="613" priority="346" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="577" priority="346" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Y32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="612" priority="343" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="576" priority="343" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="containsText" dxfId="611" priority="342" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="575" priority="342" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="610" priority="339" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="574" priority="339" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:X37">
-    <cfRule type="containsText" dxfId="609" priority="338" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="573" priority="338" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",X36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="608" priority="335" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="572" priority="335" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36:W36">
-    <cfRule type="containsText" dxfId="607" priority="334" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="571" priority="334" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="606" priority="331" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="570" priority="331" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="containsText" dxfId="605" priority="330" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="569" priority="330" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",V37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="604" priority="327" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="568" priority="327" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:V41">
-    <cfRule type="containsText" dxfId="603" priority="326" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="567" priority="326" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",U41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="602" priority="323" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="566" priority="323" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36:S36">
-    <cfRule type="containsText" dxfId="601" priority="322" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="565" priority="322" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="600" priority="319" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="564" priority="319" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="containsText" dxfId="599" priority="318" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="563" priority="318" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="598" priority="315" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="562" priority="315" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="containsText" dxfId="597" priority="314" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="561" priority="314" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="596" priority="311" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="560" priority="311" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41">
-    <cfRule type="containsText" dxfId="595" priority="310" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="559" priority="310" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="594" priority="307" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="558" priority="307" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="containsText" dxfId="593" priority="306" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="557" priority="306" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="592" priority="303" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="556" priority="303" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="containsText" dxfId="591" priority="302" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="555" priority="302" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="590" priority="299" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="554" priority="299" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36:N37">
-    <cfRule type="containsText" dxfId="589" priority="298" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="553" priority="298" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="588" priority="295" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="552" priority="295" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:L36">
-    <cfRule type="containsText" dxfId="587" priority="294" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="551" priority="294" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="586" priority="291" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="550" priority="291" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="containsText" dxfId="585" priority="290" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="549" priority="290" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="584" priority="287" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="548" priority="287" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="containsText" dxfId="583" priority="286" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="547" priority="286" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="582" priority="283" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="546" priority="283" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="581" priority="282" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="545" priority="282" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="580" priority="279" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="544" priority="279" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="579" priority="278" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="543" priority="278" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="578" priority="275" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="542" priority="275" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55">
-    <cfRule type="containsText" dxfId="577" priority="274" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="541" priority="274" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="576" priority="271" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="540" priority="271" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="containsText" dxfId="575" priority="270" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="539" priority="270" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="574" priority="267" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="538" priority="267" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="containsText" dxfId="573" priority="266" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="537" priority="266" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",T55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="572" priority="263" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="536" priority="263" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="containsText" dxfId="571" priority="262" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="535" priority="262" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="570" priority="259" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="534" priority="259" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="containsText" dxfId="569" priority="258" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="533" priority="258" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="568" priority="255" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="532" priority="255" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="containsText" dxfId="567" priority="254" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="531" priority="254" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="566" priority="251" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="530" priority="251" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="565" priority="250" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="529" priority="250" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="564" priority="247" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="528" priority="247" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="563" priority="246" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="527" priority="246" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="562" priority="243" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="526" priority="243" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="561" priority="242" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="525" priority="242" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="560" priority="239" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="524" priority="239" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="559" priority="238" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="523" priority="238" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",N55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="558" priority="235" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="522" priority="235" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="containsText" dxfId="557" priority="234" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="521" priority="234" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="556" priority="231" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="520" priority="231" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:L67">
-    <cfRule type="containsText" dxfId="555" priority="230" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="519" priority="230" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="554" priority="227" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="518" priority="227" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:P67">
-    <cfRule type="containsText" dxfId="553" priority="226" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="517" priority="226" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="552" priority="223" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="516" priority="223" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="551" priority="222" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="515" priority="222" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="550" priority="219" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="514" priority="219" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="containsText" dxfId="549" priority="218" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="513" priority="218" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="548" priority="211" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="512" priority="211" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P110">
-    <cfRule type="containsText" dxfId="547" priority="210" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="511" priority="210" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="546" priority="207" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="510" priority="207" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P117">
-    <cfRule type="containsText" dxfId="545" priority="206" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="509" priority="206" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",P117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="544" priority="203" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="508" priority="203" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L121">
-    <cfRule type="containsText" dxfId="543" priority="202" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="507" priority="202" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",L121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="542" priority="199" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="506" priority="199" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R121">
-    <cfRule type="containsText" dxfId="541" priority="198" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="505" priority="198" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",R121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="540" priority="195" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="504" priority="195" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120">
-    <cfRule type="containsText" dxfId="539" priority="194" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="503" priority="194" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",S120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="538" priority="191" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="502" priority="191" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z124">
-    <cfRule type="containsText" dxfId="537" priority="190" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="501" priority="190" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="536" priority="187" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="500" priority="187" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z131">
-    <cfRule type="containsText" dxfId="535" priority="186" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="499" priority="186" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="534" priority="183" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="498" priority="183" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z120">
-    <cfRule type="containsText" dxfId="533" priority="182" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="497" priority="182" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="532" priority="179" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="496" priority="179" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118">
-    <cfRule type="containsText" dxfId="531" priority="178" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="495" priority="178" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="530" priority="175" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="494" priority="175" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z117">
-    <cfRule type="containsText" dxfId="529" priority="174" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="493" priority="174" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="528" priority="171" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="492" priority="171" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z113">
-    <cfRule type="containsText" dxfId="527" priority="170" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="491" priority="170" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="526" priority="167" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="490" priority="167" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA100">
-    <cfRule type="containsText" dxfId="525" priority="166" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="489" priority="166" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",AA100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="524" priority="163" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="488" priority="163" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z72">
-    <cfRule type="containsText" dxfId="523" priority="162" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="487" priority="162" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="522" priority="159" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="486" priority="159" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="containsText" dxfId="521" priority="158" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="485" priority="158" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",W77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="520" priority="151" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="484" priority="151" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="containsText" dxfId="519" priority="150" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="483" priority="150" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Q74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="518" priority="147" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="482" priority="147" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="containsText" dxfId="517" priority="146" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="481" priority="146" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",O93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="516" priority="135" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="480" priority="135" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="containsText" dxfId="515" priority="134" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="479" priority="134" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="514" priority="131" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="478" priority="131" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="containsText" dxfId="513" priority="130" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="477" priority="130" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="512" priority="127" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="476" priority="127" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I131">
-    <cfRule type="containsText" dxfId="511" priority="126" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="475" priority="126" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="510" priority="123" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="474" priority="123" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68">
-    <cfRule type="containsText" dxfId="509" priority="122" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="473" priority="122" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="508" priority="119" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="472" priority="119" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z69:Z71">
-    <cfRule type="containsText" dxfId="507" priority="118" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="471" priority="118" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z84 Z86">
-    <cfRule type="containsText" dxfId="506" priority="115" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="470" priority="115" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z73:Z84 Z86">
-    <cfRule type="containsText" dxfId="505" priority="114" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="469" priority="114" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="504" priority="91" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="468" priority="91" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:Z36">
-    <cfRule type="containsText" dxfId="503" priority="90" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="467" priority="90" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="502" priority="87" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="466" priority="87" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38:Z49">
-    <cfRule type="containsText" dxfId="501" priority="86" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="465" priority="86" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="500" priority="83" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="464" priority="83" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51:Z65">
-    <cfRule type="containsText" dxfId="499" priority="82" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="463" priority="82" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="498" priority="75" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="462" priority="75" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z119">
-    <cfRule type="containsText" dxfId="497" priority="74" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="461" priority="74" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="496" priority="71" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="460" priority="71" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22 Z24">
-    <cfRule type="containsText" dxfId="495" priority="70" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="459" priority="70" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="494" priority="67" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="458" priority="67" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:Z31">
-    <cfRule type="containsText" dxfId="493" priority="66" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="457" priority="66" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="492" priority="63" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="456" priority="63" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22 M24:M30">
-    <cfRule type="containsText" dxfId="491" priority="62" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="455" priority="62" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="490" priority="59" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="454" priority="59" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z94:Z112">
-    <cfRule type="containsText" dxfId="489" priority="58" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="453" priority="58" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="488" priority="55" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="452" priority="55" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z114:Z116">
-    <cfRule type="containsText" dxfId="487" priority="54" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="451" priority="54" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="3" priority="51" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="450" priority="51" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94:M117">
-    <cfRule type="containsText" dxfId="2" priority="50" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="449" priority="50" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="484" priority="47" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="448" priority="47" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119:M129">
-    <cfRule type="containsText" dxfId="483" priority="46" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="447" priority="46" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="482" priority="43" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="446" priority="43" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="containsText" dxfId="481" priority="42" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="445" priority="42" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",M131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="480" priority="39" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="444" priority="39" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J131">
-    <cfRule type="containsText" dxfId="479" priority="38" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="443" priority="38" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="476" priority="27" stopIfTrue="1" operator="containsText" text="Off Request">
+    <cfRule type="containsText" dxfId="442" priority="27" stopIfTrue="1" operator="containsText" text="Off Request">
       <formula>NOT(ISERROR(SEARCH("Off Request",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="475" priority="26" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="441" priority="26" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19709,13 +19457,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -19730,13 +19478,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -19751,15 +19499,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
